--- a/data/Anti-Chafing-Study--master-database.xlsx
+++ b/data/Anti-Chafing-Study--master-database.xlsx
@@ -1525,10 +1525,10 @@
     <t>Gooch Guard Chamois Cream</t>
   </si>
   <si>
-    <t>Zealios All Natural; Vegan; Betwixt Athletic Skin Lubricant &amp; Chamois Cream</t>
-  </si>
-  <si>
-    <t>ChafeZone - Anti-Chafe &amp; Blister Prevention</t>
+    <t>Zealios All Natural; Vegan; Betwixt Athletic Skin Lubricant and Chamois Cream</t>
+  </si>
+  <si>
+    <t>ChafeZone - Anti-Chafe and Blister Prevention</t>
   </si>
   <si>
     <t>http://www.ebay.com/itm/MedZone-ChafeZone-BurnZone-PainZone-LOT-of-20-NEW-First-Aid-Relief-Prevention-/151835007365</t>
@@ -1684,7 +1684,7 @@
     <t>http://www.amazon.com/dp/B001KYVWQG?psc=1</t>
   </si>
   <si>
-    <t>Bag-Balm; Vermonts Original Moisturizing &amp; Softening Ointment</t>
+    <t>Bag-Balm; Vermonts Original Moisturizing and Softening Ointment</t>
   </si>
   <si>
     <t>http://www.amazon.com/Bag-Balm-Vermonts-Original-Moisturizing-Softening/dp/B0014CI4X8</t>
@@ -19504,7 +19504,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="6.86"/>
-    <col customWidth="1" min="2" max="2" width="45.29"/>
+    <col customWidth="1" min="2" max="2" width="54.86"/>
     <col customWidth="1" min="3" max="3" width="11.0"/>
     <col customWidth="1" min="4" max="4" width="10.71"/>
     <col customWidth="1" min="5" max="6" width="9.0"/>

--- a/data/Anti-Chafing-Study--master-database.xlsx
+++ b/data/Anti-Chafing-Study--master-database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4367" uniqueCount="838">
   <si>
     <t>Product_ID</t>
   </si>
@@ -1333,10 +1333,10 @@
     <t>Product_Type</t>
   </si>
   <si>
-    <t>Product_Audiance</t>
-  </si>
-  <si>
-    <t>Product_Audiance_Cat2</t>
+    <t>Product_Audience</t>
+  </si>
+  <si>
+    <t>Product_Audience_Cat2</t>
   </si>
   <si>
     <t>Product_Specific_Use</t>
@@ -1351,1123 +1351,1126 @@
     <t>Product_Size_Unit</t>
   </si>
   <si>
+    <t>Product_Unit_Cost_USD</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Rate_5</t>
+  </si>
+  <si>
+    <t>Rate_4</t>
+  </si>
+  <si>
+    <t>Rate_3</t>
+  </si>
+  <si>
+    <t>Rate_2</t>
+  </si>
+  <si>
+    <t>Rate_1</t>
+  </si>
+  <si>
+    <t>Product_Rating_Date</t>
+  </si>
+  <si>
+    <t>Rating_Source</t>
+  </si>
+  <si>
+    <t>Ingredient_Date</t>
+  </si>
+  <si>
+    <t>Ingredient_Source</t>
+  </si>
+  <si>
+    <t>Body Glide Origional</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Amazon.com</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Gold Bond Friction Defense</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Gold-Bond-Friction-Defense-Ounce/dp/B007VC9DKI</t>
+  </si>
+  <si>
+    <t>Skin Stong Slather</t>
+  </si>
+  <si>
+    <t>Cream</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Brave Soldier Friction Zone</t>
+  </si>
+  <si>
+    <t>Ointment</t>
+  </si>
+  <si>
+    <t>Run; Bike</t>
+  </si>
+  <si>
+    <t>Trail Toes Foot and Body Cream</t>
+  </si>
+  <si>
+    <t>Run; Hike</t>
+  </si>
+  <si>
+    <t>Feet</t>
+  </si>
+  <si>
+    <t>HikeGoo Blister Prevention Cream (Feet)</t>
+  </si>
+  <si>
+    <t>Hike</t>
+  </si>
+  <si>
+    <t>rei.com</t>
+  </si>
+  <si>
+    <t>RunGoo Blister Prevention Cream</t>
+  </si>
+  <si>
+    <t>Rocket Pure Friction Therapy Natural Anti-Chafe Balm</t>
+  </si>
+  <si>
+    <t>Triathlon</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Anti-chafe-Protection-Triathletes-Ingredients-Rocket/dp/B00RKHRUFY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaseline </t>
+  </si>
+  <si>
+    <t>Chamois Butt'r</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Groin</t>
+  </si>
+  <si>
+    <t>BikeBling.com</t>
+  </si>
+  <si>
+    <t>Blue Steel Sports Anti-Chafe Cream</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Lanacane Anti-Chafing Gel</t>
+  </si>
+  <si>
+    <t>Gel</t>
+  </si>
+  <si>
+    <t>ChafeStop anti-chafing stick</t>
+  </si>
+  <si>
+    <t>2Toms SportShield Liquid Roll-On</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>http://www.2toms.com/products-page/sportshield/sportshield-roll-on/</t>
+  </si>
+  <si>
+    <t>Mission Athletecare 5 Hour Anti-Chafe Cream</t>
+  </si>
+  <si>
+    <t>http://ec2-54-243-178-219.compute-1.amazonaws.com/skindeep/product/525433/MISSION_Athletecare_5_Hour_Anti-Chafe_Cream/</t>
+  </si>
+  <si>
+    <t>Trislide SBR Anti-Chafe Continuous Spray Lubricant</t>
+  </si>
+  <si>
+    <t>http://www.drugstore.com/trislide-aerosol-skin-lubricant/qxp277713</t>
+  </si>
+  <si>
+    <t>SLIK Anti-Friction and Anti-Chafe Skin Lube</t>
+  </si>
+  <si>
+    <t>http://skinstrong.com/slik-anti-chafing-spray/</t>
+  </si>
+  <si>
+    <t>Gooch Guard Chamois Cream</t>
+  </si>
+  <si>
+    <t>Zealios All Natural; Vegan; Betwixt Athletic Skin Lubricant and Chamois Cream</t>
+  </si>
+  <si>
+    <t>ChafeZone - Anti-Chafe and Blister Prevention</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/MedZone-ChafeZone-BurnZone-PainZone-LOT-of-20-NEW-First-Aid-Relief-Prevention-/151835007365</t>
+  </si>
+  <si>
+    <t>Mueller Lube Stick for Runners</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Mueller-Lube-Stick-Runners-2-25-Ounce/dp/B000TS8MHG/ref=pd_sim_sg_16</t>
+  </si>
+  <si>
+    <t>Corona Multi-Purpose Ointment</t>
+  </si>
+  <si>
+    <t>Off-Label</t>
+  </si>
+  <si>
+    <t>Veterinary</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Manna-Pro-0095005392-Purpose-Ointment/dp/B003ARD4TE/ref=sr_1_1?ie=UTF8&amp;qid=1456059201&amp;sr=8-1&amp;keywords=Corona+Multi-Purpose+Ointment</t>
+  </si>
+  <si>
+    <t>Boudreaux's Butt Paste Diaper Rash Ointment Skin Protectant</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Boudreauxs-Butt-Paste-Ointment-Protectant/dp/B001190D5Q/ref=sr_1_4?s=baby-products&amp;ie=UTF8&amp;qid=1456060126&amp;sr=1-4&amp;keywords=Butt+Paste</t>
+  </si>
+  <si>
+    <t>http://www.buttpaste.com/products/original-butt-paste</t>
+  </si>
+  <si>
+    <t>Sportslick</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Sportslick-3-8-oz/dp/B0007OC0A2/ref=sr_1_1?ie=UTF8&amp;qid=1456061443&amp;sr=8-1&amp;keywords=sportslick</t>
+  </si>
+  <si>
+    <t>http://www.allstarhealth.com/de_p/14001/Sportslick_The_Ultimate_Skin_Protector.htm</t>
+  </si>
+  <si>
+    <t>Ruby's Lube - All Natural Anti-Chafe Balm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Rubys-Lube-Natural-Anti-Chafe-Balm/dp/B00MH7G8GO/ref=sr_1_15?ie=UTF8&amp;qid=1456078186</t>
+  </si>
+  <si>
+    <t>Bodyglide Skin Glide Anti-Friction Balm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Bodyglide-Skin-Glide-Anti-Friction-Ounce/dp/B0031Y4S0U/ref=sr_1_2?ie=UTF8&amp;qid=1456079038</t>
+  </si>
+  <si>
+    <t>https://www.bodyglide.com/shop/skin/</t>
+  </si>
+  <si>
+    <t>Reflect Sports Hoo Ha Ride Glide</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Reflect-Sports-Ride-Glide-8-Ounce/dp/B009NN2O86</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/forum/-/Tx3RL6DD7J0OV22/ref=ask_dp_dpmw_al_hza?asin=B009NN2O86</t>
+  </si>
+  <si>
+    <t>Aquaphor (Baby)</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Aquaphor-Healing-Ointment-Diaper-Protectant/dp/B001F0RAVQ/ref=sr_1_5?ie=UTF8&amp;qid=1456089783</t>
+  </si>
+  <si>
+    <t>Surf Butta Anti-Chafe Balm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Surf-Butta-Anti-Chafe-Balm-Eliminates/dp/B017HUPINY/ref=sr_1_9?s=sporting-goods&amp;ie=UTF8&amp;qid=1456090069</t>
+  </si>
+  <si>
+    <t>Chamois Butt'r GoStik Skin Lubricant</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Chamois-Buttr-GoStik-Lubricant-2-5-Ounce/dp/B00M8YXR74/ref=sr_1_18?s=sporting-goods&amp;ie=UTF8&amp;qid=1456090069</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Chamois-Buttr-GoStik-Lubricant-2-5-Ounce/dp/B00M8YXR74%3FSubscriptionId%3DAKIAJ7ULU7QZXKP7GIOQ%26tag%3Dhomea0c-20%26linkCode%3Dxm2%26camp%3D2025%26creative%3D165953%26creativeASIN%3DB00M8YXR74</t>
+  </si>
+  <si>
+    <t>Dead Down Wind Anti-Chafe + Anti-Itch Lotion</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Dead-Down-Wind-Anti-Chafe-Anti-Itch/dp/B00OH5LVLQ/ref=sr_1_1?ie=UTF8&amp;qid=1456091893</t>
+  </si>
+  <si>
+    <t>That Butt Stuff Anti Chafing Cream - Natural Chamois Balm</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Anti-Chafing-Cream-Natural-Chamois/dp/B002TIIGIO/ref=sr_1_31?s=sporting-goods&amp;ie=UTF8&amp;qid=1456107746</t>
+  </si>
+  <si>
+    <t>Petal Power Joy Ride Cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/dp/B00PM94YC4?psc=1 PRICE information from manufactor website http://www.petal-power.com/store/p2/Petal_Power_Joy_Ride_Creme.html</t>
+  </si>
+  <si>
+    <t>http://www.petal-power.com/our-ingredients.html</t>
+  </si>
+  <si>
+    <t>DZ Nuts Pro Chamois Cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/DZ-Nuts-Pro-Chamois-Cream/dp/B008F9J16M/ref=pd_sbs_468_5?ie=UTF8&amp;dpID=31ai7kgn6oL&amp;dpSrc=sims&amp;preST=_AC_UL160_SR160%2C160_&amp;refRID=1RF8866Y6MXDJFBDEJ84</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/forum/-/Tx4H8S2UKHM9D2/-/ref=ask_dp_lsw_al_hza?asin=B001C6DIF0  http://www.competitivecyclist.com/dz-nuts-pro-chamios-cream-mens</t>
+  </si>
+  <si>
+    <t>Soigneur Chamois Cream - Tempo</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Soigneur-Tempo-Chamois-Cream/dp/B009FPGHN0/ref=sr_1_1?ie=UTF8&amp;qid=1456200002</t>
+  </si>
+  <si>
+    <t>http://www.soigneur.net/shop/chamois-cream-1</t>
+  </si>
+  <si>
+    <t>Beach Gladiator Anti-Chafe Roll-On Rash Guard for Beach/Surf Rash</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Beach-Gladiator-Anti-Chafe-Roll--Guard/dp/B00RPOQMEC</t>
+  </si>
+  <si>
+    <t>Monistat Soothing Care Chafing Relief Powder-Gel</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Monistat-Soothing-Chafing-Powder-Gel-1-5-Ounce/dp/B0012ZNSWE</t>
+  </si>
+  <si>
+    <t>Assos Chamois Cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Assos-Chamois-Cream-4-73-oz/dp/B001O19E2E</t>
+  </si>
+  <si>
+    <t>Udderly Smooth Chamois Cream with Shea Butter</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Udderly-Smooth-Chamois-Cream-Butter/dp/B00D86VJD0</t>
+  </si>
+  <si>
+    <t>Moraz Redskin - Polygonum Anti Chafe Cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/dp/B001KYVWQG?psc=1</t>
+  </si>
+  <si>
+    <t>Bag-Balm; Vermonts Original Moisturizing and Softening Ointment</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Bag-Balm-Vermonts-Original-Moisturizing-Softening/dp/B0014CI4X8</t>
+  </si>
+  <si>
+    <t>Doc's Skin Care Chamois Cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Docs-Skin-Care-Chamois-Cream/dp/B00EOUTNPA</t>
+  </si>
+  <si>
+    <t>http://docsskincare.com/products/chamois-cream/</t>
+  </si>
+  <si>
+    <t>Hammer Nutrition Seat Saver Chamois And Anti- Chafing Cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Hammer-Nutrition-Saver-Chamois-Chafing/dp/B002K69HSI/</t>
+  </si>
+  <si>
+    <t>http://www.hammernutrition.com/products/seat-saver.ssv.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RunGuard Anti-Chafe Stick </t>
+  </si>
+  <si>
+    <t>https://www.google.com/shopping/product/4682990999738067527?q=RunGuard+Anti-Chafe&amp;biw=1192&amp;bih=578&amp;bav=on.2;or.r_cp.&amp;bvm=bv.115339255;d.dmo&amp;tch=1&amp;ech=1&amp;psi=pSzRVtiUAcHxeq6olYgH.1456549138121.9&amp;prds=hsec:reviews;paur:ClkAsKraX_JVZz_TOWlQw69jyl1NsFlF2fJED_TB-hXY0Ys4Ufb3VKbRAncj0n_e6kKDkYTBLlJNxS4V-4lKNaAn68oW1iNyTRR0HzndpgfJRZ2Ppr8O50f6xxIZAFPVH70i1tOHBnSoJG3SX9zlZEkaNSfmTQ&amp;ved=0ahUKEwjivqvilJfLAhVHGB4KHX1fB_AQqisIFQ&amp;ei=fC3RVuKQBseweP2-nYAP</t>
+  </si>
+  <si>
+    <t>http://www.runguards.com/products/runguard-original/ingredients</t>
+  </si>
+  <si>
+    <t>Fresh Balls</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Fresh-Balls-Oz-Tube-Pack/dp/B00D3LTEVE/#customerReviews</t>
+  </si>
+  <si>
+    <t>Akileïne Sports NOK Anti-chafing Cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Akile%C3%AFne-Sports-Anti-chafing-Cream-75ml/dp/B0070X231Y; http://www.mec.ca/product/5009-478/sports-akileine-anti-friction-nok-cream-75ml/</t>
+  </si>
+  <si>
+    <t>http://www.cocooncenter.co.uk/akileine-sports-nok-anti-chafing-cream-75ml/8534.html#composition</t>
+  </si>
+  <si>
+    <t>Shea Butter Market SPLAX Anti‑Chafing Stick</t>
+  </si>
+  <si>
+    <t>http://www.mec.ca/product/5014-984/shea-butter-market-splax-anti-chafing-stick-60g/</t>
+  </si>
+  <si>
+    <t>http://www.artisancraftedbodycare.com/shea-butter-market-splax-anti-chafing-stick</t>
+  </si>
+  <si>
+    <t>Miracle of Aloe Chafe Guard Anti Friction Stick</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Miracle-Aloe-Lubricants-Eliminates-Comfortable/dp/B002FPBPOI</t>
+  </si>
+  <si>
+    <t>http://www.miracleofaloe.com/personal-care/problem-solvers/chafe-guard.html</t>
+  </si>
+  <si>
+    <t>Uberlube Luxury Lubricant</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Uberlube-UBER-100-Luxury-Lubricant-100ml/dp/B00502KJ2C</t>
+  </si>
+  <si>
+    <t>GurneyGoo Lubricant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General </t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/GurneyGears-GurneyGoo-Anti-Chafe-85ml/dp/B00SQ1DQY2</t>
+  </si>
+  <si>
+    <t>Desitin Maximum Strength Paste</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/dp/B003O32P8U/</t>
+  </si>
+  <si>
+    <t>https://www.desitin.com/diaper-rash-products/maximum-strength-original-zinc-oxide-paste</t>
+  </si>
+  <si>
+    <t>Hipoglos 4.2 Oz Baby Diaper Rash Cream And Skin Protectant</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Hipoglos-Baby-Diaper-Cream-Protectant/dp/B004DAQWAK</t>
+  </si>
+  <si>
+    <t>http://dailymed.nlm.nih.gov/dailymed/archives/fdaDrugInfo.cfm?archiveid=42792</t>
+  </si>
+  <si>
+    <t>Cramer Skin Lube</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Cramer-Legendary-Lubricant-Marathons-Triathlons/dp/B0002V8R70</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/NEW-Cramer-Skin-Lube-Pro-Strength-Lubricating-Ointment-1-Lb-Tub-192538-Chafing-/181714844162?hash=item2a4f0c7a02:g:lOMAAOSwNSxVKdu5</t>
+  </si>
+  <si>
+    <t>Waxelene Petroleum Jelly Alternative</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Waxelene-Petroleum-Jelly-Alternative-9-Ounce/dp/B00D3PMP20/</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/forum/-/Tx2LNYLMMZS5CUQ/-/ref=ask_dp_lsw_al_hza?asin=B00D3PMP20</t>
+  </si>
+  <si>
+    <t>Band-Aid Friction Blister Block Stick</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Band-Aid-Friction-Blister-Block-Stick/dp/B00166FZBG/</t>
+  </si>
+  <si>
+    <t>ChafeX Anti-Chafing Skin Cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/gp/product/B00TT3KRMK/</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/forum/-/Tx2QO7ANIQVQO8C/ref=ask_dp_dpmw_al_hza?asin=B00TT3KRMK</t>
+  </si>
+  <si>
+    <t>Neat Feat 3B Body Saver Skin Chafing Antiperspirant Cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/Neat-Saver-Chafing-Antiperspirant-Ounces/dp/B00B5MPCWI</t>
+  </si>
+  <si>
+    <t>Neat 3B Action Cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.co.uk/dp/B001D8D7D0</t>
+  </si>
+  <si>
+    <t>3M Cavilon Durable Barrier Cream Fragrance Free</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/3M-Cavilon-Durable-Barrier-Fragrance/dp/B00CYPUUYK</t>
+  </si>
+  <si>
+    <t>http://solutions.3m.co.uk/wps/portal/3M/en_GB/Cavilon/skin-care/products/durable-barrier-cream/</t>
+  </si>
+  <si>
+    <t>Avon basics silicone glove hand cream</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com/basics-silicone-glove-cream-3-4fl/dp/B0014HG8W2/</t>
+  </si>
+  <si>
+    <t>https://www.avon.com/product/41894/avon-care-silicone-glove-protective-hand-cream?setlang=en</t>
+  </si>
+  <si>
+    <t>Ingredient_Alternate_Name</t>
+  </si>
+  <si>
+    <t>Ingredient_Definition</t>
+  </si>
+  <si>
+    <t>Ingredient_Definition_Source</t>
+  </si>
+  <si>
+    <t>Ingredient_Def_Date</t>
+  </si>
+  <si>
+    <t>Ingredient_Chem_Ref</t>
+  </si>
+  <si>
+    <t>8-HYDROXYQUINOLINE</t>
+  </si>
+  <si>
+    <t>8-HYDROXYQUINOLINE is an antiseptic with mild fungistatic; bacteriostatic; anthelmintic; and amebicidal action. It is also used as a reagent and metal chelator; as a carrier for radio-indium for diagnostic purposes; and its halogenated derivatives are used in addition as topical anti-infective agents and oral antiamebics.</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/8-hydroxyquinoline#section=Top</t>
+  </si>
+  <si>
+    <t>ACACIA DECURRENS Extract</t>
+  </si>
+  <si>
+    <t>About ACACIA DECURRENS FLOWER WAX: Acacia Decurrens Flower Wax is a wax obtained from the flowers of Acacia decurrens. Function(s): Skin-Conditioning Agent - Emollient; Skin-Conditioning Agent - Occlusive; SKIN CONDITIONING; SKIN PROTECTING</t>
+  </si>
+  <si>
+    <t>http://www.ewg.org/skindeep/ingredient/716261/ACACIA_DECURRENS_FLOWER_WAX/</t>
+  </si>
+  <si>
+    <t>Acai Juice</t>
+  </si>
+  <si>
+    <t>PH Control. Acetic Acid is an organic acid formed when ethanol is fermented. Vinegar is typically a 5% solution of Acetic Acid. Brown Rice Vinegar is the vinegar produced by the fermentation of unpolished brown rice. Natural Vinegars also contain small amounts of tartaric acid; citric acid and other acids. In cosmetics and personal care products; Acetic Acid; Vinegar and Brown Rice Vinegar are used in the formulation of hair conditioners; shampoos; hair rinses; wave sets and other hair care products. Acetic Acid is also used in mouthwashes and breath fresheners and Vinegar can be found in skin care products.</t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/vinegar-and-acetic-acid</t>
+  </si>
+  <si>
+    <t>Acrylate Polymer</t>
+  </si>
+  <si>
+    <t>Binding agent. Acrylate polymer; "three" or "ter" in terpolymer means three monomers connected together.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Acrylate_polymer</t>
+  </si>
+  <si>
+    <t>Detatured Alcohol? Ethanol?</t>
+  </si>
+  <si>
+    <t>Unclear to which "alcohol" this is.</t>
+  </si>
+  <si>
+    <t>5-Ureidohydantoin; Glyoxyldiureide</t>
+  </si>
+  <si>
+    <t>llantoin is a naturally ocurring nitrogenous compound used as a skin conditioning agent.</t>
+  </si>
+  <si>
+    <t>http://www.ewg.org/skindeep/ingredient/700244/ALLANTOIN/</t>
+  </si>
+  <si>
+    <t>https://fscimage.fishersci.com/msds/24578.htm</t>
+  </si>
+  <si>
+    <t>Aloe Vera Extract; Aloe Vera Juice; Aloe Leaf Juice; Aloe Vera Gel</t>
+  </si>
+  <si>
+    <t>Juice vs. Gel -- Gel has a higher polysachride content; made from the inside of the plant. Juice is made from the outer leaf mainly. Gel has a higher concentration of aloin; which is a laxitive (why you should not drink the gel!)</t>
+  </si>
+  <si>
+    <t>http://www.livestrong.com/article/474409-aloe-vera-gel-vs-juice/ ; http://www.lilyofthedesert.com/faq/</t>
+  </si>
+  <si>
+    <t>Nutrients are transfered from the plant by mixing the gel with oil and sperating it out</t>
+  </si>
+  <si>
+    <t>http://www.aloeplant.info/how-to-make-aloe-vera-oil-for-skin/</t>
+  </si>
+  <si>
+    <t>ALUMINUM HYDROXYCHLORIDE</t>
+  </si>
+  <si>
+    <t>Aluminium chlorohydrate is a group of specific aluminium salts having the general formula AlnCl(3n-m)(OH)m. It is used in deodorants and antiperspirants and as a coagulant in water purification.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Aluminium_chlorohydrate</t>
+  </si>
+  <si>
+    <t>ALUMINUM SALT STARCH</t>
+  </si>
+  <si>
+    <t>This ingredient is an aluminum salt of chemically modified starch. Function(s): Absorbent; Anticaking Agent; Viscosity Increasing Agent - Nonaqueous; VISCOSITY CONTROLLING</t>
+  </si>
+  <si>
+    <t>http://www.ewg.org/skindeep/ingredient/700326/ALUMINUM_STARCH_OCTENYLSUCCINATE/</t>
+  </si>
+  <si>
+    <t>Prunus Armeniaca (Apricot) Oil; Bitter Almond Oil</t>
+  </si>
+  <si>
+    <t>Prunus Armeniaca (Apricot) Kernel Oil and Hydrogenated Apricot Oil function as skin conditioning agents - occlusive. Hydrogenated Apricot Kernel Oil also functions as a viscosity increasing agents - nonaqueous.</t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/prunus-armeniaca-apricot-kernel-oil-and-hydrogenated-apricot-kernel-oil</t>
+  </si>
+  <si>
+    <t>ASCORBYL PALMITATE (VITAMIN C PALMITATE)</t>
+  </si>
+  <si>
+    <t>Ascorbyl palmitate is an ester formed from ascorbic acid and palmitic acid creating a fat-soluble form of vitamin C. In addition to its use as a source of vitamin C; it is also used as an antioxidant food additive (E number E304).</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ascorbyl_palmitate</t>
+  </si>
+  <si>
+    <t>White Beeswax; Yellow Beeswax</t>
+  </si>
+  <si>
+    <t>Desyl Alcohol; Bitter Almond Oil Camphor</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Benzoin</t>
+  </si>
+  <si>
+    <t>BENZENEMETHANOL; BENZYLIC ALCOHOL; PHENYLCARBINOL; PHENYLMETHANOL; PHENYLMETHYL ALCOHOL;</t>
+  </si>
+  <si>
+    <t>External Analgesic; Fragrance Ingredient; Oral Health Care Drug; Preservative; Solvent;Viscosity Decreasing Agent; MASKING</t>
+  </si>
+  <si>
+    <t>http://www.ewg.org/skindeep/ingredient/700697/BENZYL_ALCOHOL/</t>
+  </si>
+  <si>
+    <t>http://chem.sis.nlm.nih.gov/chemidplus/name/benzyl%20alcohol</t>
+  </si>
+  <si>
+    <t>Beta-Carotene is a naturally occurring carotenoid pigment found in many fruits and vegetables. Beta-Carotene is a precursor of; and can be synthesized from; vitamin A. Beta-Carotene used in cosmetics and personal care products is prepared synthetically or obtained from natural sources.</t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/beta-carotene</t>
+  </si>
+  <si>
+    <t>Butylated hydroxyanisole is an antioxidant consisting of a mixture of two isomeric organic compounds; 2-tert-butyl-4-hydroxyanisole and 3-tert-butyl-4-hydroxyanisole. It is prepared from 4-methoxyphenol and isobutylene</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Butylated_hydroxyanisole</t>
+  </si>
+  <si>
+    <t>Chamomile; Chamomile Extract</t>
+  </si>
+  <si>
+    <t>A resin obtained from Chamomile. Reduces sensitivity and inflammation.</t>
+  </si>
+  <si>
+    <t>https://www.dermalinstitute.com/us/library/glossary.html?l=B</t>
+  </si>
+  <si>
+    <t>Propellent</t>
+  </si>
+  <si>
+    <t>Butane is a gas commenly used as a propellent in aerosal sprays</t>
+  </si>
+  <si>
+    <t>Calendula officinalis Extract; Pot Marigold; Calendula Flower Extract; Calendula Flower Oil</t>
+  </si>
+  <si>
+    <t>In cosmetics and personal care products; Calendula Officinalis Extract; Calendula Officinalis Flower Extract and Calendula Officinalis Flower Oil function as skin conditioning agents - miscellaneous. Calendula Officinalis Flower Extract and Calendula Officinalis Flower Oil also function as fragrance ingredients. Calendula Officinalis Seed Oil functions as a skin conditioning agent - occlusive.</t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/calendula-officinalis-derived-ingredients</t>
+  </si>
+  <si>
+    <t>These waxes also increase the thickness of the lipid (oil) portion of solid and stick-like products such as lipstick; giving them structure; allowing for a smooth application; and keeping them solid. Candelilla Wax is a yellowish-brown hard; brittle lustrous solid; extracted from the surface of the plant Euphorbia cerifera. In Europe this wax is known as Candelilla Cera.</t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/beeswax-and-plant-waxes</t>
+  </si>
+  <si>
+    <t>Caprylic/Capric Triglycerides. * A mixed triester derived from coconut oil and glycerin. It comes in the form of an oily liquid; and is sometimes mistakenly referred to as fractionated coconut oil. Functions: Caprylic mainly works as an emollient; dispersing agent and solvent.</t>
+  </si>
+  <si>
+    <t>https://www.truthinaging.com/ingredients/capryliccapric-triglycerides</t>
+  </si>
+  <si>
+    <t>Properties: Effective humectant and emollient with antimicrobial efficacy; boosts traditional preservatives; provides deodorizing efficacy.</t>
+  </si>
+  <si>
+    <t>http://www.makingcosmetics.com/Caprylyl-Glycol-EHG_p_159.html</t>
+  </si>
+  <si>
+    <t>Castor Seed Oil; Ricinus Cummunis (Castor Seed) Oil</t>
+  </si>
+  <si>
+    <t>Ceresin wax</t>
+  </si>
+  <si>
+    <t>Cerin; Cerasin; Cerosin; Ceresin Wax; Ceresine</t>
+  </si>
+  <si>
+    <t>is a wax derived from ozokerite by a purifying process.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ceresin</t>
+  </si>
+  <si>
+    <t>Cetearyl Alcohol and the other fatty alcohols keep an emulsion from separating into its oil and liquid components. These ingredients are also used to alter the thickness of liquid products and to increase foaming capacity or to stabilize foams.</t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/cetearyl-alcohol-and-related-ingredients</t>
+  </si>
+  <si>
+    <t>Cetyl Esters NF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetyl Esters Wax offers an easy way to increase the viscosity (thickness) of your creams and lotions while also improving the feel.  There is some confusion about the naturalness of this material because it is referred to as a synthetic Spermaceti Wax.  Spermaceti Wax is waxy liquid harvested from Whales; and when the industry realized that there was a demand for a more friendly approach they created the synthetic alternative; Cetyl Esters Wax; which is natural wax produced from coconut.  </t>
+  </si>
+  <si>
+    <t>http://www.ingredientstodiefor.com/item/Cetyl_Esters_NF/142/</t>
+  </si>
+  <si>
+    <t>Phenylacrylic acid</t>
+  </si>
+  <si>
+    <t>Cinnamic acid is an organic compound with the formula C6H5CHCHCO2H. It is a white crystalline compound that is slightly soluble in water; and freely soluble in many organic solvents. Classified as an unsaturated carboxylic acid; it occurs naturally in a number of plants.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cinnamic_acid</t>
+  </si>
+  <si>
+    <t>Cocoa Seed Butter; Theobroma Cacao (Cocoa Seed) Butter</t>
+  </si>
+  <si>
+    <t>Comfrey; Comfrey Root Extract</t>
+  </si>
+  <si>
+    <t>CYCLOPENTASILOXANE</t>
+  </si>
+  <si>
+    <t>ANTISTATIC; EMOLLIENT; HAIR CONDITIONING; HUMECTANT; SOLVENT; VISCOSITY CONTROLLING</t>
+  </si>
+  <si>
+    <t>http://www.ewg.org/skindeep/ingredient/701738/CYCLOMETHICONE/</t>
+  </si>
+  <si>
+    <t>http://chem.sis.nlm.nih.gov/chemidplus/rn/69430-24-6</t>
+  </si>
+  <si>
+    <t>CYCLOPENTASILOXANE; DECAMETHYL-; DECAMETHYL- CYCLOPENTASILOXANE; DECAMETHYLCYCLOPENTASILOXANE</t>
+  </si>
+  <si>
+    <t>Decamethylcyclopentasiloxane is an organosilicon compound with the formula [(CH₃)₂SiO]₅. It is a colorless and odorless liquid that is slightly volatile. The compound is classified as a cyclomethicone.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Decamethylcyclopentasiloxane</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/decamethylcyclopentasiloxane#section=Top</t>
+  </si>
+  <si>
+    <t>Methanol; Methyl Alcohol; Wood Alcohol</t>
+  </si>
+  <si>
+    <t>Diazolidnyl Urea</t>
+  </si>
+  <si>
+    <t>Diazolidinylurea</t>
+  </si>
+  <si>
+    <t>Diazolidinyl urea is an antimicrobial preservative used in cosmetics. It is chemically related to imidazolidinyl urea which is used in the same way. Diazolidinyl urea acts as a formaldehyde releaser.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Diazolidinyl_urea</t>
+  </si>
+  <si>
+    <t>http://www.commonchemistry.org/ChemicalDetail.aspx?ref=78491-02-8</t>
+  </si>
+  <si>
+    <t>Polydimethylsiloxane; Octamethyltrisiloxane; Dimethicone Crosspolymer</t>
+  </si>
+  <si>
+    <t>Polydimethylsiloxane belongs to a group of polymeric organosilicon compounds that are commonly referred to as silicones. PDMS is the most widely used silicon-based organic polymer; and is particularly known for its unusual rheological properties.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Polydimethylsiloxane</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/24705</t>
+  </si>
+  <si>
+    <t>Ethylenediamine Tetraacetic Acid; Tetrasodium EDTA; Disodium EDTA</t>
+  </si>
+  <si>
+    <t>Disodium EDTA and the related ingredients bind to metal ions which inactivates them. The binding of metal ions helps prevent the deterioration of cosmetics and personal care products. It also helps to maintain clarity; protect fragrance compounds; and prevent rancidity.</t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/edta-and-related-ingredients</t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/ozokerite-and-other-fossil-and-synthetic-waxes</t>
+  </si>
+  <si>
+    <t>Ethylhexyglycerine</t>
+  </si>
+  <si>
+    <t>glycerine; propanetriol; 1;2;3-trihydroxypropane</t>
+  </si>
+  <si>
+    <t>Glycerol is a simple polyol (sugar alcohol) compound. It is a colorless; odorless; viscous liquid that is widely used in pharmaceutical formulations.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Glycerol</t>
+  </si>
+  <si>
+    <t>Glyceryl behenate is a fat used in cosmetics; foods; and oral pharmaceutical formulations. In cosmetics; it is mainly used as a viscosity-increasing agent in emulsions. Wikipedia</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Glyceryl_behenate</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/Glyceryl_behenate</t>
+  </si>
+  <si>
+    <t>Glycerin Stearate; Glycerol Monostearate</t>
+  </si>
+  <si>
+    <t>A humectant from the nectar of flowers.</t>
+  </si>
+  <si>
+    <t>https://www.dermalinstitute.com/us/library/glossary.html?l=H</t>
+  </si>
+  <si>
+    <t>Synthetic avenanthramide (Oat active)</t>
+  </si>
+  <si>
+    <t>Synthetic avenanthramide (Oat active) used to boost the efficacy of natural Oat.</t>
+  </si>
+  <si>
+    <t>Wax</t>
+  </si>
+  <si>
+    <t>Linalool is a naturally occurring fragrance substance produced by a wide variety of plants such as mint; cinnamon; citrus fruits; and birch trees. Linalool can also be produced synthetically.</t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/linalool</t>
+  </si>
+  <si>
+    <t>Menthyl Lactate is a solid cooling agent and fragrance component for cosmetics. It is a derivative of Menthol; but is milder and more compatible with the skin.</t>
+  </si>
+  <si>
+    <t>http://www.makingcosmetics.com/Menthyl-Lactate_p_676.html</t>
+  </si>
+  <si>
+    <t>checkerberry oil; gaultheria oil; sweet birch oil; wintergreen oil</t>
+  </si>
+  <si>
+    <t>The methyl ester of salicylic acid; produced synthetically or distilled from Gaultheria procumbens (family Ericaceae) or from Betula lenta (family Betulaceae); used externally and internally for the treatment of various forms of rheumatism.</t>
+  </si>
+  <si>
+    <t>http://www.drugs.com/dict/methyl-salicylate.html</t>
+  </si>
+  <si>
+    <t>http://chem.sis.nlm.nih.gov/chemidplus/rn/119-36-8</t>
+  </si>
+  <si>
+    <t>Methylparaben is an anti-fungal agent often used in a variety of cosmetics and personal-care products. It is also used as a food preservative and has the E number E218.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Methylparaben</t>
+  </si>
+  <si>
+    <t>Paraffinum Liquidum; White Mineral Oil (Paraffinum Liquidum)</t>
+  </si>
+  <si>
+    <t>Octyldocecanol</t>
+  </si>
+  <si>
+    <t>Europaea (Olive) Fruit Unsaponifiables is a fraction of olive fruit remaining after fractional distillation.</t>
+  </si>
+  <si>
+    <t>http://www.ewg.org/skindeep/ingredient/721077/OLEA_EUROPAEA_%28OLIVE%29_FRUIT_UNSAPONIFIABLES/</t>
+  </si>
+  <si>
+    <t>Panthenol (pantothenol) is the alcohol analog of pantothenic acid (vitamin B5); and is thus a provitamin of B5. In organisms it is quickly oxidized to pantothenate [pantothenic acid]. In cosmetics and personal-care products; panthenol is a humectant; emollient; and moisturizer. In ointments; panthenol is an effective skin penetrator.[2] It is sometimes mixed with allantoin; in concentrations of up to 2-5%; and is used for treatment of sunburns; mild burns and minor skin disorders.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Panthenol</t>
+  </si>
+  <si>
+    <t>Myroxylon pereirae; Peruvian balsam; Indian balsam; black balsam; balsam Peru</t>
+  </si>
+  <si>
+    <t>Peru balsam is a tall tree that grows in Central America. This large tree often is cultivated as a shade tree. Crude Peru balsam is a dark brown; thick liquid with an aromatic smell of cinnamon and vanilla; and bitter taste. To remove it from the tree; the bark is alternately scorched and beaten.</t>
+  </si>
+  <si>
+    <t>http://www.drugs.com/npc/peru-balsam.html</t>
+  </si>
+  <si>
+    <t>Amur cork tree</t>
+  </si>
+  <si>
+    <t>Phellodendron amurense Rupr. is a species of tree in the family Rutaceae; commonly called the Amur cork tree. It is a major source of huáng bò (Chinese: 黄柏 or 黄檗); one of the 50 fundamental herbs used in traditional Chinese medicine. The Ainu people used this plant; called shikerebe-ni; as a painkiller</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Phellodendron_amurense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenoxyethanol is an oily; slightly sticky liquid with a faint rose-like scent. It is used as a preservative in a wide variety of cosmetic and personal care products; including skin care products; eye makeup; fragrances; blushers; foundations; lipstick; bath soaps and detergents; etc. Research shows that this ingredient is safe when used in these products. </t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/phenoxyethanol</t>
+  </si>
+  <si>
+    <t>Polyphenylmethyl siloxane</t>
+  </si>
+  <si>
+    <t>Phenyl Trimethicone is a derivative of silica; or silcione; and is used in cosmetics and beauty products as an anti-foaming agent; hair conditioning agent; and skin-conditioning agent (Cosmetic Database)</t>
+  </si>
+  <si>
+    <t>https://www.truthinaging.com/ingredients/phenyl-trimethicone</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/Phenyltris_trimethylsiloxy_silane#section=Top</t>
+  </si>
+  <si>
+    <t>Polygonum Aviculare</t>
+  </si>
+  <si>
+    <t>knotgrass; knotweed; pigweed</t>
+  </si>
+  <si>
+    <t>Polygonum aviculare or common knotgrass is a plant related to buckwheat and dock. It is also calledprostrate knotweed; birdweed; pigweed and lowgrass. It is an annual found in fields and wasteland; with white flowers from June to October. It is widespread across many countries in temperate regions; apparently native to Eurasia and North America; naturalized in temperate parts of the Southern Hemisphere.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Polygonum_aviculare</t>
+  </si>
+  <si>
+    <t>Gas used as a propellent in aerosol sprays</t>
+  </si>
+  <si>
+    <t>Propylene glycol; α-Propylene glycol; 1;2-Propanediol; 1;2-Dihydroxypropane; Methyl ethyl glycol (MEG); Methylethylene glycol</t>
+  </si>
+  <si>
+    <t>Propylene glycol; also called propane-1;2-diol; is an organic compound with the chemical formula C₃H₈O₂. It is a viscous colourless liquid which is nearly odourless but possesses a faintly sweet taste.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Propylene_glycol</t>
+  </si>
+  <si>
+    <t>Rosemary Leaf Extract; Rosmarinus Officinalis (Rosemary) Leaf Extract</t>
+  </si>
+  <si>
+    <t>beta hydroxy acid (abbreviated BHA);2-Hydroxybenzoic acid</t>
+  </si>
+  <si>
+    <t>Antiacne Agent; Antidandruff Agent; Corn/Callus/Wart Remover; Denaturant; Exfoliant;Fragrance Ingredient; Hair Conditioning Agent; Skin-Conditioning Agent - Miscellaneous; KERATOLYTIC; MASKING; PRESERVATIVE; SKIN CONDITIONING</t>
+  </si>
+  <si>
+    <t>http://www.ewg.org/skindeep/ingredient/705746/SALICYLIC_ACID/</t>
+  </si>
+  <si>
+    <t>http://chem.sis.nlm.nih.gov/chemidplus/name/salicylic%20acid</t>
+  </si>
+  <si>
+    <t>Silicone</t>
+  </si>
+  <si>
+    <t>2;4-hexadienoic acid</t>
+  </si>
+  <si>
+    <t>Sorbic acid (C6H8O2) is a natural preservative that comes from the rowan berries; Sorbus aucuparia (family Rosaceae). It is also prepared synthetically. It inhibits growth of fungi; yeast; mold and some bacteria and is nearly nontoxic to humans. Sorbic acid is safe to use in a wide range of foods; drugs; and cosmetic products. Sorbic acid and its salts; sodium sorbate; potassium sorbate and calcium sorbate are often used in food products as preservatives.</t>
+  </si>
+  <si>
+    <t>http://www.drugs.com/inactive/sorbic-acid-81.html</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/643460</t>
+  </si>
+  <si>
+    <t>Soy Oil</t>
+  </si>
+  <si>
+    <t>Dimethicone; also known as polydimethylsiloxane; is a silicon-based polymer that is a man-made synthetic molecule made up of repeating units called monomers.  Silicon is the second most abundant element in the Earth's crust after oxygen; and silicon dioxide is also known as sand; commonly found on beaches and shores.  Dimethicone can also be found in many cooking oils; processed foods and in fast food items such as chicken nuggets and French fries</t>
+  </si>
+  <si>
+    <t>http://www.cosmeticsinfo.org/ingredient/stearyl-dimethicone</t>
+  </si>
+  <si>
+    <t>http://chem.sis.nlm.nih.gov/chemidplus/name/startswith/stearyl%20dimethicone</t>
+  </si>
+  <si>
+    <t>Steric Acid</t>
+  </si>
+  <si>
+    <t>Melaleuca Alternifolia (Tea Tree) Extract or Leaf Oil</t>
+  </si>
+  <si>
+    <t>Used for its antiseptic; analgesic and anti-bacterial properties; also aids in healing and soothing the skin.</t>
+  </si>
+  <si>
+    <t>https://www.dermalinstitute.com/us/library/glossary.html?l=M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triethanolamine is a strongly alkaline substance used as surfactant and pH adjusting chemical. Function(s): Fragrance Ingredient; pH Adjuster; Surfactant - Emulsifying Agent; BUFFERING; </t>
+  </si>
+  <si>
+    <t>http://www.ewg.org/skindeep/ingredient.php?ingred06=706639</t>
+  </si>
+  <si>
+    <t>OCTAMETHYL- TRISILOXANE; OCTAMETHYLTRISILOXANE; OCTAMETHYLTRISILOXANE; OCTAMETHYLTRISILOXANE; TRISILOXANE; OCTAMETHYL; TRISILOXANE; OCTAMETHYL-</t>
+  </si>
+  <si>
+    <t>About TRISILOXANE: Trisiloxane is a linear siloxane. Function(s): Antifoaming Agent; Skin-Conditioning Agent - Miscellaneous; SKIN CONDITIONING</t>
+  </si>
+  <si>
+    <t>http://www.ewg.org/skindeep/ingredient/706714/TRISILOXANE/</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/vanillin#section=Top</t>
+  </si>
+  <si>
+    <t>Tocopheryl; Tocopherols; Tocopheryl Acetate Vitamin E Acetate; DL Alpha Tocopherol; Mixed Tocopherols</t>
+  </si>
+  <si>
+    <t>Tocopheryl acetate; also known as vitamin E acetate; is a common vitamin supplement with the molecular formula C31H52O3 (for 'α' form). It is the ester of acetic acid and tocopherol (vitamin E). It is often used indermatological products such as skin creams. Tocopheryl acetate is not oxidized and can penetrate through the skin to the living cells; where about 5% is converted to free tocopherol and provides beneficial antioxidant effects.</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tocopheryl_acetate</t>
+  </si>
+  <si>
+    <t>Aqua; Deionized Water</t>
+  </si>
+  <si>
+    <t>Epilobium Angustifolium; Willow Herb; Willow Herb Flower/Leaf/Stem Extract</t>
+  </si>
+  <si>
+    <t>Epilobium angustifolium is a PERENNIAL growing to 2 m (6ft) by 1 m (3ft 3in) at a fast rate.</t>
+  </si>
+  <si>
+    <t>http://www.pfaf.org/user/plant.aspx?LatinName=Epilobium+angustifolium</t>
+  </si>
+  <si>
+    <t>Achillea Millefolium</t>
+  </si>
+  <si>
+    <t>Achillea millefolium; commonly known as yarrow /ˈjæroʊ/ or common yarrow; is a flowering plant in the family Asteraceae. It is native to temperate regions of the Northern Hemisphere in Asia; Europe; and North America.[1] It has been introduced as a feed for live stock in places like New Zealand[2] and Australia. However; it is a weed in those places[2] and sometimes also in its native regions.[3]</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Achillea_millefolium</t>
+  </si>
+  <si>
+    <t>Zinc Oxide (CI 77947)</t>
+  </si>
+  <si>
+    <t>Zinc Stearate</t>
+  </si>
+  <si>
+    <t>General Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are no "blank" values; where no data was entered; the value of "na" was assigned. </t>
+  </si>
+  <si>
+    <t>Ingredients.csv: Assigns Ingredients to Products</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Index value for anti-chafe products from the Product_Rating table</t>
+  </si>
+  <si>
+    <t>Index value for anti-chafe ingredient from the Ingredient Defs (Definitions) table</t>
+  </si>
+  <si>
+    <t>Standardized ingredient name. Many products use different or alternate names. This provides some commonality.</t>
+  </si>
+  <si>
+    <t>Order of the ingredient from the product label. In theory; the first ingredient is the largest component; and listed in decending order</t>
+  </si>
+  <si>
+    <t>If a substitution was made for the common name; the original label ingredient listed is preserved here</t>
+  </si>
+  <si>
+    <t>Any minor notes about an ingredient for informational purposes</t>
+  </si>
+  <si>
+    <t>Product_Rating.csv: Table of Products with price and user ratings data</t>
+  </si>
+  <si>
+    <t>Index value for the anti-chafe product</t>
+  </si>
+  <si>
+    <t>Name of the product that it is being sold under</t>
+  </si>
+  <si>
+    <t>Distinguishing between different formulations; viscosity; etc. Creams are thinner like lotions; Ointments are thicker and most likely oil based; solids are very thick that are most likely applied from an applicator; liquids are sprayed or rolled on or rubbed in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some products are sold as "sport" products marketed specifically for sports use. General products are sold as anti-chafe but not for "sports" specifically. Off-Label products were identified in blogs; user forums; or from personal experience as good products ot use for sports; but not marketed as anti-chafe products for sports </t>
+  </si>
+  <si>
+    <t>If a product was marketed to "hikers" or "triathlon" of "bike" audiences this was captured. Bike products are meant for use in the "saddle" area applied to the groin and biking shorts padding or chamios.</t>
+  </si>
+  <si>
+    <t>Defines what area of the body this product is typically applied</t>
+  </si>
+  <si>
+    <t>Cost of the product (list price -- meaning that "discounts" or "specials" were ignored) in US dollars; 2016</t>
+  </si>
+  <si>
+    <t>Amount of the product in grams or mililiters. The density of water is 1g/ml. This may or may not be useful because of the nature of the product and how much is actually required in a typical application. One might put more "lotion" products on; but rub on a very small amount of a solid product.</t>
+  </si>
+  <si>
+    <t>Units of volume or mass: whether or not the product is mililiters or grams. Fluid Ounces was converted to mililiters for standardization</t>
+  </si>
+  <si>
     <t>Product_Unit_Cost</t>
-  </si>
-  <si>
-    <t>Reviews</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Rate_5</t>
-  </si>
-  <si>
-    <t>Rate_4</t>
-  </si>
-  <si>
-    <t>Rate_3</t>
-  </si>
-  <si>
-    <t>Rate_2</t>
-  </si>
-  <si>
-    <t>Rate_1</t>
-  </si>
-  <si>
-    <t>Product_Rating_Date</t>
-  </si>
-  <si>
-    <t>Rating_Source</t>
-  </si>
-  <si>
-    <t>Ingredient_Date</t>
-  </si>
-  <si>
-    <t>Ingredient_Source</t>
-  </si>
-  <si>
-    <t>Body Glide Origional</t>
-  </si>
-  <si>
-    <t>Solid</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Amazon.com</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Gold Bond Friction Defense</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Gold-Bond-Friction-Defense-Ounce/dp/B007VC9DKI</t>
-  </si>
-  <si>
-    <t>Skin Stong Slather</t>
-  </si>
-  <si>
-    <t>Cream</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Brave Soldier Friction Zone</t>
-  </si>
-  <si>
-    <t>Ointment</t>
-  </si>
-  <si>
-    <t>Run; Bike</t>
-  </si>
-  <si>
-    <t>Trail Toes Foot and Body Cream</t>
-  </si>
-  <si>
-    <t>Run; Hike</t>
-  </si>
-  <si>
-    <t>Feet</t>
-  </si>
-  <si>
-    <t>HikeGoo Blister Prevention Cream (Feet)</t>
-  </si>
-  <si>
-    <t>Hike</t>
-  </si>
-  <si>
-    <t>rei.com</t>
-  </si>
-  <si>
-    <t>RunGoo Blister Prevention Cream</t>
-  </si>
-  <si>
-    <t>Rocket Pure Friction Therapy Natural Anti-Chafe Balm</t>
-  </si>
-  <si>
-    <t>Triathlon</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Anti-chafe-Protection-Triathletes-Ingredients-Rocket/dp/B00RKHRUFY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaseline </t>
-  </si>
-  <si>
-    <t>Chamois Butt'r</t>
-  </si>
-  <si>
-    <t>Bike</t>
-  </si>
-  <si>
-    <t>Groin</t>
-  </si>
-  <si>
-    <t>BikeBling.com</t>
-  </si>
-  <si>
-    <t>Blue Steel Sports Anti-Chafe Cream</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>Lanacane Anti-Chafing Gel</t>
-  </si>
-  <si>
-    <t>Gel</t>
-  </si>
-  <si>
-    <t>ChafeStop anti-chafing stick</t>
-  </si>
-  <si>
-    <t>2Toms SportShield Liquid Roll-On</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>http://www.2toms.com/products-page/sportshield/sportshield-roll-on/</t>
-  </si>
-  <si>
-    <t>Mission Athletecare 5 Hour Anti-Chafe Cream</t>
-  </si>
-  <si>
-    <t>http://ec2-54-243-178-219.compute-1.amazonaws.com/skindeep/product/525433/MISSION_Athletecare_5_Hour_Anti-Chafe_Cream/</t>
-  </si>
-  <si>
-    <t>Trislide SBR Anti-Chafe Continuous Spray Lubricant</t>
-  </si>
-  <si>
-    <t>http://www.drugstore.com/trislide-aerosol-skin-lubricant/qxp277713</t>
-  </si>
-  <si>
-    <t>SLIK Anti-Friction and Anti-Chafe Skin Lube</t>
-  </si>
-  <si>
-    <t>http://skinstrong.com/slik-anti-chafing-spray/</t>
-  </si>
-  <si>
-    <t>Gooch Guard Chamois Cream</t>
-  </si>
-  <si>
-    <t>Zealios All Natural; Vegan; Betwixt Athletic Skin Lubricant and Chamois Cream</t>
-  </si>
-  <si>
-    <t>ChafeZone - Anti-Chafe and Blister Prevention</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/MedZone-ChafeZone-BurnZone-PainZone-LOT-of-20-NEW-First-Aid-Relief-Prevention-/151835007365</t>
-  </si>
-  <si>
-    <t>Mueller Lube Stick for Runners</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Mueller-Lube-Stick-Runners-2-25-Ounce/dp/B000TS8MHG/ref=pd_sim_sg_16</t>
-  </si>
-  <si>
-    <t>Corona Multi-Purpose Ointment</t>
-  </si>
-  <si>
-    <t>Off-Label</t>
-  </si>
-  <si>
-    <t>Veterinary</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Manna-Pro-0095005392-Purpose-Ointment/dp/B003ARD4TE/ref=sr_1_1?ie=UTF8&amp;qid=1456059201&amp;sr=8-1&amp;keywords=Corona+Multi-Purpose+Ointment</t>
-  </si>
-  <si>
-    <t>Boudreaux's Butt Paste Diaper Rash Ointment Skin Protectant</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Boudreauxs-Butt-Paste-Ointment-Protectant/dp/B001190D5Q/ref=sr_1_4?s=baby-products&amp;ie=UTF8&amp;qid=1456060126&amp;sr=1-4&amp;keywords=Butt+Paste</t>
-  </si>
-  <si>
-    <t>http://www.buttpaste.com/products/original-butt-paste</t>
-  </si>
-  <si>
-    <t>Sportslick</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Sportslick-3-8-oz/dp/B0007OC0A2/ref=sr_1_1?ie=UTF8&amp;qid=1456061443&amp;sr=8-1&amp;keywords=sportslick</t>
-  </si>
-  <si>
-    <t>http://www.allstarhealth.com/de_p/14001/Sportslick_The_Ultimate_Skin_Protector.htm</t>
-  </si>
-  <si>
-    <t>Ruby's Lube - All Natural Anti-Chafe Balm</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Rubys-Lube-Natural-Anti-Chafe-Balm/dp/B00MH7G8GO/ref=sr_1_15?ie=UTF8&amp;qid=1456078186</t>
-  </si>
-  <si>
-    <t>Bodyglide Skin Glide Anti-Friction Balm</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Bodyglide-Skin-Glide-Anti-Friction-Ounce/dp/B0031Y4S0U/ref=sr_1_2?ie=UTF8&amp;qid=1456079038</t>
-  </si>
-  <si>
-    <t>https://www.bodyglide.com/shop/skin/</t>
-  </si>
-  <si>
-    <t>Reflect Sports Hoo Ha Ride Glide</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Reflect-Sports-Ride-Glide-8-Ounce/dp/B009NN2O86</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/forum/-/Tx3RL6DD7J0OV22/ref=ask_dp_dpmw_al_hza?asin=B009NN2O86</t>
-  </si>
-  <si>
-    <t>Aquaphor (Baby)</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Aquaphor-Healing-Ointment-Diaper-Protectant/dp/B001F0RAVQ/ref=sr_1_5?ie=UTF8&amp;qid=1456089783</t>
-  </si>
-  <si>
-    <t>Surf Butta Anti-Chafe Balm</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Surf-Butta-Anti-Chafe-Balm-Eliminates/dp/B017HUPINY/ref=sr_1_9?s=sporting-goods&amp;ie=UTF8&amp;qid=1456090069</t>
-  </si>
-  <si>
-    <t>Chamois Butt'r GoStik Skin Lubricant</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Chamois-Buttr-GoStik-Lubricant-2-5-Ounce/dp/B00M8YXR74/ref=sr_1_18?s=sporting-goods&amp;ie=UTF8&amp;qid=1456090069</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Chamois-Buttr-GoStik-Lubricant-2-5-Ounce/dp/B00M8YXR74%3FSubscriptionId%3DAKIAJ7ULU7QZXKP7GIOQ%26tag%3Dhomea0c-20%26linkCode%3Dxm2%26camp%3D2025%26creative%3D165953%26creativeASIN%3DB00M8YXR74</t>
-  </si>
-  <si>
-    <t>Dead Down Wind Anti-Chafe + Anti-Itch Lotion</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Dead-Down-Wind-Anti-Chafe-Anti-Itch/dp/B00OH5LVLQ/ref=sr_1_1?ie=UTF8&amp;qid=1456091893</t>
-  </si>
-  <si>
-    <t>That Butt Stuff Anti Chafing Cream - Natural Chamois Balm</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Anti-Chafing-Cream-Natural-Chamois/dp/B002TIIGIO/ref=sr_1_31?s=sporting-goods&amp;ie=UTF8&amp;qid=1456107746</t>
-  </si>
-  <si>
-    <t>Petal Power Joy Ride Cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/dp/B00PM94YC4?psc=1 PRICE information from manufactor website http://www.petal-power.com/store/p2/Petal_Power_Joy_Ride_Creme.html</t>
-  </si>
-  <si>
-    <t>http://www.petal-power.com/our-ingredients.html</t>
-  </si>
-  <si>
-    <t>DZ Nuts Pro Chamois Cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/DZ-Nuts-Pro-Chamois-Cream/dp/B008F9J16M/ref=pd_sbs_468_5?ie=UTF8&amp;dpID=31ai7kgn6oL&amp;dpSrc=sims&amp;preST=_AC_UL160_SR160%2C160_&amp;refRID=1RF8866Y6MXDJFBDEJ84</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/forum/-/Tx4H8S2UKHM9D2/-/ref=ask_dp_lsw_al_hza?asin=B001C6DIF0  http://www.competitivecyclist.com/dz-nuts-pro-chamios-cream-mens</t>
-  </si>
-  <si>
-    <t>Soigneur Chamois Cream - Tempo</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Soigneur-Tempo-Chamois-Cream/dp/B009FPGHN0/ref=sr_1_1?ie=UTF8&amp;qid=1456200002</t>
-  </si>
-  <si>
-    <t>http://www.soigneur.net/shop/chamois-cream-1</t>
-  </si>
-  <si>
-    <t>Beach Gladiator Anti-Chafe Roll-On Rash Guard for Beach/Surf Rash</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Beach-Gladiator-Anti-Chafe-Roll--Guard/dp/B00RPOQMEC</t>
-  </si>
-  <si>
-    <t>Monistat Soothing Care Chafing Relief Powder-Gel</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Monistat-Soothing-Chafing-Powder-Gel-1-5-Ounce/dp/B0012ZNSWE</t>
-  </si>
-  <si>
-    <t>Assos Chamois Cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Assos-Chamois-Cream-4-73-oz/dp/B001O19E2E</t>
-  </si>
-  <si>
-    <t>Udderly Smooth Chamois Cream with Shea Butter</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Udderly-Smooth-Chamois-Cream-Butter/dp/B00D86VJD0</t>
-  </si>
-  <si>
-    <t>Moraz Redskin - Polygonum Anti Chafe Cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/dp/B001KYVWQG?psc=1</t>
-  </si>
-  <si>
-    <t>Bag-Balm; Vermonts Original Moisturizing and Softening Ointment</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Bag-Balm-Vermonts-Original-Moisturizing-Softening/dp/B0014CI4X8</t>
-  </si>
-  <si>
-    <t>Doc's Skin Care Chamois Cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Docs-Skin-Care-Chamois-Cream/dp/B00EOUTNPA</t>
-  </si>
-  <si>
-    <t>http://docsskincare.com/products/chamois-cream/</t>
-  </si>
-  <si>
-    <t>Hammer Nutrition Seat Saver Chamois And Anti- Chafing Cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Hammer-Nutrition-Saver-Chamois-Chafing/dp/B002K69HSI/</t>
-  </si>
-  <si>
-    <t>http://www.hammernutrition.com/products/seat-saver.ssv.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RunGuard Anti-Chafe Stick </t>
-  </si>
-  <si>
-    <t>https://www.google.com/shopping/product/4682990999738067527?q=RunGuard+Anti-Chafe&amp;biw=1192&amp;bih=578&amp;bav=on.2;or.r_cp.&amp;bvm=bv.115339255;d.dmo&amp;tch=1&amp;ech=1&amp;psi=pSzRVtiUAcHxeq6olYgH.1456549138121.9&amp;prds=hsec:reviews;paur:ClkAsKraX_JVZz_TOWlQw69jyl1NsFlF2fJED_TB-hXY0Ys4Ufb3VKbRAncj0n_e6kKDkYTBLlJNxS4V-4lKNaAn68oW1iNyTRR0HzndpgfJRZ2Ppr8O50f6xxIZAFPVH70i1tOHBnSoJG3SX9zlZEkaNSfmTQ&amp;ved=0ahUKEwjivqvilJfLAhVHGB4KHX1fB_AQqisIFQ&amp;ei=fC3RVuKQBseweP2-nYAP</t>
-  </si>
-  <si>
-    <t>http://www.runguards.com/products/runguard-original/ingredients</t>
-  </si>
-  <si>
-    <t>Fresh Balls</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Fresh-Balls-Oz-Tube-Pack/dp/B00D3LTEVE/#customerReviews</t>
-  </si>
-  <si>
-    <t>Akileïne Sports NOK Anti-chafing Cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Akile%C3%AFne-Sports-Anti-chafing-Cream-75ml/dp/B0070X231Y; http://www.mec.ca/product/5009-478/sports-akileine-anti-friction-nok-cream-75ml/</t>
-  </si>
-  <si>
-    <t>http://www.cocooncenter.co.uk/akileine-sports-nok-anti-chafing-cream-75ml/8534.html#composition</t>
-  </si>
-  <si>
-    <t>Shea Butter Market SPLAX Anti‑Chafing Stick</t>
-  </si>
-  <si>
-    <t>http://www.mec.ca/product/5014-984/shea-butter-market-splax-anti-chafing-stick-60g/</t>
-  </si>
-  <si>
-    <t>http://www.artisancraftedbodycare.com/shea-butter-market-splax-anti-chafing-stick</t>
-  </si>
-  <si>
-    <t>Miracle of Aloe Chafe Guard Anti Friction Stick</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Miracle-Aloe-Lubricants-Eliminates-Comfortable/dp/B002FPBPOI</t>
-  </si>
-  <si>
-    <t>http://www.miracleofaloe.com/personal-care/problem-solvers/chafe-guard.html</t>
-  </si>
-  <si>
-    <t>Uberlube Luxury Lubricant</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Uberlube-UBER-100-Luxury-Lubricant-100ml/dp/B00502KJ2C</t>
-  </si>
-  <si>
-    <t>GurneyGoo Lubricant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General </t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/GurneyGears-GurneyGoo-Anti-Chafe-85ml/dp/B00SQ1DQY2</t>
-  </si>
-  <si>
-    <t>Desitin Maximum Strength Paste</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/dp/B003O32P8U/</t>
-  </si>
-  <si>
-    <t>https://www.desitin.com/diaper-rash-products/maximum-strength-original-zinc-oxide-paste</t>
-  </si>
-  <si>
-    <t>Hipoglos 4.2 Oz Baby Diaper Rash Cream And Skin Protectant</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Hipoglos-Baby-Diaper-Cream-Protectant/dp/B004DAQWAK</t>
-  </si>
-  <si>
-    <t>http://dailymed.nlm.nih.gov/dailymed/archives/fdaDrugInfo.cfm?archiveid=42792</t>
-  </si>
-  <si>
-    <t>Cramer Skin Lube</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Cramer-Legendary-Lubricant-Marathons-Triathlons/dp/B0002V8R70</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/NEW-Cramer-Skin-Lube-Pro-Strength-Lubricating-Ointment-1-Lb-Tub-192538-Chafing-/181714844162?hash=item2a4f0c7a02:g:lOMAAOSwNSxVKdu5</t>
-  </si>
-  <si>
-    <t>Waxelene Petroleum Jelly Alternative</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Waxelene-Petroleum-Jelly-Alternative-9-Ounce/dp/B00D3PMP20/</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/forum/-/Tx2LNYLMMZS5CUQ/-/ref=ask_dp_lsw_al_hza?asin=B00D3PMP20</t>
-  </si>
-  <si>
-    <t>Band-Aid Friction Blister Block Stick</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Band-Aid-Friction-Blister-Block-Stick/dp/B00166FZBG/</t>
-  </si>
-  <si>
-    <t>ChafeX Anti-Chafing Skin Cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/gp/product/B00TT3KRMK/</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/forum/-/Tx2QO7ANIQVQO8C/ref=ask_dp_dpmw_al_hza?asin=B00TT3KRMK</t>
-  </si>
-  <si>
-    <t>Neat Feat 3B Body Saver Skin Chafing Antiperspirant Cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/Neat-Saver-Chafing-Antiperspirant-Ounces/dp/B00B5MPCWI</t>
-  </si>
-  <si>
-    <t>Neat 3B Action Cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.co.uk/dp/B001D8D7D0</t>
-  </si>
-  <si>
-    <t>3M Cavilon Durable Barrier Cream Fragrance Free</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/3M-Cavilon-Durable-Barrier-Fragrance/dp/B00CYPUUYK</t>
-  </si>
-  <si>
-    <t>http://solutions.3m.co.uk/wps/portal/3M/en_GB/Cavilon/skin-care/products/durable-barrier-cream/</t>
-  </si>
-  <si>
-    <t>Avon basics silicone glove hand cream</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/basics-silicone-glove-cream-3-4fl/dp/B0014HG8W2/</t>
-  </si>
-  <si>
-    <t>https://www.avon.com/product/41894/avon-care-silicone-glove-protective-hand-cream?setlang=en</t>
-  </si>
-  <si>
-    <t>Ingredient_Alternate_Name</t>
-  </si>
-  <si>
-    <t>Ingredient_Definition</t>
-  </si>
-  <si>
-    <t>Ingredient_Definition_Source</t>
-  </si>
-  <si>
-    <t>Ingredient_Def_Date</t>
-  </si>
-  <si>
-    <t>Ingredient_Chem_Ref</t>
-  </si>
-  <si>
-    <t>8-HYDROXYQUINOLINE</t>
-  </si>
-  <si>
-    <t>8-HYDROXYQUINOLINE is an antiseptic with mild fungistatic; bacteriostatic; anthelmintic; and amebicidal action. It is also used as a reagent and metal chelator; as a carrier for radio-indium for diagnostic purposes; and its halogenated derivatives are used in addition as topical anti-infective agents and oral antiamebics.</t>
-  </si>
-  <si>
-    <t>https://pubchem.ncbi.nlm.nih.gov/compound/8-hydroxyquinoline#section=Top</t>
-  </si>
-  <si>
-    <t>ACACIA DECURRENS Extract</t>
-  </si>
-  <si>
-    <t>About ACACIA DECURRENS FLOWER WAX: Acacia Decurrens Flower Wax is a wax obtained from the flowers of Acacia decurrens. Function(s): Skin-Conditioning Agent - Emollient; Skin-Conditioning Agent - Occlusive; SKIN CONDITIONING; SKIN PROTECTING</t>
-  </si>
-  <si>
-    <t>http://www.ewg.org/skindeep/ingredient/716261/ACACIA_DECURRENS_FLOWER_WAX/</t>
-  </si>
-  <si>
-    <t>Acai Juice</t>
-  </si>
-  <si>
-    <t>PH Control. Acetic Acid is an organic acid formed when ethanol is fermented. Vinegar is typically a 5% solution of Acetic Acid. Brown Rice Vinegar is the vinegar produced by the fermentation of unpolished brown rice. Natural Vinegars also contain small amounts of tartaric acid; citric acid and other acids. In cosmetics and personal care products; Acetic Acid; Vinegar and Brown Rice Vinegar are used in the formulation of hair conditioners; shampoos; hair rinses; wave sets and other hair care products. Acetic Acid is also used in mouthwashes and breath fresheners and Vinegar can be found in skin care products.</t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/vinegar-and-acetic-acid</t>
-  </si>
-  <si>
-    <t>Acrylate Polymer</t>
-  </si>
-  <si>
-    <t>Binding agent. Acrylate polymer; "three" or "ter" in terpolymer means three monomers connected together.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Acrylate_polymer</t>
-  </si>
-  <si>
-    <t>Detatured Alcohol? Ethanol?</t>
-  </si>
-  <si>
-    <t>Unclear to which "alcohol" this is.</t>
-  </si>
-  <si>
-    <t>5-Ureidohydantoin; Glyoxyldiureide</t>
-  </si>
-  <si>
-    <t>llantoin is a naturally ocurring nitrogenous compound used as a skin conditioning agent.</t>
-  </si>
-  <si>
-    <t>http://www.ewg.org/skindeep/ingredient/700244/ALLANTOIN/</t>
-  </si>
-  <si>
-    <t>https://fscimage.fishersci.com/msds/24578.htm</t>
-  </si>
-  <si>
-    <t>Aloe Vera Extract; Aloe Vera Juice; Aloe Leaf Juice; Aloe Vera Gel</t>
-  </si>
-  <si>
-    <t>Juice vs. Gel -- Gel has a higher polysachride content; made from the inside of the plant. Juice is made from the outer leaf mainly. Gel has a higher concentration of aloin; which is a laxitive (why you should not drink the gel!)</t>
-  </si>
-  <si>
-    <t>http://www.livestrong.com/article/474409-aloe-vera-gel-vs-juice/ ; http://www.lilyofthedesert.com/faq/</t>
-  </si>
-  <si>
-    <t>Nutrients are transfered from the plant by mixing the gel with oil and sperating it out</t>
-  </si>
-  <si>
-    <t>http://www.aloeplant.info/how-to-make-aloe-vera-oil-for-skin/</t>
-  </si>
-  <si>
-    <t>ALUMINUM HYDROXYCHLORIDE</t>
-  </si>
-  <si>
-    <t>Aluminium chlorohydrate is a group of specific aluminium salts having the general formula AlnCl(3n-m)(OH)m. It is used in deodorants and antiperspirants and as a coagulant in water purification.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Aluminium_chlorohydrate</t>
-  </si>
-  <si>
-    <t>ALUMINUM SALT STARCH</t>
-  </si>
-  <si>
-    <t>This ingredient is an aluminum salt of chemically modified starch. Function(s): Absorbent; Anticaking Agent; Viscosity Increasing Agent - Nonaqueous; VISCOSITY CONTROLLING</t>
-  </si>
-  <si>
-    <t>http://www.ewg.org/skindeep/ingredient/700326/ALUMINUM_STARCH_OCTENYLSUCCINATE/</t>
-  </si>
-  <si>
-    <t>Prunus Armeniaca (Apricot) Oil; Bitter Almond Oil</t>
-  </si>
-  <si>
-    <t>Prunus Armeniaca (Apricot) Kernel Oil and Hydrogenated Apricot Oil function as skin conditioning agents - occlusive. Hydrogenated Apricot Kernel Oil also functions as a viscosity increasing agents - nonaqueous.</t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/prunus-armeniaca-apricot-kernel-oil-and-hydrogenated-apricot-kernel-oil</t>
-  </si>
-  <si>
-    <t>ASCORBYL PALMITATE (VITAMIN C PALMITATE)</t>
-  </si>
-  <si>
-    <t>Ascorbyl palmitate is an ester formed from ascorbic acid and palmitic acid creating a fat-soluble form of vitamin C. In addition to its use as a source of vitamin C; it is also used as an antioxidant food additive (E number E304).</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ascorbyl_palmitate</t>
-  </si>
-  <si>
-    <t>White Beeswax; Yellow Beeswax</t>
-  </si>
-  <si>
-    <t>Desyl Alcohol; Bitter Almond Oil Camphor</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Benzoin</t>
-  </si>
-  <si>
-    <t>BENZENEMETHANOL; BENZYLIC ALCOHOL; PHENYLCARBINOL; PHENYLMETHANOL; PHENYLMETHYL ALCOHOL;</t>
-  </si>
-  <si>
-    <t>External Analgesic; Fragrance Ingredient; Oral Health Care Drug; Preservative; Solvent;Viscosity Decreasing Agent; MASKING</t>
-  </si>
-  <si>
-    <t>http://www.ewg.org/skindeep/ingredient/700697/BENZYL_ALCOHOL/</t>
-  </si>
-  <si>
-    <t>http://chem.sis.nlm.nih.gov/chemidplus/name/benzyl%20alcohol</t>
-  </si>
-  <si>
-    <t>Beta-Carotene is a naturally occurring carotenoid pigment found in many fruits and vegetables. Beta-Carotene is a precursor of; and can be synthesized from; vitamin A. Beta-Carotene used in cosmetics and personal care products is prepared synthetically or obtained from natural sources.</t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/beta-carotene</t>
-  </si>
-  <si>
-    <t>Butylated hydroxyanisole is an antioxidant consisting of a mixture of two isomeric organic compounds; 2-tert-butyl-4-hydroxyanisole and 3-tert-butyl-4-hydroxyanisole. It is prepared from 4-methoxyphenol and isobutylene</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Butylated_hydroxyanisole</t>
-  </si>
-  <si>
-    <t>Chamomile; Chamomile Extract</t>
-  </si>
-  <si>
-    <t>A resin obtained from Chamomile. Reduces sensitivity and inflammation.</t>
-  </si>
-  <si>
-    <t>https://www.dermalinstitute.com/us/library/glossary.html?l=B</t>
-  </si>
-  <si>
-    <t>Propellent</t>
-  </si>
-  <si>
-    <t>Butane is a gas commenly used as a propellent in aerosal sprays</t>
-  </si>
-  <si>
-    <t>Calendula officinalis Extract; Pot Marigold; Calendula Flower Extract; Calendula Flower Oil</t>
-  </si>
-  <si>
-    <t>In cosmetics and personal care products; Calendula Officinalis Extract; Calendula Officinalis Flower Extract and Calendula Officinalis Flower Oil function as skin conditioning agents - miscellaneous. Calendula Officinalis Flower Extract and Calendula Officinalis Flower Oil also function as fragrance ingredients. Calendula Officinalis Seed Oil functions as a skin conditioning agent - occlusive.</t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/calendula-officinalis-derived-ingredients</t>
-  </si>
-  <si>
-    <t>These waxes also increase the thickness of the lipid (oil) portion of solid and stick-like products such as lipstick; giving them structure; allowing for a smooth application; and keeping them solid. Candelilla Wax is a yellowish-brown hard; brittle lustrous solid; extracted from the surface of the plant Euphorbia cerifera. In Europe this wax is known as Candelilla Cera.</t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/beeswax-and-plant-waxes</t>
-  </si>
-  <si>
-    <t>Caprylic/Capric Triglycerides. * A mixed triester derived from coconut oil and glycerin. It comes in the form of an oily liquid; and is sometimes mistakenly referred to as fractionated coconut oil. Functions: Caprylic mainly works as an emollient; dispersing agent and solvent.</t>
-  </si>
-  <si>
-    <t>https://www.truthinaging.com/ingredients/capryliccapric-triglycerides</t>
-  </si>
-  <si>
-    <t>Properties: Effective humectant and emollient with antimicrobial efficacy; boosts traditional preservatives; provides deodorizing efficacy.</t>
-  </si>
-  <si>
-    <t>http://www.makingcosmetics.com/Caprylyl-Glycol-EHG_p_159.html</t>
-  </si>
-  <si>
-    <t>Castor Seed Oil; Ricinus Cummunis (Castor Seed) Oil</t>
-  </si>
-  <si>
-    <t>Ceresin wax</t>
-  </si>
-  <si>
-    <t>Cerin; Cerasin; Cerosin; Ceresin Wax; Ceresine</t>
-  </si>
-  <si>
-    <t>is a wax derived from ozokerite by a purifying process.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ceresin</t>
-  </si>
-  <si>
-    <t>Cetearyl Alcohol and the other fatty alcohols keep an emulsion from separating into its oil and liquid components. These ingredients are also used to alter the thickness of liquid products and to increase foaming capacity or to stabilize foams.</t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/cetearyl-alcohol-and-related-ingredients</t>
-  </si>
-  <si>
-    <t>Cetyl Esters NF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cetyl Esters Wax offers an easy way to increase the viscosity (thickness) of your creams and lotions while also improving the feel.  There is some confusion about the naturalness of this material because it is referred to as a synthetic Spermaceti Wax.  Spermaceti Wax is waxy liquid harvested from Whales; and when the industry realized that there was a demand for a more friendly approach they created the synthetic alternative; Cetyl Esters Wax; which is natural wax produced from coconut.  </t>
-  </si>
-  <si>
-    <t>http://www.ingredientstodiefor.com/item/Cetyl_Esters_NF/142/</t>
-  </si>
-  <si>
-    <t>Phenylacrylic acid</t>
-  </si>
-  <si>
-    <t>Cinnamic acid is an organic compound with the formula C6H5CHCHCO2H. It is a white crystalline compound that is slightly soluble in water; and freely soluble in many organic solvents. Classified as an unsaturated carboxylic acid; it occurs naturally in a number of plants.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cinnamic_acid</t>
-  </si>
-  <si>
-    <t>Cocoa Seed Butter; Theobroma Cacao (Cocoa Seed) Butter</t>
-  </si>
-  <si>
-    <t>Comfrey; Comfrey Root Extract</t>
-  </si>
-  <si>
-    <t>CYCLOPENTASILOXANE</t>
-  </si>
-  <si>
-    <t>ANTISTATIC; EMOLLIENT; HAIR CONDITIONING; HUMECTANT; SOLVENT; VISCOSITY CONTROLLING</t>
-  </si>
-  <si>
-    <t>http://www.ewg.org/skindeep/ingredient/701738/CYCLOMETHICONE/</t>
-  </si>
-  <si>
-    <t>http://chem.sis.nlm.nih.gov/chemidplus/rn/69430-24-6</t>
-  </si>
-  <si>
-    <t>CYCLOPENTASILOXANE; DECAMETHYL-; DECAMETHYL- CYCLOPENTASILOXANE; DECAMETHYLCYCLOPENTASILOXANE</t>
-  </si>
-  <si>
-    <t>Decamethylcyclopentasiloxane is an organosilicon compound with the formula [(CH₃)₂SiO]₅. It is a colorless and odorless liquid that is slightly volatile. The compound is classified as a cyclomethicone.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Decamethylcyclopentasiloxane</t>
-  </si>
-  <si>
-    <t>https://pubchem.ncbi.nlm.nih.gov/compound/decamethylcyclopentasiloxane#section=Top</t>
-  </si>
-  <si>
-    <t>Methanol; Methyl Alcohol; Wood Alcohol</t>
-  </si>
-  <si>
-    <t>Diazolidnyl Urea</t>
-  </si>
-  <si>
-    <t>Diazolidinylurea</t>
-  </si>
-  <si>
-    <t>Diazolidinyl urea is an antimicrobial preservative used in cosmetics. It is chemically related to imidazolidinyl urea which is used in the same way. Diazolidinyl urea acts as a formaldehyde releaser.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Diazolidinyl_urea</t>
-  </si>
-  <si>
-    <t>http://www.commonchemistry.org/ChemicalDetail.aspx?ref=78491-02-8</t>
-  </si>
-  <si>
-    <t>Polydimethylsiloxane; Octamethyltrisiloxane; Dimethicone Crosspolymer</t>
-  </si>
-  <si>
-    <t>Polydimethylsiloxane belongs to a group of polymeric organosilicon compounds that are commonly referred to as silicones. PDMS is the most widely used silicon-based organic polymer; and is particularly known for its unusual rheological properties.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Polydimethylsiloxane</t>
-  </si>
-  <si>
-    <t>https://pubchem.ncbi.nlm.nih.gov/compound/24705</t>
-  </si>
-  <si>
-    <t>Ethylenediamine Tetraacetic Acid; Tetrasodium EDTA; Disodium EDTA</t>
-  </si>
-  <si>
-    <t>Disodium EDTA and the related ingredients bind to metal ions which inactivates them. The binding of metal ions helps prevent the deterioration of cosmetics and personal care products. It also helps to maintain clarity; protect fragrance compounds; and prevent rancidity.</t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/edta-and-related-ingredients</t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/ozokerite-and-other-fossil-and-synthetic-waxes</t>
-  </si>
-  <si>
-    <t>Ethylhexyglycerine</t>
-  </si>
-  <si>
-    <t>glycerine; propanetriol; 1;2;3-trihydroxypropane</t>
-  </si>
-  <si>
-    <t>Glycerol is a simple polyol (sugar alcohol) compound. It is a colorless; odorless; viscous liquid that is widely used in pharmaceutical formulations.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Glycerol</t>
-  </si>
-  <si>
-    <t>Glyceryl behenate is a fat used in cosmetics; foods; and oral pharmaceutical formulations. In cosmetics; it is mainly used as a viscosity-increasing agent in emulsions. Wikipedia</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Glyceryl_behenate</t>
-  </si>
-  <si>
-    <t>https://pubchem.ncbi.nlm.nih.gov/compound/Glyceryl_behenate</t>
-  </si>
-  <si>
-    <t>Glycerin Stearate; Glycerol Monostearate</t>
-  </si>
-  <si>
-    <t>A humectant from the nectar of flowers.</t>
-  </si>
-  <si>
-    <t>https://www.dermalinstitute.com/us/library/glossary.html?l=H</t>
-  </si>
-  <si>
-    <t>Synthetic avenanthramide (Oat active)</t>
-  </si>
-  <si>
-    <t>Synthetic avenanthramide (Oat active) used to boost the efficacy of natural Oat.</t>
-  </si>
-  <si>
-    <t>Wax</t>
-  </si>
-  <si>
-    <t>Linalool is a naturally occurring fragrance substance produced by a wide variety of plants such as mint; cinnamon; citrus fruits; and birch trees. Linalool can also be produced synthetically.</t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/linalool</t>
-  </si>
-  <si>
-    <t>Menthyl Lactate is a solid cooling agent and fragrance component for cosmetics. It is a derivative of Menthol; but is milder and more compatible with the skin.</t>
-  </si>
-  <si>
-    <t>http://www.makingcosmetics.com/Menthyl-Lactate_p_676.html</t>
-  </si>
-  <si>
-    <t>checkerberry oil; gaultheria oil; sweet birch oil; wintergreen oil</t>
-  </si>
-  <si>
-    <t>The methyl ester of salicylic acid; produced synthetically or distilled from Gaultheria procumbens (family Ericaceae) or from Betula lenta (family Betulaceae); used externally and internally for the treatment of various forms of rheumatism.</t>
-  </si>
-  <si>
-    <t>http://www.drugs.com/dict/methyl-salicylate.html</t>
-  </si>
-  <si>
-    <t>http://chem.sis.nlm.nih.gov/chemidplus/rn/119-36-8</t>
-  </si>
-  <si>
-    <t>Methylparaben is an anti-fungal agent often used in a variety of cosmetics and personal-care products. It is also used as a food preservative and has the E number E218.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Methylparaben</t>
-  </si>
-  <si>
-    <t>Paraffinum Liquidum; White Mineral Oil (Paraffinum Liquidum)</t>
-  </si>
-  <si>
-    <t>Octyldocecanol</t>
-  </si>
-  <si>
-    <t>Europaea (Olive) Fruit Unsaponifiables is a fraction of olive fruit remaining after fractional distillation.</t>
-  </si>
-  <si>
-    <t>http://www.ewg.org/skindeep/ingredient/721077/OLEA_EUROPAEA_%28OLIVE%29_FRUIT_UNSAPONIFIABLES/</t>
-  </si>
-  <si>
-    <t>Panthenol (pantothenol) is the alcohol analog of pantothenic acid (vitamin B5); and is thus a provitamin of B5. In organisms it is quickly oxidized to pantothenate [pantothenic acid]. In cosmetics and personal-care products; panthenol is a humectant; emollient; and moisturizer. In ointments; panthenol is an effective skin penetrator.[2] It is sometimes mixed with allantoin; in concentrations of up to 2-5%; and is used for treatment of sunburns; mild burns and minor skin disorders.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Panthenol</t>
-  </si>
-  <si>
-    <t>Myroxylon pereirae; Peruvian balsam; Indian balsam; black balsam; balsam Peru</t>
-  </si>
-  <si>
-    <t>Peru balsam is a tall tree that grows in Central America. This large tree often is cultivated as a shade tree. Crude Peru balsam is a dark brown; thick liquid with an aromatic smell of cinnamon and vanilla; and bitter taste. To remove it from the tree; the bark is alternately scorched and beaten.</t>
-  </si>
-  <si>
-    <t>http://www.drugs.com/npc/peru-balsam.html</t>
-  </si>
-  <si>
-    <t>Amur cork tree</t>
-  </si>
-  <si>
-    <t>Phellodendron amurense Rupr. is a species of tree in the family Rutaceae; commonly called the Amur cork tree. It is a major source of huáng bò (Chinese: 黄柏 or 黄檗); one of the 50 fundamental herbs used in traditional Chinese medicine. The Ainu people used this plant; called shikerebe-ni; as a painkiller</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Phellodendron_amurense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenoxyethanol is an oily; slightly sticky liquid with a faint rose-like scent. It is used as a preservative in a wide variety of cosmetic and personal care products; including skin care products; eye makeup; fragrances; blushers; foundations; lipstick; bath soaps and detergents; etc. Research shows that this ingredient is safe when used in these products. </t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/phenoxyethanol</t>
-  </si>
-  <si>
-    <t>Polyphenylmethyl siloxane</t>
-  </si>
-  <si>
-    <t>Phenyl Trimethicone is a derivative of silica; or silcione; and is used in cosmetics and beauty products as an anti-foaming agent; hair conditioning agent; and skin-conditioning agent (Cosmetic Database)</t>
-  </si>
-  <si>
-    <t>https://www.truthinaging.com/ingredients/phenyl-trimethicone</t>
-  </si>
-  <si>
-    <t>https://pubchem.ncbi.nlm.nih.gov/compound/Phenyltris_trimethylsiloxy_silane#section=Top</t>
-  </si>
-  <si>
-    <t>Polygonum Aviculare</t>
-  </si>
-  <si>
-    <t>knotgrass; knotweed; pigweed</t>
-  </si>
-  <si>
-    <t>Polygonum aviculare or common knotgrass is a plant related to buckwheat and dock. It is also calledprostrate knotweed; birdweed; pigweed and lowgrass. It is an annual found in fields and wasteland; with white flowers from June to October. It is widespread across many countries in temperate regions; apparently native to Eurasia and North America; naturalized in temperate parts of the Southern Hemisphere.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Polygonum_aviculare</t>
-  </si>
-  <si>
-    <t>Gas used as a propellent in aerosol sprays</t>
-  </si>
-  <si>
-    <t>Propylene glycol; α-Propylene glycol; 1;2-Propanediol; 1;2-Dihydroxypropane; Methyl ethyl glycol (MEG); Methylethylene glycol</t>
-  </si>
-  <si>
-    <t>Propylene glycol; also called propane-1;2-diol; is an organic compound with the chemical formula C₃H₈O₂. It is a viscous colourless liquid which is nearly odourless but possesses a faintly sweet taste.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Propylene_glycol</t>
-  </si>
-  <si>
-    <t>Rosemary Leaf Extract; Rosmarinus Officinalis (Rosemary) Leaf Extract</t>
-  </si>
-  <si>
-    <t>beta hydroxy acid (abbreviated BHA);2-Hydroxybenzoic acid</t>
-  </si>
-  <si>
-    <t>Antiacne Agent; Antidandruff Agent; Corn/Callus/Wart Remover; Denaturant; Exfoliant;Fragrance Ingredient; Hair Conditioning Agent; Skin-Conditioning Agent - Miscellaneous; KERATOLYTIC; MASKING; PRESERVATIVE; SKIN CONDITIONING</t>
-  </si>
-  <si>
-    <t>http://www.ewg.org/skindeep/ingredient/705746/SALICYLIC_ACID/</t>
-  </si>
-  <si>
-    <t>http://chem.sis.nlm.nih.gov/chemidplus/name/salicylic%20acid</t>
-  </si>
-  <si>
-    <t>Silicone</t>
-  </si>
-  <si>
-    <t>2;4-hexadienoic acid</t>
-  </si>
-  <si>
-    <t>Sorbic acid (C6H8O2) is a natural preservative that comes from the rowan berries; Sorbus aucuparia (family Rosaceae). It is also prepared synthetically. It inhibits growth of fungi; yeast; mold and some bacteria and is nearly nontoxic to humans. Sorbic acid is safe to use in a wide range of foods; drugs; and cosmetic products. Sorbic acid and its salts; sodium sorbate; potassium sorbate and calcium sorbate are often used in food products as preservatives.</t>
-  </si>
-  <si>
-    <t>http://www.drugs.com/inactive/sorbic-acid-81.html</t>
-  </si>
-  <si>
-    <t>https://pubchem.ncbi.nlm.nih.gov/compound/643460</t>
-  </si>
-  <si>
-    <t>Soy Oil</t>
-  </si>
-  <si>
-    <t>Dimethicone; also known as polydimethylsiloxane; is a silicon-based polymer that is a man-made synthetic molecule made up of repeating units called monomers.  Silicon is the second most abundant element in the Earth's crust after oxygen; and silicon dioxide is also known as sand; commonly found on beaches and shores.  Dimethicone can also be found in many cooking oils; processed foods and in fast food items such as chicken nuggets and French fries</t>
-  </si>
-  <si>
-    <t>http://www.cosmeticsinfo.org/ingredient/stearyl-dimethicone</t>
-  </si>
-  <si>
-    <t>http://chem.sis.nlm.nih.gov/chemidplus/name/startswith/stearyl%20dimethicone</t>
-  </si>
-  <si>
-    <t>Steric Acid</t>
-  </si>
-  <si>
-    <t>Melaleuca Alternifolia (Tea Tree) Extract or Leaf Oil</t>
-  </si>
-  <si>
-    <t>Used for its antiseptic; analgesic and anti-bacterial properties; also aids in healing and soothing the skin.</t>
-  </si>
-  <si>
-    <t>https://www.dermalinstitute.com/us/library/glossary.html?l=M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triethanolamine is a strongly alkaline substance used as surfactant and pH adjusting chemical. Function(s): Fragrance Ingredient; pH Adjuster; Surfactant - Emulsifying Agent; BUFFERING; </t>
-  </si>
-  <si>
-    <t>http://www.ewg.org/skindeep/ingredient.php?ingred06=706639</t>
-  </si>
-  <si>
-    <t>OCTAMETHYL- TRISILOXANE; OCTAMETHYLTRISILOXANE; OCTAMETHYLTRISILOXANE; OCTAMETHYLTRISILOXANE; TRISILOXANE; OCTAMETHYL; TRISILOXANE; OCTAMETHYL-</t>
-  </si>
-  <si>
-    <t>About TRISILOXANE: Trisiloxane is a linear siloxane. Function(s): Antifoaming Agent; Skin-Conditioning Agent - Miscellaneous; SKIN CONDITIONING</t>
-  </si>
-  <si>
-    <t>http://www.ewg.org/skindeep/ingredient/706714/TRISILOXANE/</t>
-  </si>
-  <si>
-    <t>https://pubchem.ncbi.nlm.nih.gov/compound/vanillin#section=Top</t>
-  </si>
-  <si>
-    <t>Tocopheryl; Tocopherols; Tocopheryl Acetate Vitamin E Acetate; DL Alpha Tocopherol; Mixed Tocopherols</t>
-  </si>
-  <si>
-    <t>Tocopheryl acetate; also known as vitamin E acetate; is a common vitamin supplement with the molecular formula C31H52O3 (for 'α' form). It is the ester of acetic acid and tocopherol (vitamin E). It is often used indermatological products such as skin creams. Tocopheryl acetate is not oxidized and can penetrate through the skin to the living cells; where about 5% is converted to free tocopherol and provides beneficial antioxidant effects.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tocopheryl_acetate</t>
-  </si>
-  <si>
-    <t>Aqua; Deionized Water</t>
-  </si>
-  <si>
-    <t>Epilobium Angustifolium; Willow Herb; Willow Herb Flower/Leaf/Stem Extract</t>
-  </si>
-  <si>
-    <t>Epilobium angustifolium is a PERENNIAL growing to 2 m (6ft) by 1 m (3ft 3in) at a fast rate.</t>
-  </si>
-  <si>
-    <t>http://www.pfaf.org/user/plant.aspx?LatinName=Epilobium+angustifolium</t>
-  </si>
-  <si>
-    <t>Achillea Millefolium</t>
-  </si>
-  <si>
-    <t>Achillea millefolium; commonly known as yarrow /ˈjæroʊ/ or common yarrow; is a flowering plant in the family Asteraceae. It is native to temperate regions of the Northern Hemisphere in Asia; Europe; and North America.[1] It has been introduced as a feed for live stock in places like New Zealand[2] and Australia. However; it is a weed in those places[2] and sometimes also in its native regions.[3]</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Achillea_millefolium</t>
-  </si>
-  <si>
-    <t>Zinc Oxide (CI 77947)</t>
-  </si>
-  <si>
-    <t>Zinc Stearate</t>
-  </si>
-  <si>
-    <t>General Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are no "blank" values; where no data was entered; the value of "na" was assigned. </t>
-  </si>
-  <si>
-    <t>Ingredients.csv: Assigns Ingredients to Products</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Index value for anti-chafe products from the Product_Rating table</t>
-  </si>
-  <si>
-    <t>Index value for anti-chafe ingredient from the Ingredient Defs (Definitions) table</t>
-  </si>
-  <si>
-    <t>Standardized ingredient name. Many products use different or alternate names. This provides some commonality.</t>
-  </si>
-  <si>
-    <t>Order of the ingredient from the product label. In theory; the first ingredient is the largest component; and listed in decending order</t>
-  </si>
-  <si>
-    <t>If a substitution was made for the common name; the original label ingredient listed is preserved here</t>
-  </si>
-  <si>
-    <t>Any minor notes about an ingredient for informational purposes</t>
-  </si>
-  <si>
-    <t>Product_Rating.csv: Table of Products with price and user ratings data</t>
-  </si>
-  <si>
-    <t>Index value for the anti-chafe product</t>
-  </si>
-  <si>
-    <t>Name of the product that it is being sold under</t>
-  </si>
-  <si>
-    <t>Distinguishing between different formulations; viscosity; etc. Creams are thinner like lotions; Ointments are thicker and most likely oil based; solids are very thick that are most likely applied from an applicator; liquids are sprayed or rolled on or rubbed in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some products are sold as "sport" products marketed specifically for sports use. General products are sold as anti-chafe but not for "sports" specifically. Off-Label products were identified in blogs; user forums; or from personal experience as good products ot use for sports; but not marketed as anti-chafe products for sports </t>
-  </si>
-  <si>
-    <t>If a product was marketed to "hikers" or "triathlon" of "bike" audiences this was captured. Bike products are meant for use in the "saddle" area applied to the groin and biking shorts padding or chamios.</t>
-  </si>
-  <si>
-    <t>Defines what area of the body this product is typically applied</t>
-  </si>
-  <si>
-    <t>Cost of the product (list price -- meaning that "discounts" or "specials" were ignored) in US dollars; 2016</t>
-  </si>
-  <si>
-    <t>Amount of the product in grams or mililiters. The density of water is 1g/ml. This may or may not be useful because of the nature of the product and how much is actually required in a typical application. One might put more "lotion" products on; but rub on a very small amount of a solid product.</t>
-  </si>
-  <si>
-    <t>Units of volume or mass: whether or not the product is mililiters or grams. Fluid Ounces was converted to mililiters for standardization</t>
   </si>
   <si>
     <t>Cost per gram or mililiter of product. This again may not be useful due to the amount of the product needed</t>
@@ -2960,7 +2963,7 @@
     <col customWidth="1" min="1" max="1" width="11.14"/>
     <col customWidth="1" min="2" max="2" width="15.0"/>
     <col customWidth="1" min="3" max="3" width="34.0"/>
-    <col customWidth="1" min="4" max="4" width="13.29"/>
+    <col customWidth="1" min="4" max="4" width="20.14"/>
     <col customWidth="1" min="5" max="5" width="46.86"/>
     <col customWidth="1" min="6" max="6" width="23.43"/>
   </cols>
@@ -19505,9 +19508,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="6.86"/>
     <col customWidth="1" min="2" max="2" width="54.86"/>
-    <col customWidth="1" min="3" max="3" width="11.0"/>
-    <col customWidth="1" min="4" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="6" width="9.0"/>
+    <col customWidth="1" min="3" max="3" width="12.57"/>
+    <col customWidth="1" min="4" max="4" width="18.57"/>
+    <col customWidth="1" min="5" max="5" width="24.57"/>
+    <col customWidth="1" min="6" max="6" width="9.0"/>
     <col customWidth="1" min="7" max="7" width="8.71"/>
     <col customWidth="1" min="8" max="8" width="8.57"/>
     <col customWidth="1" min="9" max="9" width="6.57"/>
@@ -37697,10 +37701,10 @@
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
-        <v>445</v>
+        <v>818</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25">
@@ -37708,7 +37712,7 @@
         <v>446</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26">
@@ -37716,7 +37720,7 @@
         <v>447</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27">
@@ -37724,7 +37728,7 @@
         <v>448</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28">
@@ -37732,7 +37736,7 @@
         <v>449</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29">
@@ -37740,7 +37744,7 @@
         <v>450</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30">
@@ -37748,7 +37752,7 @@
         <v>451</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31">
@@ -37756,7 +37760,7 @@
         <v>452</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="32">
@@ -37764,7 +37768,7 @@
         <v>453</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="33">
@@ -37772,7 +37776,7 @@
         <v>454</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34">
@@ -37780,7 +37784,7 @@
         <v>455</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35">
@@ -37788,12 +37792,12 @@
         <v>456</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="60" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38">
@@ -37809,7 +37813,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="40">
@@ -37825,7 +37829,7 @@
         <v>610</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="42">
@@ -37833,7 +37837,7 @@
         <v>611</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43">
@@ -37841,7 +37845,7 @@
         <v>612</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44">
@@ -37849,7 +37853,7 @@
         <v>613</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45">
@@ -37857,7 +37861,7 @@
         <v>614</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>

--- a/data/Anti-Chafing-Study--master-database.xlsx
+++ b/data/Anti-Chafing-Study--master-database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4338" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="830">
   <si>
     <t>Product_ID</t>
   </si>
@@ -2318,9 +2318,6 @@
   </si>
   <si>
     <t>Soy Oil</t>
-  </si>
-  <si>
-    <t>Steric Acid</t>
   </si>
   <si>
     <t>Melaleuca Alternifolia (Tea Tree) Extract or Leaf Oil</t>
@@ -2973,7 +2970,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="str">
-        <f>lookup(C2,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C2,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2994,7 +2991,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" t="str">
-        <f>lookup(C3,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C3,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3015,7 +3012,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" t="str">
-        <f>lookup(C4,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C4,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3036,7 +3033,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="str">
-        <f>lookup(C5,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C5,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -3057,8 +3054,8 @@
         <v>1.0</v>
       </c>
       <c r="B6" t="str">
-        <f>lookup(C6,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>238</v>
+        <f>lookup(C6,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>237</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -3078,7 +3075,7 @@
         <v>1.0</v>
       </c>
       <c r="B7" t="str">
-        <f>lookup(C7,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C7,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3099,7 +3096,7 @@
         <v>1.0</v>
       </c>
       <c r="B8" t="str">
-        <f>lookup(C8,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C8,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>225</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3120,7 +3117,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" t="str">
-        <f>lookup(C9,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C9,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -3141,8 +3138,8 @@
         <v>1.0</v>
       </c>
       <c r="B10" t="str">
-        <f>lookup(C10,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C10,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -3162,7 +3159,7 @@
         <v>2.0</v>
       </c>
       <c r="B11" t="str">
-        <f>lookup(C11,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C11,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3183,8 +3180,8 @@
         <v>2.0</v>
       </c>
       <c r="B12" t="str">
-        <f>lookup(C12,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>238</v>
+        <f>lookup(C12,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>237</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
@@ -3204,7 +3201,7 @@
         <v>2.0</v>
       </c>
       <c r="B13" t="str">
-        <f>lookup(C13,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C13,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3225,7 +3222,7 @@
         <v>2.0</v>
       </c>
       <c r="B14" t="str">
-        <f>lookup(C14,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C14,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3246,7 +3243,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" t="str">
-        <f>lookup(C15,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C15,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>181</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3267,8 +3264,8 @@
         <v>2.0</v>
       </c>
       <c r="B16" t="str">
-        <f>lookup(C16,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>261</v>
+        <f>lookup(C16,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>260</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -3288,7 +3285,7 @@
         <v>2.0</v>
       </c>
       <c r="B17" t="str">
-        <f>lookup(C17,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C17,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>204</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3309,7 +3306,7 @@
         <v>2.0</v>
       </c>
       <c r="B18" t="str">
-        <f>lookup(C18,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C18,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3330,7 +3327,7 @@
         <v>2.0</v>
       </c>
       <c r="B19" t="str">
-        <f>lookup(C19,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C19,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3351,7 +3348,7 @@
         <v>2.0</v>
       </c>
       <c r="B20" t="str">
-        <f>lookup(C20,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C20,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>131</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3372,7 +3369,7 @@
         <v>2.0</v>
       </c>
       <c r="B21" t="str">
-        <f>lookup(C21,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C21,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3393,7 +3390,7 @@
         <v>2.0</v>
       </c>
       <c r="B22" t="str">
-        <f>lookup(C22,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C22,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3414,7 +3411,7 @@
         <v>2.0</v>
       </c>
       <c r="B23" t="str">
-        <f>lookup(C23,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C23,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3435,8 +3432,8 @@
         <v>2.0</v>
       </c>
       <c r="B24" t="str">
-        <f>lookup(C24,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C24,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>16</v>
@@ -3456,8 +3453,8 @@
         <v>3.0</v>
       </c>
       <c r="B25" t="str">
-        <f>lookup(C25,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C25,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>30</v>
@@ -3477,7 +3474,7 @@
         <v>3.0</v>
       </c>
       <c r="B26" t="str">
-        <f>lookup(C26,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C26,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3498,7 +3495,7 @@
         <v>3.0</v>
       </c>
       <c r="B27" t="str">
-        <f>lookup(C27,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C27,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>223</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3519,7 +3516,7 @@
         <v>3.0</v>
       </c>
       <c r="B28" t="str">
-        <f>lookup(C28,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C28,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3540,7 +3537,7 @@
         <v>3.0</v>
       </c>
       <c r="B29" t="str">
-        <f>lookup(C29,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C29,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3561,7 +3558,7 @@
         <v>3.0</v>
       </c>
       <c r="B30" t="str">
-        <f>lookup(C30,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C30,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>185</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3582,7 +3579,7 @@
         <v>3.0</v>
       </c>
       <c r="B31" t="str">
-        <f>lookup(C31,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C31,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3603,7 +3600,7 @@
         <v>3.0</v>
       </c>
       <c r="B32" t="str">
-        <f>lookup(C32,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C32,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3624,7 +3621,7 @@
         <v>3.0</v>
       </c>
       <c r="B33" t="str">
-        <f>lookup(C33,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C33,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3645,7 +3642,7 @@
         <v>3.0</v>
       </c>
       <c r="B34" t="str">
-        <f>lookup(C34,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C34,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>167</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3666,7 +3663,7 @@
         <v>3.0</v>
       </c>
       <c r="B35" t="str">
-        <f>lookup(C35,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C35,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3687,7 +3684,7 @@
         <v>3.0</v>
       </c>
       <c r="B36" t="str">
-        <f>lookup(C36,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C36,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3708,7 +3705,7 @@
         <v>3.0</v>
       </c>
       <c r="B37" t="str">
-        <f>lookup(C37,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C37,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3729,7 +3726,7 @@
         <v>3.0</v>
       </c>
       <c r="B38" t="str">
-        <f>lookup(C38,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C38,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3750,7 +3747,7 @@
         <v>3.0</v>
       </c>
       <c r="B39" t="str">
-        <f>lookup(C39,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C39,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3771,7 +3768,7 @@
         <v>3.0</v>
       </c>
       <c r="B40" t="str">
-        <f>lookup(C40,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C40,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3792,7 +3789,7 @@
         <v>3.0</v>
       </c>
       <c r="B41" t="str">
-        <f>lookup(C41,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C41,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3813,8 +3810,8 @@
         <v>3.0</v>
       </c>
       <c r="B42" t="str">
-        <f>lookup(C42,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C42,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>16</v>
@@ -3834,7 +3831,7 @@
         <v>3.0</v>
       </c>
       <c r="B43" t="str">
-        <f>lookup(C43,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C43,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>145</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3855,8 +3852,8 @@
         <v>3.0</v>
       </c>
       <c r="B44" t="str">
-        <f>lookup(C44,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>254</v>
+        <f>lookup(C44,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>253</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>48</v>
@@ -3876,7 +3873,7 @@
         <v>3.0</v>
       </c>
       <c r="B45" t="str">
-        <f>lookup(C45,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C45,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>114</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3897,7 +3894,7 @@
         <v>3.0</v>
       </c>
       <c r="B46" t="str">
-        <f>lookup(C46,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C46,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3918,7 +3915,7 @@
         <v>3.0</v>
       </c>
       <c r="B47" t="str">
-        <f>lookup(C47,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C47,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3939,8 +3936,8 @@
         <v>3.0</v>
       </c>
       <c r="B48" t="str">
-        <f>lookup(C48,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>241</v>
+        <f>lookup(C48,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>240</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>52</v>
@@ -3960,7 +3957,7 @@
         <v>3.0</v>
       </c>
       <c r="B49" t="str">
-        <f>lookup(C49,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C49,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3981,7 +3978,7 @@
         <v>3.0</v>
       </c>
       <c r="B50" t="str">
-        <f>lookup(C50,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C50,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>157</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4002,7 +3999,7 @@
         <v>3.0</v>
       </c>
       <c r="B51" t="str">
-        <f>lookup(C51,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C51,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>194</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4023,7 +4020,7 @@
         <v>3.0</v>
       </c>
       <c r="B52" t="str">
-        <f>lookup(C52,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C52,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>79</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -4044,7 +4041,7 @@
         <v>4.0</v>
       </c>
       <c r="B53" t="str">
-        <f>lookup(C53,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C53,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>218</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4065,7 +4062,7 @@
         <v>4.0</v>
       </c>
       <c r="B54" t="str">
-        <f>lookup(C54,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C54,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>121</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4086,7 +4083,7 @@
         <v>4.0</v>
       </c>
       <c r="B55" t="str">
-        <f>lookup(C55,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C55,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4107,7 +4104,7 @@
         <v>4.0</v>
       </c>
       <c r="B56" t="str">
-        <f>lookup(C56,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C56,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>32</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4128,7 +4125,7 @@
         <v>4.0</v>
       </c>
       <c r="B57" t="str">
-        <f>lookup(C57,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C57,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4149,7 +4146,7 @@
         <v>4.0</v>
       </c>
       <c r="B58" t="str">
-        <f>lookup(C58,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C58,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>37</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4170,7 +4167,7 @@
         <v>4.0</v>
       </c>
       <c r="B59" t="str">
-        <f>lookup(C59,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C59,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>225</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -4191,7 +4188,7 @@
         <v>4.0</v>
       </c>
       <c r="B60" t="str">
-        <f>lookup(C60,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C60,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>53</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4212,7 +4209,7 @@
         <v>4.0</v>
       </c>
       <c r="B61" t="str">
-        <f>lookup(C61,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C61,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>40</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -4233,7 +4230,7 @@
         <v>4.0</v>
       </c>
       <c r="B62" t="str">
-        <f>lookup(C62,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C62,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>132</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -4254,7 +4251,7 @@
         <v>4.0</v>
       </c>
       <c r="B63" t="str">
-        <f>lookup(C63,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C63,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>145</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -4275,7 +4272,7 @@
         <v>4.0</v>
       </c>
       <c r="B64" t="str">
-        <f>lookup(C64,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C64,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4296,8 +4293,8 @@
         <v>4.0</v>
       </c>
       <c r="B65" t="str">
-        <f>lookup(C65,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C65,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>72</v>
@@ -4317,7 +4314,7 @@
         <v>4.0</v>
       </c>
       <c r="B66" t="str">
-        <f>lookup(C66,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C66,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -4338,7 +4335,7 @@
         <v>4.0</v>
       </c>
       <c r="B67" t="str">
-        <f>lookup(C67,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C67,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4359,7 +4356,7 @@
         <v>4.0</v>
       </c>
       <c r="B68" t="str">
-        <f>lookup(C68,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C68,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>178</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -4380,7 +4377,7 @@
         <v>4.0</v>
       </c>
       <c r="B69" t="str">
-        <f>lookup(C69,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C69,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>151</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4401,7 +4398,7 @@
         <v>4.0</v>
       </c>
       <c r="B70" t="str">
-        <f>lookup(C70,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C70,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4422,7 +4419,7 @@
         <v>5.0</v>
       </c>
       <c r="B71" t="str">
-        <f>lookup(C71,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C71,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4443,7 +4440,7 @@
         <v>5.0</v>
       </c>
       <c r="B72" t="str">
-        <f>lookup(C72,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C72,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4464,7 +4461,7 @@
         <v>5.0</v>
       </c>
       <c r="B73" t="str">
-        <f>lookup(C73,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C73,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>11</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4485,7 +4482,7 @@
         <v>5.0</v>
       </c>
       <c r="B74" t="str">
-        <f>lookup(C74,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C74,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4506,7 +4503,7 @@
         <v>5.0</v>
       </c>
       <c r="B75" t="str">
-        <f>lookup(C75,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C75,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4527,7 +4524,7 @@
         <v>5.0</v>
       </c>
       <c r="B76" t="str">
-        <f>lookup(C76,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C76,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -4548,8 +4545,8 @@
         <v>6.0</v>
       </c>
       <c r="B77" t="str">
-        <f>lookup(C77,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C77,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>30</v>
@@ -4569,7 +4566,7 @@
         <v>6.0</v>
       </c>
       <c r="B78" t="str">
-        <f>lookup(C78,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C78,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -4590,7 +4587,7 @@
         <v>6.0</v>
       </c>
       <c r="B79" t="str">
-        <f>lookup(C79,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C79,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -4611,7 +4608,7 @@
         <v>6.0</v>
       </c>
       <c r="B80" t="str">
-        <f>lookup(C80,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C80,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>163</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -4632,7 +4629,7 @@
         <v>6.0</v>
       </c>
       <c r="B81" t="str">
-        <f>lookup(C81,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C81,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>136</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -4653,7 +4650,7 @@
         <v>6.0</v>
       </c>
       <c r="B82" t="str">
-        <f>lookup(C82,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C82,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>193</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4674,7 +4671,7 @@
         <v>6.0</v>
       </c>
       <c r="B83" t="str">
-        <f>lookup(C83,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C83,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>79</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -4695,7 +4692,7 @@
         <v>6.0</v>
       </c>
       <c r="B84" t="str">
-        <f>lookup(C84,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C84,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>125</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -4716,8 +4713,8 @@
         <v>7.0</v>
       </c>
       <c r="B85" t="str">
-        <f>lookup(C85,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C85,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>30</v>
@@ -4737,7 +4734,7 @@
         <v>7.0</v>
       </c>
       <c r="B86" t="str">
-        <f>lookup(C86,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C86,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -4758,7 +4755,7 @@
         <v>7.0</v>
       </c>
       <c r="B87" t="str">
-        <f>lookup(C87,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C87,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -4779,7 +4776,7 @@
         <v>7.0</v>
       </c>
       <c r="B88" t="str">
-        <f>lookup(C88,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C88,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>163</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -4800,7 +4797,7 @@
         <v>7.0</v>
       </c>
       <c r="B89" t="str">
-        <f>lookup(C89,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C89,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>136</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -4821,7 +4818,7 @@
         <v>7.0</v>
       </c>
       <c r="B90" t="str">
-        <f>lookup(C90,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C90,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -4842,7 +4839,7 @@
         <v>7.0</v>
       </c>
       <c r="B91" t="str">
-        <f>lookup(C91,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C91,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>133</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -4863,8 +4860,8 @@
         <v>7.0</v>
       </c>
       <c r="B92" t="str">
-        <f>lookup(C92,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>230</v>
+        <f>lookup(C92,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>229</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>86</v>
@@ -4884,7 +4881,7 @@
         <v>7.0</v>
       </c>
       <c r="B93" t="str">
-        <f>lookup(C93,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C93,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>183</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -4905,7 +4902,7 @@
         <v>7.0</v>
       </c>
       <c r="B94" t="str">
-        <f>lookup(C94,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C94,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>193</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -4926,7 +4923,7 @@
         <v>7.0</v>
       </c>
       <c r="B95" t="str">
-        <f>lookup(C95,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C95,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>79</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -4947,7 +4944,7 @@
         <v>7.0</v>
       </c>
       <c r="B96" t="str">
-        <f>lookup(C96,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C96,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>125</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -4968,7 +4965,7 @@
         <v>8.0</v>
       </c>
       <c r="B97" t="str">
-        <f>lookup(C97,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C97,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>114</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -4989,7 +4986,7 @@
         <v>8.0</v>
       </c>
       <c r="B98" t="str">
-        <f>lookup(C98,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C98,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>92</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -5010,7 +5007,7 @@
         <v>8.0</v>
       </c>
       <c r="B99" t="str">
-        <f>lookup(C99,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C99,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -5031,7 +5028,7 @@
         <v>8.0</v>
       </c>
       <c r="B100" t="str">
-        <f>lookup(C100,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C100,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -5052,7 +5049,7 @@
         <v>8.0</v>
       </c>
       <c r="B101" t="str">
-        <f>lookup(C101,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C101,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>132</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -5073,7 +5070,7 @@
         <v>8.0</v>
       </c>
       <c r="B102" t="str">
-        <f>lookup(C102,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C102,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>117</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -5094,7 +5091,7 @@
         <v>8.0</v>
       </c>
       <c r="B103" t="str">
-        <f>lookup(C103,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C103,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>202</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -5115,8 +5112,8 @@
         <v>8.0</v>
       </c>
       <c r="B104" t="str">
-        <f>lookup(C104,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C104,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>72</v>
@@ -5136,7 +5133,7 @@
         <v>8.0</v>
       </c>
       <c r="B105" t="str">
-        <f>lookup(C105,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C105,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>197</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -5157,7 +5154,7 @@
         <v>8.0</v>
       </c>
       <c r="B106" t="str">
-        <f>lookup(C106,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C106,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>172</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -5178,7 +5175,7 @@
         <v>8.0</v>
       </c>
       <c r="B107" t="str">
-        <f>lookup(C107,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C107,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>68</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -5199,8 +5196,8 @@
         <v>8.0</v>
       </c>
       <c r="B108" t="str">
-        <f>lookup(C108,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C108,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>16</v>
@@ -5220,7 +5217,7 @@
         <v>9.0</v>
       </c>
       <c r="B109" t="str">
-        <f>lookup(C109,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C109,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -5241,7 +5238,7 @@
         <v>10.0</v>
       </c>
       <c r="B110" t="str">
-        <f>lookup(C110,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C110,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -5262,8 +5259,8 @@
         <v>10.0</v>
       </c>
       <c r="B111" t="str">
-        <f>lookup(C111,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C111,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>30</v>
@@ -5283,7 +5280,7 @@
         <v>10.0</v>
       </c>
       <c r="B112" t="str">
-        <f>lookup(C112,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C112,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -5304,7 +5301,7 @@
         <v>10.0</v>
       </c>
       <c r="B113" t="str">
-        <f>lookup(C113,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C113,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -5325,7 +5322,7 @@
         <v>10.0</v>
       </c>
       <c r="B114" t="str">
-        <f>lookup(C114,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C114,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>223</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -5346,7 +5343,7 @@
         <v>10.0</v>
       </c>
       <c r="B115" t="str">
-        <f>lookup(C115,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C115,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -5367,7 +5364,7 @@
         <v>10.0</v>
       </c>
       <c r="B116" t="str">
-        <f>lookup(C116,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C116,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>135</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -5388,7 +5385,7 @@
         <v>10.0</v>
       </c>
       <c r="B117" t="str">
-        <f>lookup(C117,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C117,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>79</v>
       </c>
       <c r="C117" s="7" t="s">
@@ -5409,7 +5406,7 @@
         <v>10.0</v>
       </c>
       <c r="B118" t="str">
-        <f>lookup(C118,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C118,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>125</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -5430,7 +5427,7 @@
         <v>10.0</v>
       </c>
       <c r="B119" t="str">
-        <f>lookup(C119,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C119,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -5451,7 +5448,7 @@
         <v>10.0</v>
       </c>
       <c r="B120" t="str">
-        <f>lookup(C120,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C120,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>167</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -5472,7 +5469,7 @@
         <v>10.0</v>
       </c>
       <c r="B121" t="str">
-        <f>lookup(C121,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C121,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>188</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -5493,7 +5490,7 @@
         <v>10.0</v>
       </c>
       <c r="B122" t="str">
-        <f>lookup(C122,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C122,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>91</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -5514,8 +5511,8 @@
         <v>10.0</v>
       </c>
       <c r="B123" t="str">
-        <f>lookup(C123,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C123,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>16</v>
@@ -5535,7 +5532,7 @@
         <v>10.0</v>
       </c>
       <c r="B124" t="str">
-        <f>lookup(C124,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C124,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -5556,7 +5553,7 @@
         <v>10.0</v>
       </c>
       <c r="B125" t="str">
-        <f>lookup(C125,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C125,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>69</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -5577,7 +5574,7 @@
         <v>10.0</v>
       </c>
       <c r="B126" t="str">
-        <f>lookup(C126,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C126,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>195</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -5598,7 +5595,7 @@
         <v>10.0</v>
       </c>
       <c r="B127" t="str">
-        <f>lookup(C127,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C127,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>58</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -5619,8 +5616,8 @@
         <v>11.0</v>
       </c>
       <c r="B128" t="str">
-        <f>lookup(C128,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C128,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>30</v>
@@ -5640,7 +5637,7 @@
         <v>11.0</v>
       </c>
       <c r="B129" t="str">
-        <f>lookup(C129,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C129,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -5661,7 +5658,7 @@
         <v>11.0</v>
       </c>
       <c r="B130" t="str">
-        <f>lookup(C130,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C130,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -5682,7 +5679,7 @@
         <v>11.0</v>
       </c>
       <c r="B131" t="str">
-        <f>lookup(C131,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C131,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -5703,7 +5700,7 @@
         <v>11.0</v>
       </c>
       <c r="B132" t="str">
-        <f>lookup(C132,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C132,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>160</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -5724,7 +5721,7 @@
         <v>11.0</v>
       </c>
       <c r="B133" t="str">
-        <f>lookup(C133,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C133,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>168</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -5745,7 +5742,7 @@
         <v>11.0</v>
       </c>
       <c r="B134" t="str">
-        <f>lookup(C134,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C134,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>135</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -5766,8 +5763,8 @@
         <v>11.0</v>
       </c>
       <c r="B135" t="str">
-        <f>lookup(C135,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C135,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>72</v>
@@ -5787,7 +5784,7 @@
         <v>11.0</v>
       </c>
       <c r="B136" t="str">
-        <f>lookup(C136,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C136,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>157</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -5808,7 +5805,7 @@
         <v>11.0</v>
       </c>
       <c r="B137" t="str">
-        <f>lookup(C137,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C137,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>194</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -5829,7 +5826,7 @@
         <v>11.0</v>
       </c>
       <c r="B138" t="str">
-        <f>lookup(C138,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C138,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>142</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -5850,7 +5847,7 @@
         <v>12.0</v>
       </c>
       <c r="B139" t="str">
-        <f>lookup(C139,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C139,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>74</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -5871,7 +5868,7 @@
         <v>12.0</v>
       </c>
       <c r="B140" t="str">
-        <f>lookup(C140,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C140,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -5892,7 +5889,7 @@
         <v>12.0</v>
       </c>
       <c r="B141" t="str">
-        <f>lookup(C141,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C141,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>82</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -5913,7 +5910,7 @@
         <v>12.0</v>
       </c>
       <c r="B142" t="str">
-        <f>lookup(C142,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C142,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>70</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -5934,7 +5931,7 @@
         <v>13.0</v>
       </c>
       <c r="B143" t="str">
-        <f>lookup(C143,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C143,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>66</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -5955,7 +5952,7 @@
         <v>13.0</v>
       </c>
       <c r="B144" t="str">
-        <f>lookup(C144,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C144,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -5976,7 +5973,7 @@
         <v>13.0</v>
       </c>
       <c r="B145" t="str">
-        <f>lookup(C145,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C145,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>132</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -5997,7 +5994,7 @@
         <v>13.0</v>
       </c>
       <c r="B146" t="str">
-        <f>lookup(C146,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C146,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>114</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -6018,7 +6015,7 @@
         <v>13.0</v>
       </c>
       <c r="B147" t="str">
-        <f>lookup(C147,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C147,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>13</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -6039,7 +6036,7 @@
         <v>13.0</v>
       </c>
       <c r="B148" t="str">
-        <f>lookup(C148,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C148,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>196</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -6060,7 +6057,7 @@
         <v>13.0</v>
       </c>
       <c r="B149" t="str">
-        <f>lookup(C149,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C149,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>65</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -6081,7 +6078,7 @@
         <v>13.0</v>
       </c>
       <c r="B150" t="str">
-        <f>lookup(C150,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C150,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -6102,7 +6099,7 @@
         <v>13.0</v>
       </c>
       <c r="B151" t="str">
-        <f>lookup(C151,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C151,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>40</v>
       </c>
       <c r="C151" s="3" t="s">
@@ -6123,8 +6120,8 @@
         <v>13.0</v>
       </c>
       <c r="B152" t="str">
-        <f>lookup(C152,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>231</v>
+        <f>lookup(C152,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>230</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>112</v>
@@ -6144,7 +6141,7 @@
         <v>13.0</v>
       </c>
       <c r="B153" t="str">
-        <f>lookup(C153,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C153,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>39</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -6165,7 +6162,7 @@
         <v>13.0</v>
       </c>
       <c r="B154" t="str">
-        <f>lookup(C154,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C154,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>15</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -6186,7 +6183,7 @@
         <v>13.0</v>
       </c>
       <c r="B155" t="str">
-        <f>lookup(C155,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C155,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>95</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -6207,8 +6204,8 @@
         <v>13.0</v>
       </c>
       <c r="B156" t="str">
-        <f>lookup(C156,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C156,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>16</v>
@@ -6228,7 +6225,7 @@
         <v>14.0</v>
       </c>
       <c r="B157" t="str">
-        <f>lookup(C157,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C157,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -6249,7 +6246,7 @@
         <v>14.0</v>
       </c>
       <c r="B158" t="str">
-        <f>lookup(C158,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C158,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -6270,8 +6267,8 @@
         <v>14.0</v>
       </c>
       <c r="B159" t="str">
-        <f>lookup(C159,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C159,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>16</v>
@@ -6291,7 +6288,7 @@
         <v>15.0</v>
       </c>
       <c r="B160" t="str">
-        <f>lookup(C160,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C160,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>121</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -6312,7 +6309,7 @@
         <v>15.0</v>
       </c>
       <c r="B161" t="str">
-        <f>lookup(C161,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C161,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>218</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -6333,7 +6330,7 @@
         <v>15.0</v>
       </c>
       <c r="B162" t="str">
-        <f>lookup(C162,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C162,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>97</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -6354,7 +6351,7 @@
         <v>15.0</v>
       </c>
       <c r="B163" t="str">
-        <f>lookup(C163,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C163,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>70</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -6375,7 +6372,7 @@
         <v>15.0</v>
       </c>
       <c r="B164" t="str">
-        <f>lookup(C164,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C164,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>198</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -6396,7 +6393,7 @@
         <v>15.0</v>
       </c>
       <c r="B165" t="str">
-        <f>lookup(C165,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C165,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>37</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -6417,7 +6414,7 @@
         <v>15.0</v>
       </c>
       <c r="B166" t="str">
-        <f>lookup(C166,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C166,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>32</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -6438,7 +6435,7 @@
         <v>15.0</v>
       </c>
       <c r="B167" t="str">
-        <f>lookup(C167,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C167,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>74</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -6459,7 +6456,7 @@
         <v>15.0</v>
       </c>
       <c r="B168" t="str">
-        <f>lookup(C168,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C168,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>128</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -6480,8 +6477,8 @@
         <v>15.0</v>
       </c>
       <c r="B169" t="str">
-        <f>lookup(C169,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>261</v>
+        <f>lookup(C169,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>260</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>20</v>
@@ -6501,7 +6498,7 @@
         <v>15.0</v>
       </c>
       <c r="B170" t="str">
-        <f>lookup(C170,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C170,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -6522,7 +6519,7 @@
         <v>15.0</v>
       </c>
       <c r="B171" t="str">
-        <f>lookup(C171,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C171,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -6543,8 +6540,8 @@
         <v>15.0</v>
       </c>
       <c r="B172" t="str">
-        <f>lookup(C172,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C172,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>16</v>
@@ -6564,8 +6561,8 @@
         <v>15.0</v>
       </c>
       <c r="B173" t="str">
-        <f>lookup(C173,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>246</v>
+        <f>lookup(C173,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>245</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>126</v>
@@ -6585,8 +6582,8 @@
         <v>15.0</v>
       </c>
       <c r="B174" t="str">
-        <f>lookup(C174,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>250</v>
+        <f>lookup(C174,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>249</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>127</v>
@@ -6606,8 +6603,8 @@
         <v>15.0</v>
       </c>
       <c r="B175" t="str">
-        <f>lookup(C175,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>249</v>
+        <f>lookup(C175,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>248</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>128</v>
@@ -6627,8 +6624,8 @@
         <v>15.0</v>
       </c>
       <c r="B176" t="str">
-        <f>lookup(C176,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>248</v>
+        <f>lookup(C176,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>247</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>130</v>
@@ -6648,8 +6645,8 @@
         <v>15.0</v>
       </c>
       <c r="B177" t="str">
-        <f>lookup(C177,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>252</v>
+        <f>lookup(C177,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>251</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>132</v>
@@ -6669,7 +6666,7 @@
         <v>15.0</v>
       </c>
       <c r="B178" t="str">
-        <f>lookup(C178,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C178,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>113</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -6690,7 +6687,7 @@
         <v>15.0</v>
       </c>
       <c r="B179" t="str">
-        <f>lookup(C179,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C179,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>3</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -6711,7 +6708,7 @@
         <v>15.0</v>
       </c>
       <c r="B180" t="str">
-        <f>lookup(C180,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C180,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>187</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -6732,7 +6729,7 @@
         <v>15.0</v>
       </c>
       <c r="B181" t="str">
-        <f>lookup(C181,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C181,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>72</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -6753,7 +6750,7 @@
         <v>15.0</v>
       </c>
       <c r="B182" t="str">
-        <f>lookup(C182,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C182,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -6774,8 +6771,8 @@
         <v>15.0</v>
       </c>
       <c r="B183" t="str">
-        <f>lookup(C183,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>229</v>
+        <f>lookup(C183,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>228</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>143</v>
@@ -6795,8 +6792,8 @@
         <v>15.0</v>
       </c>
       <c r="B184" t="str">
-        <f>lookup(C184,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C184,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>72</v>
@@ -6816,7 +6813,7 @@
         <v>15.0</v>
       </c>
       <c r="B185" t="str">
-        <f>lookup(C185,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C185,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>149</v>
       </c>
       <c r="C185" s="3" t="s">
@@ -6837,7 +6834,7 @@
         <v>15.0</v>
       </c>
       <c r="B186" t="str">
-        <f>lookup(C186,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C186,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>65</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -6858,7 +6855,7 @@
         <v>15.0</v>
       </c>
       <c r="B187" t="str">
-        <f>lookup(C187,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C187,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -6879,7 +6876,7 @@
         <v>15.0</v>
       </c>
       <c r="B188" t="str">
-        <f>lookup(C188,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C188,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>132</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -6900,7 +6897,7 @@
         <v>15.0</v>
       </c>
       <c r="B189" t="str">
-        <f>lookup(C189,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C189,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C189" s="9" t="s">
@@ -6921,7 +6918,7 @@
         <v>15.0</v>
       </c>
       <c r="B190" t="str">
-        <f>lookup(C190,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C190,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>82</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -6942,7 +6939,7 @@
         <v>15.0</v>
       </c>
       <c r="B191" t="str">
-        <f>lookup(C191,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C191,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>42</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -6963,7 +6960,7 @@
         <v>15.0</v>
       </c>
       <c r="B192" t="str">
-        <f>lookup(C192,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C192,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>118</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -6984,7 +6981,7 @@
         <v>15.0</v>
       </c>
       <c r="B193" t="str">
-        <f>lookup(C193,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C193,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>43</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -7005,7 +7002,7 @@
         <v>15.0</v>
       </c>
       <c r="B194" t="str">
-        <f>lookup(C194,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C194,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>73</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -7026,7 +7023,7 @@
         <v>15.0</v>
       </c>
       <c r="B195" t="str">
-        <f>lookup(C195,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C195,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>38</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -7047,7 +7044,7 @@
         <v>15.0</v>
       </c>
       <c r="B196" t="str">
-        <f>lookup(C196,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C196,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>154</v>
       </c>
       <c r="C196" s="3" t="s">
@@ -7068,7 +7065,7 @@
         <v>16.0</v>
       </c>
       <c r="B197" t="str">
-        <f>lookup(C197,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C197,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -7089,7 +7086,7 @@
         <v>16.0</v>
       </c>
       <c r="B198" t="str">
-        <f>lookup(C198,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C198,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>74</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -7110,7 +7107,7 @@
         <v>16.0</v>
       </c>
       <c r="B199" t="str">
-        <f>lookup(C199,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C199,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>191</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -7131,7 +7128,7 @@
         <v>16.0</v>
       </c>
       <c r="B200" t="str">
-        <f>lookup(C200,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C200,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>30</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -7152,7 +7149,7 @@
         <v>17.0</v>
       </c>
       <c r="B201" t="str">
-        <f>lookup(C201,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C201,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>73</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -7173,7 +7170,7 @@
         <v>17.0</v>
       </c>
       <c r="B202" t="str">
-        <f>lookup(C202,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C202,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>127</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -7194,8 +7191,8 @@
         <v>17.0</v>
       </c>
       <c r="B203" t="str">
-        <f>lookup(C203,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>229</v>
+        <f>lookup(C203,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>228</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>143</v>
@@ -7215,7 +7212,7 @@
         <v>17.0</v>
       </c>
       <c r="B204" t="str">
-        <f>lookup(C204,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C204,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -7236,7 +7233,7 @@
         <v>17.0</v>
       </c>
       <c r="B205" t="str">
-        <f>lookup(C205,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C205,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>162</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -7257,7 +7254,7 @@
         <v>17.0</v>
       </c>
       <c r="B206" t="str">
-        <f>lookup(C206,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C206,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>201</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -7278,8 +7275,8 @@
         <v>17.0</v>
       </c>
       <c r="B207" t="str">
-        <f>lookup(C207,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>254</v>
+        <f>lookup(C207,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>253</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>48</v>
@@ -7299,8 +7296,8 @@
         <v>17.0</v>
       </c>
       <c r="B208" t="str">
-        <f>lookup(C208,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C208,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>16</v>
@@ -7320,7 +7317,7 @@
         <v>17.0</v>
       </c>
       <c r="B209" t="str">
-        <f>lookup(C209,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C209,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>132</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -7341,7 +7338,7 @@
         <v>17.0</v>
       </c>
       <c r="B210" t="str">
-        <f>lookup(C210,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C210,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>101</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -7362,7 +7359,7 @@
         <v>17.0</v>
       </c>
       <c r="B211" t="str">
-        <f>lookup(C211,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C211,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>194</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -7383,7 +7380,7 @@
         <v>17.0</v>
       </c>
       <c r="B212" t="str">
-        <f>lookup(C212,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C212,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -7404,8 +7401,8 @@
         <v>18.0</v>
       </c>
       <c r="B213" t="str">
-        <f>lookup(C213,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C213,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>30</v>
@@ -7425,7 +7422,7 @@
         <v>18.0</v>
       </c>
       <c r="B214" t="str">
-        <f>lookup(C214,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C214,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -7446,8 +7443,8 @@
         <v>18.0</v>
       </c>
       <c r="B215" t="str">
-        <f>lookup(C215,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>229</v>
+        <f>lookup(C215,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>228</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>143</v>
@@ -7467,7 +7464,7 @@
         <v>18.0</v>
       </c>
       <c r="B216" t="str">
-        <f>lookup(C216,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C216,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -7488,7 +7485,7 @@
         <v>18.0</v>
       </c>
       <c r="B217" t="str">
-        <f>lookup(C217,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C217,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -7509,7 +7506,7 @@
         <v>18.0</v>
       </c>
       <c r="B218" t="str">
-        <f>lookup(C218,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C218,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -7530,7 +7527,7 @@
         <v>18.0</v>
       </c>
       <c r="B219" t="str">
-        <f>lookup(C219,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C219,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>47</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -7551,7 +7548,7 @@
         <v>18.0</v>
       </c>
       <c r="B220" t="str">
-        <f>lookup(C220,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C220,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>92</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -7572,7 +7569,7 @@
         <v>18.0</v>
       </c>
       <c r="B221" t="str">
-        <f>lookup(C221,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C221,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>90</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -7593,8 +7590,8 @@
         <v>18.0</v>
       </c>
       <c r="B222" t="str">
-        <f>lookup(C222,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C222,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>72</v>
@@ -7614,8 +7611,8 @@
         <v>18.0</v>
       </c>
       <c r="B223" t="str">
-        <f>lookup(C223,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>247</v>
+        <f>lookup(C223,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>246</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>170</v>
@@ -7635,7 +7632,7 @@
         <v>18.0</v>
       </c>
       <c r="B224" t="str">
-        <f>lookup(C224,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C224,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>207</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -7656,7 +7653,7 @@
         <v>18.0</v>
       </c>
       <c r="B225" t="str">
-        <f>lookup(C225,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C225,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -7677,7 +7674,7 @@
         <v>18.0</v>
       </c>
       <c r="B226" t="str">
-        <f>lookup(C226,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C226,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -7698,8 +7695,8 @@
         <v>19.0</v>
       </c>
       <c r="B227" t="str">
-        <f>lookup(C227,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C227,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>30</v>
@@ -7719,7 +7716,7 @@
         <v>19.0</v>
       </c>
       <c r="B228" t="str">
-        <f>lookup(C228,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C228,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -7740,7 +7737,7 @@
         <v>19.0</v>
       </c>
       <c r="B229" t="str">
-        <f>lookup(C229,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C229,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>76</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -7761,7 +7758,7 @@
         <v>19.0</v>
       </c>
       <c r="B230" t="str">
-        <f>lookup(C230,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C230,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>19</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -7782,7 +7779,7 @@
         <v>19.0</v>
       </c>
       <c r="B231" t="str">
-        <f>lookup(C231,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C231,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -7803,7 +7800,7 @@
         <v>19.0</v>
       </c>
       <c r="B232" t="str">
-        <f>lookup(C232,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C232,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>92</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -7824,8 +7821,8 @@
         <v>19.0</v>
       </c>
       <c r="B233" t="str">
-        <f>lookup(C233,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>255</v>
+        <f>lookup(C233,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>254</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>180</v>
@@ -7845,7 +7842,7 @@
         <v>19.0</v>
       </c>
       <c r="B234" t="str">
-        <f>lookup(C234,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C234,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -7866,7 +7863,7 @@
         <v>19.0</v>
       </c>
       <c r="B235" t="str">
-        <f>lookup(C235,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C235,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>7</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -7887,7 +7884,7 @@
         <v>19.0</v>
       </c>
       <c r="B236" t="str">
-        <f>lookup(C236,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C236,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>164</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -7908,8 +7905,8 @@
         <v>19.0</v>
       </c>
       <c r="B237" t="str">
-        <f>lookup(C237,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C237,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>16</v>
@@ -7929,8 +7926,8 @@
         <v>19.0</v>
       </c>
       <c r="B238" t="str">
-        <f>lookup(C238,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>231</v>
+        <f>lookup(C238,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>230</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>112</v>
@@ -7950,7 +7947,7 @@
         <v>19.0</v>
       </c>
       <c r="B239" t="str">
-        <f>lookup(C239,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C239,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>217</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -7971,8 +7968,8 @@
         <v>19.0</v>
       </c>
       <c r="B240" t="str">
-        <f>lookup(C240,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C240,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>16</v>
@@ -7992,7 +7989,7 @@
         <v>19.0</v>
       </c>
       <c r="B241" t="str">
-        <f>lookup(C241,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C241,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>140</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -8013,7 +8010,7 @@
         <v>19.0</v>
       </c>
       <c r="B242" t="str">
-        <f>lookup(C242,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C242,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>115</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -8034,7 +8031,7 @@
         <v>19.0</v>
       </c>
       <c r="B243" t="str">
-        <f>lookup(C243,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C243,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>29</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -8055,7 +8052,7 @@
         <v>19.0</v>
       </c>
       <c r="B244" t="str">
-        <f>lookup(C244,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C244,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -8076,7 +8073,7 @@
         <v>19.0</v>
       </c>
       <c r="B245" t="str">
-        <f>lookup(C245,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C245,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -8097,7 +8094,7 @@
         <v>20.0</v>
       </c>
       <c r="B246" t="str">
-        <f>lookup(C246,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C246,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -8118,7 +8115,7 @@
         <v>20.0</v>
       </c>
       <c r="B247" t="str">
-        <f>lookup(C247,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C247,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>29</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -8139,7 +8136,7 @@
         <v>20.0</v>
       </c>
       <c r="B248" t="str">
-        <f>lookup(C248,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C248,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>32</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -8160,7 +8157,7 @@
         <v>20.0</v>
       </c>
       <c r="B249" t="str">
-        <f>lookup(C249,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C249,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>37</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -8181,7 +8178,7 @@
         <v>20.0</v>
       </c>
       <c r="B250" t="str">
-        <f>lookup(C250,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C250,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>42</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -8202,7 +8199,7 @@
         <v>20.0</v>
       </c>
       <c r="B251" t="str">
-        <f>lookup(C251,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C251,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -8223,7 +8220,7 @@
         <v>20.0</v>
       </c>
       <c r="B252" t="str">
-        <f>lookup(C252,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C252,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>100</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -8244,7 +8241,7 @@
         <v>20.0</v>
       </c>
       <c r="B253" t="str">
-        <f>lookup(C253,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C253,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>106</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -8265,8 +8262,8 @@
         <v>20.0</v>
       </c>
       <c r="B254" t="str">
-        <f>lookup(C254,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C254,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>72</v>
@@ -8286,7 +8283,7 @@
         <v>20.0</v>
       </c>
       <c r="B255" t="str">
-        <f>lookup(C255,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C255,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>172</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -8307,7 +8304,7 @@
         <v>20.0</v>
       </c>
       <c r="B256" t="str">
-        <f>lookup(C256,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C256,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>152</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -8328,7 +8325,7 @@
         <v>20.0</v>
       </c>
       <c r="B257" t="str">
-        <f>lookup(C257,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C257,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>134</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -8349,7 +8346,7 @@
         <v>20.0</v>
       </c>
       <c r="B258" t="str">
-        <f>lookup(C258,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C258,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>157</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -8370,7 +8367,7 @@
         <v>20.0</v>
       </c>
       <c r="B259" t="str">
-        <f>lookup(C259,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C259,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -8391,7 +8388,7 @@
         <v>20.0</v>
       </c>
       <c r="B260" t="str">
-        <f>lookup(C260,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C260,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -8412,7 +8409,7 @@
         <v>20.0</v>
       </c>
       <c r="B261" t="str">
-        <f>lookup(C261,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C261,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>194</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -8433,8 +8430,8 @@
         <v>20.0</v>
       </c>
       <c r="B262" t="str">
-        <f>lookup(C262,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>233</v>
+        <f>lookup(C262,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>232</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>198</v>
@@ -8454,8 +8451,8 @@
         <v>20.0</v>
       </c>
       <c r="B263" t="str">
-        <f>lookup(C263,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C263,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>16</v>
@@ -8475,8 +8472,8 @@
         <v>20.0</v>
       </c>
       <c r="B264" t="str">
-        <f>lookup(C264,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>238</v>
+        <f>lookup(C264,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>237</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>12</v>
@@ -8496,7 +8493,7 @@
         <v>21.0</v>
       </c>
       <c r="B265" t="str">
-        <f>lookup(C265,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C265,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -8517,7 +8514,7 @@
         <v>21.0</v>
       </c>
       <c r="B266" t="str">
-        <f>lookup(C266,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C266,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>55</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -8538,7 +8535,7 @@
         <v>21.0</v>
       </c>
       <c r="B267" t="str">
-        <f>lookup(C267,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C267,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>21</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -8559,7 +8556,7 @@
         <v>21.0</v>
       </c>
       <c r="B268" t="str">
-        <f>lookup(C268,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C268,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>135</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -8580,7 +8577,7 @@
         <v>22.0</v>
       </c>
       <c r="B269" t="str">
-        <f>lookup(C269,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C269,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>135</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -8601,7 +8598,7 @@
         <v>22.0</v>
       </c>
       <c r="B270" t="str">
-        <f>lookup(C270,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C270,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -8622,7 +8619,7 @@
         <v>22.0</v>
       </c>
       <c r="B271" t="str">
-        <f>lookup(C271,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C271,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>91</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -8643,7 +8640,7 @@
         <v>22.0</v>
       </c>
       <c r="B272" t="str">
-        <f>lookup(C272,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C272,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>89</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -8664,7 +8661,7 @@
         <v>22.0</v>
       </c>
       <c r="B273" t="str">
-        <f>lookup(C273,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C273,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -8685,7 +8682,7 @@
         <v>22.0</v>
       </c>
       <c r="B274" t="str">
-        <f>lookup(C274,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C274,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>136</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -8706,7 +8703,7 @@
         <v>22.0</v>
       </c>
       <c r="B275" t="str">
-        <f>lookup(C275,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C275,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>155</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -8727,7 +8724,7 @@
         <v>22.0</v>
       </c>
       <c r="B276" t="str">
-        <f>lookup(C276,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C276,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -8748,7 +8745,7 @@
         <v>22.0</v>
       </c>
       <c r="B277" t="str">
-        <f>lookup(C277,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C277,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -8769,8 +8766,8 @@
         <v>22.0</v>
       </c>
       <c r="B278" t="str">
-        <f>lookup(C278,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C278,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>30</v>
@@ -8790,7 +8787,7 @@
         <v>22.0</v>
       </c>
       <c r="B279" t="str">
-        <f>lookup(C279,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C279,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>206</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -8811,7 +8808,7 @@
         <v>22.0</v>
       </c>
       <c r="B280" t="str">
-        <f>lookup(C280,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C280,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>214</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -8832,8 +8829,8 @@
         <v>23.0</v>
       </c>
       <c r="B281" t="str">
-        <f>lookup(C281,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>261</v>
+        <f>lookup(C281,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>260</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>20</v>
@@ -8853,7 +8850,7 @@
         <v>23.0</v>
       </c>
       <c r="B282" t="str">
-        <f>lookup(C282,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C282,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>47</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -8874,7 +8871,7 @@
         <v>23.0</v>
       </c>
       <c r="B283" t="str">
-        <f>lookup(C283,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C283,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C283" s="4" t="s">
@@ -8895,7 +8892,7 @@
         <v>23.0</v>
       </c>
       <c r="B284" t="str">
-        <f>lookup(C284,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C284,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>165</v>
       </c>
       <c r="C284" s="4" t="s">
@@ -8916,7 +8913,7 @@
         <v>23.0</v>
       </c>
       <c r="B285" t="str">
-        <f>lookup(C285,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C285,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>173</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -8937,7 +8934,7 @@
         <v>23.0</v>
       </c>
       <c r="B286" t="str">
-        <f>lookup(C286,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C286,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C286" s="4" t="s">
@@ -8958,7 +8955,7 @@
         <v>24.0</v>
       </c>
       <c r="B287" t="str">
-        <f>lookup(C287,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C287,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -8979,7 +8976,7 @@
         <v>24.0</v>
       </c>
       <c r="B288" t="str">
-        <f>lookup(C288,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C288,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>163</v>
       </c>
       <c r="C288" s="3" t="s">
@@ -9000,7 +8997,7 @@
         <v>24.0</v>
       </c>
       <c r="B289" t="str">
-        <f>lookup(C289,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C289,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>121</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -9021,7 +9018,7 @@
         <v>24.0</v>
       </c>
       <c r="B290" t="str">
-        <f>lookup(C290,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C290,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -9042,8 +9039,8 @@
         <v>24.0</v>
       </c>
       <c r="B291" t="str">
-        <f>lookup(C291,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>240</v>
+        <f>lookup(C291,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>239</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>212</v>
@@ -9063,7 +9060,7 @@
         <v>24.0</v>
       </c>
       <c r="B292" t="str">
-        <f>lookup(C292,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C292,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -9084,7 +9081,7 @@
         <v>24.0</v>
       </c>
       <c r="B293" t="str">
-        <f>lookup(C293,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C293,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -9105,7 +9102,7 @@
         <v>24.0</v>
       </c>
       <c r="B294" t="str">
-        <f>lookup(C294,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C294,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -9126,8 +9123,8 @@
         <v>24.0</v>
       </c>
       <c r="B295" t="str">
-        <f>lookup(C295,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C295,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>16</v>
@@ -9147,7 +9144,7 @@
         <v>24.0</v>
       </c>
       <c r="B296" t="str">
-        <f>lookup(C296,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C296,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>218</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -9168,7 +9165,7 @@
         <v>24.0</v>
       </c>
       <c r="B297" t="str">
-        <f>lookup(C297,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C297,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>14</v>
       </c>
       <c r="C297" s="12" t="s">
@@ -9189,7 +9186,7 @@
         <v>24.0</v>
       </c>
       <c r="B298" t="str">
-        <f>lookup(C298,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C298,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -9210,8 +9207,8 @@
         <v>24.0</v>
       </c>
       <c r="B299" t="str">
-        <f>lookup(C299,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>237</v>
+        <f>lookup(C299,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>236</v>
       </c>
       <c r="C299" s="13" t="s">
         <v>218</v>
@@ -9231,8 +9228,8 @@
         <v>24.0</v>
       </c>
       <c r="B300" t="str">
-        <f>lookup(C300,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>239</v>
+        <f>lookup(C300,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>238</v>
       </c>
       <c r="C300" s="13" t="s">
         <v>220</v>
@@ -9252,7 +9249,7 @@
         <v>25.0</v>
       </c>
       <c r="B301" t="str">
-        <f>lookup(C301,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C301,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -9273,7 +9270,7 @@
         <v>25.0</v>
       </c>
       <c r="B302" t="str">
-        <f>lookup(C302,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C302,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>162</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -9294,7 +9291,7 @@
         <v>25.0</v>
       </c>
       <c r="B303" t="str">
-        <f>lookup(C303,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C303,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>24</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -9315,7 +9312,7 @@
         <v>25.0</v>
       </c>
       <c r="B304" t="str">
-        <f>lookup(C304,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C304,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>141</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -9336,7 +9333,7 @@
         <v>25.0</v>
       </c>
       <c r="B305" t="str">
-        <f>lookup(C305,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C305,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>39</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -9357,8 +9354,8 @@
         <v>26.0</v>
       </c>
       <c r="B306" t="str">
-        <f>lookup(C306,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C306,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>30</v>
@@ -9378,8 +9375,8 @@
         <v>26.0</v>
       </c>
       <c r="B307" t="str">
-        <f>lookup(C307,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>234</v>
+        <f>lookup(C307,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>233</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>224</v>
@@ -9399,8 +9396,8 @@
         <v>26.0</v>
       </c>
       <c r="B308" t="str">
-        <f>lookup(C308,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>235</v>
+        <f>lookup(C308,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>234</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>225</v>
@@ -9420,7 +9417,7 @@
         <v>26.0</v>
       </c>
       <c r="B309" t="str">
-        <f>lookup(C309,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C309,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>193</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -9441,7 +9438,7 @@
         <v>26.0</v>
       </c>
       <c r="B310" t="str">
-        <f>lookup(C310,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C310,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>53</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -9462,7 +9459,7 @@
         <v>26.0</v>
       </c>
       <c r="B311" t="str">
-        <f>lookup(C311,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C311,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>185</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -9483,7 +9480,7 @@
         <v>26.0</v>
       </c>
       <c r="B312" t="str">
-        <f>lookup(C312,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C312,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -9504,8 +9501,8 @@
         <v>26.0</v>
       </c>
       <c r="B313" t="str">
-        <f>lookup(C313,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>241</v>
+        <f>lookup(C313,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>240</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>52</v>
@@ -9525,7 +9522,7 @@
         <v>26.0</v>
       </c>
       <c r="B314" t="str">
-        <f>lookup(C314,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C314,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>44</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -9546,7 +9543,7 @@
         <v>26.0</v>
       </c>
       <c r="B315" t="str">
-        <f>lookup(C315,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C315,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>25</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -9567,7 +9564,7 @@
         <v>26.0</v>
       </c>
       <c r="B316" t="str">
-        <f>lookup(C316,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C316,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>7</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -9588,7 +9585,7 @@
         <v>26.0</v>
       </c>
       <c r="B317" t="str">
-        <f>lookup(C317,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C317,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -9609,7 +9606,7 @@
         <v>26.0</v>
       </c>
       <c r="B318" t="str">
-        <f>lookup(C318,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C318,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>91</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -9630,8 +9627,8 @@
         <v>26.0</v>
       </c>
       <c r="B319" t="str">
-        <f>lookup(C319,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C319,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>72</v>
@@ -9651,8 +9648,8 @@
         <v>26.0</v>
       </c>
       <c r="B320" t="str">
-        <f>lookup(C320,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>258</v>
+        <f>lookup(C320,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>257</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>230</v>
@@ -9672,7 +9669,7 @@
         <v>26.0</v>
       </c>
       <c r="B321" t="str">
-        <f>lookup(C321,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C321,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -9693,7 +9690,7 @@
         <v>26.0</v>
       </c>
       <c r="B322" t="str">
-        <f>lookup(C322,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C322,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>150</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -9714,7 +9711,7 @@
         <v>26.0</v>
       </c>
       <c r="B323" t="str">
-        <f>lookup(C323,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C323,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C323" s="5" t="s">
@@ -9735,7 +9732,7 @@
         <v>26.0</v>
       </c>
       <c r="B324" t="str">
-        <f>lookup(C324,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C324,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>100</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -9756,7 +9753,7 @@
         <v>26.0</v>
       </c>
       <c r="B325" t="str">
-        <f>lookup(C325,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C325,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>172</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -9777,8 +9774,8 @@
         <v>27.0</v>
       </c>
       <c r="B326" t="str">
-        <f>lookup(C326,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C326,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>30</v>
@@ -9798,7 +9795,7 @@
         <v>27.0</v>
       </c>
       <c r="B327" t="str">
-        <f>lookup(C327,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C327,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -9819,7 +9816,7 @@
         <v>27.0</v>
       </c>
       <c r="B328" t="str">
-        <f>lookup(C328,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C328,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -9840,7 +9837,7 @@
         <v>27.0</v>
       </c>
       <c r="B329" t="str">
-        <f>lookup(C329,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C329,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>57</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -9861,7 +9858,7 @@
         <v>27.0</v>
       </c>
       <c r="B330" t="str">
-        <f>lookup(C330,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C330,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>16</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -9882,8 +9879,8 @@
         <v>27.0</v>
       </c>
       <c r="B331" t="str">
-        <f>lookup(C331,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>256</v>
+        <f>lookup(C331,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>255</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>240</v>
@@ -9903,7 +9900,7 @@
         <v>27.0</v>
       </c>
       <c r="B332" t="str">
-        <f>lookup(C332,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C332,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -9924,7 +9921,7 @@
         <v>27.0</v>
       </c>
       <c r="B333" t="str">
-        <f>lookup(C333,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C333,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>164</v>
       </c>
       <c r="C333" s="1" t="s">
@@ -9945,8 +9942,8 @@
         <v>27.0</v>
       </c>
       <c r="B334" t="str">
-        <f>lookup(C334,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C334,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>16</v>
@@ -9966,8 +9963,8 @@
         <v>27.0</v>
       </c>
       <c r="B335" t="str">
-        <f>lookup(C335,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>249</v>
+        <f>lookup(C335,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>248</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>128</v>
@@ -9987,7 +9984,7 @@
         <v>27.0</v>
       </c>
       <c r="B336" t="str">
-        <f>lookup(C336,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C336,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>175</v>
       </c>
       <c r="C336" s="3" t="s">
@@ -10008,7 +10005,7 @@
         <v>27.0</v>
       </c>
       <c r="B337" t="str">
-        <f>lookup(C337,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C337,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>200</v>
       </c>
       <c r="C337" s="1" t="s">
@@ -10029,7 +10026,7 @@
         <v>27.0</v>
       </c>
       <c r="B338" t="str">
-        <f>lookup(C338,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C338,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>100</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -10050,7 +10047,7 @@
         <v>27.0</v>
       </c>
       <c r="B339" t="str">
-        <f>lookup(C339,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C339,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>139</v>
       </c>
       <c r="C339" s="1" t="s">
@@ -10071,8 +10068,8 @@
         <v>27.0</v>
       </c>
       <c r="B340" t="str">
-        <f>lookup(C340,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C340,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>72</v>
@@ -10092,7 +10089,7 @@
         <v>27.0</v>
       </c>
       <c r="B341" t="str">
-        <f>lookup(C341,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C341,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>172</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -10113,7 +10110,7 @@
         <v>27.0</v>
       </c>
       <c r="B342" t="str">
-        <f>lookup(C342,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C342,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>51</v>
       </c>
       <c r="C342" s="1" t="s">
@@ -10134,7 +10131,7 @@
         <v>27.0</v>
       </c>
       <c r="B343" t="str">
-        <f>lookup(C343,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C343,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>153</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -10155,7 +10152,7 @@
         <v>27.0</v>
       </c>
       <c r="B344" t="str">
-        <f>lookup(C344,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C344,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>123</v>
       </c>
       <c r="C344" s="1" t="s">
@@ -10176,7 +10173,7 @@
         <v>27.0</v>
       </c>
       <c r="B345" t="str">
-        <f>lookup(C345,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C345,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>29</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -10197,7 +10194,7 @@
         <v>27.0</v>
       </c>
       <c r="B346" t="str">
-        <f>lookup(C346,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C346,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>7</v>
       </c>
       <c r="C346" s="1" t="s">
@@ -10218,7 +10215,7 @@
         <v>27.0</v>
       </c>
       <c r="B347" t="str">
-        <f>lookup(C347,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C347,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>226</v>
       </c>
       <c r="C347" s="5" t="s">
@@ -10239,7 +10236,7 @@
         <v>27.0</v>
       </c>
       <c r="B348" t="str">
-        <f>lookup(C348,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C348,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>223</v>
       </c>
       <c r="C348" s="1" t="s">
@@ -10260,7 +10257,7 @@
         <v>27.0</v>
       </c>
       <c r="B349" t="str">
-        <f>lookup(C349,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C349,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>180</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -10281,7 +10278,7 @@
         <v>27.0</v>
       </c>
       <c r="B350" t="str">
-        <f>lookup(C350,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C350,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>31</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -10302,7 +10299,7 @@
         <v>27.0</v>
       </c>
       <c r="B351" t="str">
-        <f>lookup(C351,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C351,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>171</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -10323,8 +10320,8 @@
         <v>27.0</v>
       </c>
       <c r="B352" t="str">
-        <f>lookup(C352,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>258</v>
+        <f>lookup(C352,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>257</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>230</v>
@@ -10344,7 +10341,7 @@
         <v>27.0</v>
       </c>
       <c r="B353" t="str">
-        <f>lookup(C353,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C353,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>91</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -10365,7 +10362,7 @@
         <v>27.0</v>
       </c>
       <c r="B354" t="str">
-        <f>lookup(C354,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C354,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>188</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -10386,7 +10383,7 @@
         <v>27.0</v>
       </c>
       <c r="B355" t="str">
-        <f>lookup(C355,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C355,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -10407,7 +10404,7 @@
         <v>27.0</v>
       </c>
       <c r="B356" t="str">
-        <f>lookup(C356,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C356,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -10428,7 +10425,7 @@
         <v>27.0</v>
       </c>
       <c r="B357" t="str">
-        <f>lookup(C357,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C357,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>142</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -10449,7 +10446,7 @@
         <v>27.0</v>
       </c>
       <c r="B358" t="str">
-        <f>lookup(C358,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C358,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>143</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -10470,7 +10467,7 @@
         <v>28.0</v>
       </c>
       <c r="B359" t="str">
-        <f>lookup(C359,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C359,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -10491,7 +10488,7 @@
         <v>28.0</v>
       </c>
       <c r="B360" t="str">
-        <f>lookup(C360,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C360,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>48</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -10512,7 +10509,7 @@
         <v>28.0</v>
       </c>
       <c r="B361" t="str">
-        <f>lookup(C361,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C361,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>136</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -10533,7 +10530,7 @@
         <v>28.0</v>
       </c>
       <c r="B362" t="str">
-        <f>lookup(C362,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C362,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>164</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -10554,7 +10551,7 @@
         <v>28.0</v>
       </c>
       <c r="B363" t="str">
-        <f>lookup(C363,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C363,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C363" s="1" t="s">
@@ -10575,7 +10572,7 @@
         <v>28.0</v>
       </c>
       <c r="B364" t="str">
-        <f>lookup(C364,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C364,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>29</v>
       </c>
       <c r="C364" s="1" t="s">
@@ -10596,8 +10593,8 @@
         <v>29.0</v>
       </c>
       <c r="B365" t="str">
-        <f>lookup(C365,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>242</v>
+        <f>lookup(C365,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>241</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>261</v>
@@ -10617,7 +10614,7 @@
         <v>29.0</v>
       </c>
       <c r="B366" t="str">
-        <f>lookup(C366,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C366,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C366" s="1" t="s">
@@ -10638,7 +10635,7 @@
         <v>29.0</v>
       </c>
       <c r="B367" t="str">
-        <f>lookup(C367,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C367,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>163</v>
       </c>
       <c r="C367" s="3" t="s">
@@ -10659,7 +10656,7 @@
         <v>29.0</v>
       </c>
       <c r="B368" t="str">
-        <f>lookup(C368,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C368,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -10680,7 +10677,7 @@
         <v>29.0</v>
       </c>
       <c r="B369" t="str">
-        <f>lookup(C369,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C369,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>112</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -10701,8 +10698,8 @@
         <v>29.0</v>
       </c>
       <c r="B370" t="str">
-        <f>lookup(C370,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C370,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>16</v>
@@ -10722,7 +10719,7 @@
         <v>29.0</v>
       </c>
       <c r="B371" t="str">
-        <f>lookup(C371,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C371,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -10743,8 +10740,8 @@
         <v>30.0</v>
       </c>
       <c r="B372" t="str">
-        <f>lookup(C372,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>238</v>
+        <f>lookup(C372,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>237</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>12</v>
@@ -10764,7 +10761,7 @@
         <v>30.0</v>
       </c>
       <c r="B373" t="str">
-        <f>lookup(C373,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C373,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -10785,7 +10782,7 @@
         <v>30.0</v>
       </c>
       <c r="B374" t="str">
-        <f>lookup(C374,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C374,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>73</v>
       </c>
       <c r="C374" s="1" t="s">
@@ -10806,7 +10803,7 @@
         <v>30.0</v>
       </c>
       <c r="B375" t="str">
-        <f>lookup(C375,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C375,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>48</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -10827,7 +10824,7 @@
         <v>30.0</v>
       </c>
       <c r="B376" t="str">
-        <f>lookup(C376,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C376,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C376" s="9" t="s">
@@ -10848,7 +10845,7 @@
         <v>30.0</v>
       </c>
       <c r="B377" t="str">
-        <f>lookup(C377,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C377,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>92</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -10869,7 +10866,7 @@
         <v>30.0</v>
       </c>
       <c r="B378" t="str">
-        <f>lookup(C378,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C378,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C378" s="9" t="s">
@@ -10890,7 +10887,7 @@
         <v>30.0</v>
       </c>
       <c r="B379" t="str">
-        <f>lookup(C379,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C379,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>135</v>
       </c>
       <c r="C379" s="1" t="s">
@@ -10911,7 +10908,7 @@
         <v>30.0</v>
       </c>
       <c r="B380" t="str">
-        <f>lookup(C380,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C380,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C380" s="1" t="s">
@@ -10932,7 +10929,7 @@
         <v>30.0</v>
       </c>
       <c r="B381" t="str">
-        <f>lookup(C381,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C381,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C381" s="1" t="s">
@@ -10953,8 +10950,8 @@
         <v>31.0</v>
       </c>
       <c r="B382" t="str">
-        <f>lookup(C382,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C382,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>30</v>
@@ -10974,7 +10971,7 @@
         <v>31.0</v>
       </c>
       <c r="B383" t="str">
-        <f>lookup(C383,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C383,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -10995,7 +10992,7 @@
         <v>31.0</v>
       </c>
       <c r="B384" t="str">
-        <f>lookup(C384,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C384,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>49</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -11016,7 +11013,7 @@
         <v>31.0</v>
       </c>
       <c r="B385" t="str">
-        <f>lookup(C385,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C385,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -11037,8 +11034,8 @@
         <v>31.0</v>
       </c>
       <c r="B386" t="str">
-        <f>lookup(C386,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>235</v>
+        <f>lookup(C386,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>234</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>225</v>
@@ -11058,7 +11055,7 @@
         <v>31.0</v>
       </c>
       <c r="B387" t="str">
-        <f>lookup(C387,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C387,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C387" s="1" t="s">
@@ -11079,7 +11076,7 @@
         <v>31.0</v>
       </c>
       <c r="B388" t="str">
-        <f>lookup(C388,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C388,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>66</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -11100,7 +11097,7 @@
         <v>31.0</v>
       </c>
       <c r="B389" t="str">
-        <f>lookup(C389,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C389,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>44</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -11121,8 +11118,8 @@
         <v>31.0</v>
       </c>
       <c r="B390" t="str">
-        <f>lookup(C390,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>241</v>
+        <f>lookup(C390,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>240</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>52</v>
@@ -11142,7 +11139,7 @@
         <v>31.0</v>
       </c>
       <c r="B391" t="str">
-        <f>lookup(C391,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C391,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>39</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -11163,7 +11160,7 @@
         <v>31.0</v>
       </c>
       <c r="B392" t="str">
-        <f>lookup(C392,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C392,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>210</v>
       </c>
       <c r="C392" s="1" t="s">
@@ -11184,7 +11181,7 @@
         <v>31.0</v>
       </c>
       <c r="B393" t="str">
-        <f>lookup(C393,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C393,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>25</v>
       </c>
       <c r="C393" s="1" t="s">
@@ -11205,7 +11202,7 @@
         <v>31.0</v>
       </c>
       <c r="B394" t="str">
-        <f>lookup(C394,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C394,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>199</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -11226,7 +11223,7 @@
         <v>31.0</v>
       </c>
       <c r="B395" t="str">
-        <f>lookup(C395,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C395,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>212</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -11247,8 +11244,8 @@
         <v>32.0</v>
       </c>
       <c r="B396" t="str">
-        <f>lookup(C396,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C396,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>30</v>
@@ -11277,7 +11274,7 @@
         <v>32.0</v>
       </c>
       <c r="B397" t="str">
-        <f>lookup(C397,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C397,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>162</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -11298,8 +11295,8 @@
         <v>32.0</v>
       </c>
       <c r="B398" t="str">
-        <f>lookup(C398,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>231</v>
+        <f>lookup(C398,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>230</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>112</v>
@@ -11319,7 +11316,7 @@
         <v>32.0</v>
       </c>
       <c r="B399" t="str">
-        <f>lookup(C399,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C399,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>15</v>
       </c>
       <c r="C399" s="1" t="s">
@@ -11340,7 +11337,7 @@
         <v>32.0</v>
       </c>
       <c r="B400" t="str">
-        <f>lookup(C400,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C400,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -11361,7 +11358,7 @@
         <v>32.0</v>
       </c>
       <c r="B401" t="str">
-        <f>lookup(C401,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C401,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C401" s="1" t="s">
@@ -11382,7 +11379,7 @@
         <v>32.0</v>
       </c>
       <c r="B402" t="str">
-        <f>lookup(C402,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C402,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C402" s="1" t="s">
@@ -11403,7 +11400,7 @@
         <v>32.0</v>
       </c>
       <c r="B403" t="str">
-        <f>lookup(C403,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C403,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>43</v>
       </c>
       <c r="C403" s="3" t="s">
@@ -11424,7 +11421,7 @@
         <v>32.0</v>
       </c>
       <c r="B404" t="str">
-        <f>lookup(C404,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C404,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>212</v>
       </c>
       <c r="C404" s="1" t="s">
@@ -11445,8 +11442,8 @@
         <v>32.0</v>
       </c>
       <c r="B405" t="str">
-        <f>lookup(C405,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C405,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>16</v>
@@ -11466,8 +11463,8 @@
         <v>32.0</v>
       </c>
       <c r="B406" t="str">
-        <f>lookup(C406,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C406,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>72</v>
@@ -11487,8 +11484,8 @@
         <v>32.0</v>
       </c>
       <c r="B407" t="str">
-        <f>lookup(C407,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>232</v>
+        <f>lookup(C407,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>231</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>278</v>
@@ -11508,7 +11505,7 @@
         <v>32.0</v>
       </c>
       <c r="B408" t="str">
-        <f>lookup(C408,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C408,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C408" s="1" t="s">
@@ -11529,7 +11526,7 @@
         <v>32.0</v>
       </c>
       <c r="B409" t="str">
-        <f>lookup(C409,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C409,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C409" s="1" t="s">
@@ -11550,7 +11547,7 @@
         <v>32.0</v>
       </c>
       <c r="B410" t="str">
-        <f>lookup(C410,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C410,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>211</v>
       </c>
       <c r="C410" s="3" t="s">
@@ -11571,8 +11568,8 @@
         <v>33.0</v>
       </c>
       <c r="B411" t="str">
-        <f>lookup(C411,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C411,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>30</v>
@@ -11592,7 +11589,7 @@
         <v>33.0</v>
       </c>
       <c r="B412" t="str">
-        <f>lookup(C412,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C412,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C412" s="1" t="s">
@@ -11613,7 +11610,7 @@
         <v>33.0</v>
       </c>
       <c r="B413" t="str">
-        <f>lookup(C413,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C413,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>223</v>
       </c>
       <c r="C413" s="1" t="s">
@@ -11634,7 +11631,7 @@
         <v>33.0</v>
       </c>
       <c r="B414" t="str">
-        <f>lookup(C414,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C414,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>42</v>
       </c>
       <c r="C414" s="1" t="s">
@@ -11655,8 +11652,8 @@
         <v>33.0</v>
       </c>
       <c r="B415" t="str">
-        <f>lookup(C415,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>231</v>
+        <f>lookup(C415,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>230</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>112</v>
@@ -11676,7 +11673,7 @@
         <v>33.0</v>
       </c>
       <c r="B416" t="str">
-        <f>lookup(C416,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C416,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>41</v>
       </c>
       <c r="C416" s="1" t="s">
@@ -11697,7 +11694,7 @@
         <v>33.0</v>
       </c>
       <c r="B417" t="str">
-        <f>lookup(C417,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C417,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>36</v>
       </c>
       <c r="C417" s="12" t="s">
@@ -11718,7 +11715,7 @@
         <v>33.0</v>
       </c>
       <c r="B418" t="str">
-        <f>lookup(C418,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C418,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>218</v>
       </c>
       <c r="C418" s="1" t="s">
@@ -11739,7 +11736,7 @@
         <v>33.0</v>
       </c>
       <c r="B419" t="str">
-        <f>lookup(C419,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C419,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>204</v>
       </c>
       <c r="C419" s="1" t="s">
@@ -11760,7 +11757,7 @@
         <v>33.0</v>
       </c>
       <c r="B420" t="str">
-        <f>lookup(C420,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C420,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>70</v>
       </c>
       <c r="C420" s="1" t="s">
@@ -11781,7 +11778,7 @@
         <v>33.0</v>
       </c>
       <c r="B421" t="str">
-        <f>lookup(C421,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C421,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C421" s="1" t="s">
@@ -11802,7 +11799,7 @@
         <v>33.0</v>
       </c>
       <c r="B422" t="str">
-        <f>lookup(C422,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C422,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>167</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -11823,7 +11820,7 @@
         <v>33.0</v>
       </c>
       <c r="B423" t="str">
-        <f>lookup(C423,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C423,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>49</v>
       </c>
       <c r="C423" s="1" t="s">
@@ -11844,7 +11841,7 @@
         <v>33.0</v>
       </c>
       <c r="B424" t="str">
-        <f>lookup(C424,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C424,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C424" s="1" t="s">
@@ -11865,7 +11862,7 @@
         <v>33.0</v>
       </c>
       <c r="B425" t="str">
-        <f>lookup(C425,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C425,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>53</v>
       </c>
       <c r="C425" s="1" t="s">
@@ -11886,7 +11883,7 @@
         <v>33.0</v>
       </c>
       <c r="B426" t="str">
-        <f>lookup(C426,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C426,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>115</v>
       </c>
       <c r="C426" s="1" t="s">
@@ -11907,8 +11904,8 @@
         <v>33.0</v>
       </c>
       <c r="B427" t="str">
-        <f>lookup(C427,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C427,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>16</v>
@@ -11928,7 +11925,7 @@
         <v>33.0</v>
       </c>
       <c r="B428" t="str">
-        <f>lookup(C428,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C428,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C428" s="1" t="s">
@@ -11949,8 +11946,8 @@
         <v>33.0</v>
       </c>
       <c r="B429" t="str">
-        <f>lookup(C429,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>249</v>
+        <f>lookup(C429,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>248</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>128</v>
@@ -11970,7 +11967,7 @@
         <v>33.0</v>
       </c>
       <c r="B430" t="str">
-        <f>lookup(C430,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C430,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>197</v>
       </c>
       <c r="C430" s="1" t="s">
@@ -11991,7 +11988,7 @@
         <v>33.0</v>
       </c>
       <c r="B431" t="str">
-        <f>lookup(C431,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C431,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C431" s="1" t="s">
@@ -12012,7 +12009,7 @@
         <v>33.0</v>
       </c>
       <c r="B432" t="str">
-        <f>lookup(C432,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C432,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>188</v>
       </c>
       <c r="C432" s="1" t="s">
@@ -12033,7 +12030,7 @@
         <v>33.0</v>
       </c>
       <c r="B433" t="str">
-        <f>lookup(C433,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C433,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>91</v>
       </c>
       <c r="C433" s="1" t="s">
@@ -12054,7 +12051,7 @@
         <v>33.0</v>
       </c>
       <c r="B434" t="str">
-        <f>lookup(C434,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C434,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C434" s="1" t="s">
@@ -12075,7 +12072,7 @@
         <v>33.0</v>
       </c>
       <c r="B435" t="str">
-        <f>lookup(C435,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C435,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>7</v>
       </c>
       <c r="C435" s="1" t="s">
@@ -12096,7 +12093,7 @@
         <v>33.0</v>
       </c>
       <c r="B436" t="str">
-        <f>lookup(C436,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C436,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>46</v>
       </c>
       <c r="C436" s="1" t="s">
@@ -12117,7 +12114,7 @@
         <v>33.0</v>
       </c>
       <c r="B437" t="str">
-        <f>lookup(C437,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C437,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>14</v>
       </c>
       <c r="C437" s="12" t="s">
@@ -12138,7 +12135,7 @@
         <v>33.0</v>
       </c>
       <c r="B438" t="str">
-        <f>lookup(C438,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C438,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>61</v>
       </c>
       <c r="C438" s="1" t="s">
@@ -12159,8 +12156,8 @@
         <v>34.0</v>
       </c>
       <c r="B439" t="str">
-        <f>lookup(C439,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C439,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>30</v>
@@ -12180,7 +12177,7 @@
         <v>34.0</v>
       </c>
       <c r="B440" t="str">
-        <f>lookup(C440,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C440,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C440" s="1" t="s">
@@ -12201,7 +12198,7 @@
         <v>34.0</v>
       </c>
       <c r="B441" t="str">
-        <f>lookup(C441,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C441,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>163</v>
       </c>
       <c r="C441" s="3" t="s">
@@ -12222,7 +12219,7 @@
         <v>34.0</v>
       </c>
       <c r="B442" t="str">
-        <f>lookup(C442,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C442,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C442" s="1" t="s">
@@ -12243,7 +12240,7 @@
         <v>34.0</v>
       </c>
       <c r="B443" t="str">
-        <f>lookup(C443,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C443,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>200</v>
       </c>
       <c r="C443" s="1" t="s">
@@ -12264,7 +12261,7 @@
         <v>34.0</v>
       </c>
       <c r="B444" t="str">
-        <f>lookup(C444,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C444,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>175</v>
       </c>
       <c r="C444" s="3" t="s">
@@ -12285,7 +12282,7 @@
         <v>34.0</v>
       </c>
       <c r="B445" t="str">
-        <f>lookup(C445,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C445,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>16</v>
       </c>
       <c r="C445" s="1" t="s">
@@ -12306,7 +12303,7 @@
         <v>34.0</v>
       </c>
       <c r="B446" t="str">
-        <f>lookup(C446,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C446,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>182</v>
       </c>
       <c r="C446" s="1" t="s">
@@ -12327,7 +12324,7 @@
         <v>34.0</v>
       </c>
       <c r="B447" t="str">
-        <f>lookup(C447,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C447,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>20</v>
       </c>
       <c r="C447" s="1" t="s">
@@ -12348,7 +12345,7 @@
         <v>34.0</v>
       </c>
       <c r="B448" t="str">
-        <f>lookup(C448,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C448,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>211</v>
       </c>
       <c r="C448" s="1" t="s">
@@ -12369,7 +12366,7 @@
         <v>34.0</v>
       </c>
       <c r="B449" t="str">
-        <f>lookup(C449,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C449,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>223</v>
       </c>
       <c r="C449" s="1" t="s">
@@ -12390,7 +12387,7 @@
         <v>34.0</v>
       </c>
       <c r="B450" t="str">
-        <f>lookup(C450,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C450,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C450" s="1" t="s">
@@ -12411,7 +12408,7 @@
         <v>34.0</v>
       </c>
       <c r="B451" t="str">
-        <f>lookup(C451,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C451,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>161</v>
       </c>
       <c r="C451" s="3" t="s">
@@ -12432,7 +12429,7 @@
         <v>34.0</v>
       </c>
       <c r="B452" t="str">
-        <f>lookup(C452,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C452,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>102</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -12453,7 +12450,7 @@
         <v>34.0</v>
       </c>
       <c r="B453" t="str">
-        <f>lookup(C453,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C453,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>148</v>
       </c>
       <c r="C453" s="1" t="s">
@@ -12474,7 +12471,7 @@
         <v>34.0</v>
       </c>
       <c r="B454" t="str">
-        <f>lookup(C454,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C454,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>144</v>
       </c>
       <c r="C454" s="1" t="s">
@@ -12495,7 +12492,7 @@
         <v>34.0</v>
       </c>
       <c r="B455" t="str">
-        <f>lookup(C455,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C455,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>217</v>
       </c>
       <c r="C455" s="1" t="s">
@@ -12516,7 +12513,7 @@
         <v>34.0</v>
       </c>
       <c r="B456" t="str">
-        <f>lookup(C456,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C456,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>216</v>
       </c>
       <c r="C456" s="1" t="s">
@@ -12537,7 +12534,7 @@
         <v>34.0</v>
       </c>
       <c r="B457" t="str">
-        <f>lookup(C457,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C457,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>94</v>
       </c>
       <c r="C457" s="3" t="s">
@@ -12558,7 +12555,7 @@
         <v>34.0</v>
       </c>
       <c r="B458" t="str">
-        <f>lookup(C458,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C458,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>85</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -12579,7 +12576,7 @@
         <v>34.0</v>
       </c>
       <c r="B459" t="str">
-        <f>lookup(C459,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C459,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>29</v>
       </c>
       <c r="C459" s="1" t="s">
@@ -12600,7 +12597,7 @@
         <v>34.0</v>
       </c>
       <c r="B460" t="str">
-        <f>lookup(C460,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C460,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>7</v>
       </c>
       <c r="C460" s="1" t="s">
@@ -12621,8 +12618,8 @@
         <v>34.0</v>
       </c>
       <c r="B461" t="str">
-        <f>lookup(C461,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C461,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>16</v>
@@ -12642,7 +12639,7 @@
         <v>34.0</v>
       </c>
       <c r="B462" t="str">
-        <f>lookup(C462,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C462,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>150</v>
       </c>
       <c r="C462" s="1" t="s">
@@ -12663,8 +12660,8 @@
         <v>34.0</v>
       </c>
       <c r="B463" t="str">
-        <f>lookup(C463,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C463,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>72</v>
@@ -12684,8 +12681,8 @@
         <v>34.0</v>
       </c>
       <c r="B464" t="str">
-        <f>lookup(C464,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>258</v>
+        <f>lookup(C464,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>257</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>230</v>
@@ -12705,7 +12702,7 @@
         <v>34.0</v>
       </c>
       <c r="B465" t="str">
-        <f>lookup(C465,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C465,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>42</v>
       </c>
       <c r="C465" s="1" t="s">
@@ -12726,8 +12723,8 @@
         <v>34.0</v>
       </c>
       <c r="B466" t="str">
-        <f>lookup(C466,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>246</v>
+        <f>lookup(C466,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>245</v>
       </c>
       <c r="C466" s="1" t="s">
         <v>126</v>
@@ -12747,8 +12744,8 @@
         <v>34.0</v>
       </c>
       <c r="B467" t="str">
-        <f>lookup(C467,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>247</v>
+        <f>lookup(C467,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>246</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>170</v>
@@ -12768,8 +12765,8 @@
         <v>34.0</v>
       </c>
       <c r="B468" t="str">
-        <f>lookup(C468,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>249</v>
+        <f>lookup(C468,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>248</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>128</v>
@@ -12789,7 +12786,7 @@
         <v>34.0</v>
       </c>
       <c r="B469" t="str">
-        <f>lookup(C469,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C469,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -12810,7 +12807,7 @@
         <v>34.0</v>
       </c>
       <c r="B470" t="str">
-        <f>lookup(C470,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C470,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>43</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -12831,7 +12828,7 @@
         <v>34.0</v>
       </c>
       <c r="B471" t="str">
-        <f>lookup(C471,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C471,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C471" s="1" t="s">
@@ -12852,7 +12849,7 @@
         <v>34.0</v>
       </c>
       <c r="B472" t="str">
-        <f>lookup(C472,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C472,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>52</v>
       </c>
       <c r="C472" s="1" t="s">
@@ -12873,7 +12870,7 @@
         <v>34.0</v>
       </c>
       <c r="B473" t="str">
-        <f>lookup(C473,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C473,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C473" s="1" t="s">
@@ -12894,8 +12891,8 @@
         <v>35.0</v>
       </c>
       <c r="B474" t="str">
-        <f>lookup(C474,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C474,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>30</v>
@@ -12915,7 +12912,7 @@
         <v>35.0</v>
       </c>
       <c r="B475" t="str">
-        <f>lookup(C475,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C475,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C475" s="1" t="s">
@@ -12936,7 +12933,7 @@
         <v>35.0</v>
       </c>
       <c r="B476" t="str">
-        <f>lookup(C476,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C476,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C476" s="1" t="s">
@@ -12957,7 +12954,7 @@
         <v>35.0</v>
       </c>
       <c r="B477" t="str">
-        <f>lookup(C477,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C477,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>57</v>
       </c>
       <c r="C477" s="1" t="s">
@@ -12978,7 +12975,7 @@
         <v>35.0</v>
       </c>
       <c r="B478" t="str">
-        <f>lookup(C478,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C478,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>93</v>
       </c>
       <c r="C478" s="1" t="s">
@@ -12999,7 +12996,7 @@
         <v>35.0</v>
       </c>
       <c r="B479" t="str">
-        <f>lookup(C479,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C479,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C479" s="1" t="s">
@@ -13020,7 +13017,7 @@
         <v>35.0</v>
       </c>
       <c r="B480" t="str">
-        <f>lookup(C480,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C480,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>51</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -13041,7 +13038,7 @@
         <v>35.0</v>
       </c>
       <c r="B481" t="str">
-        <f>lookup(C481,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C481,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>164</v>
       </c>
       <c r="C481" s="1" t="s">
@@ -13062,8 +13059,8 @@
         <v>35.0</v>
       </c>
       <c r="B482" t="str">
-        <f>lookup(C482,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C482,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>16</v>
@@ -13083,8 +13080,8 @@
         <v>35.0</v>
       </c>
       <c r="B483" t="str">
-        <f>lookup(C483,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>249</v>
+        <f>lookup(C483,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>248</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>128</v>
@@ -13104,7 +13101,7 @@
         <v>35.0</v>
       </c>
       <c r="B484" t="str">
-        <f>lookup(C484,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C484,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>175</v>
       </c>
       <c r="C484" s="3" t="s">
@@ -13125,7 +13122,7 @@
         <v>35.0</v>
       </c>
       <c r="B485" t="str">
-        <f>lookup(C485,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C485,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>200</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -13146,8 +13143,8 @@
         <v>35.0</v>
       </c>
       <c r="B486" t="str">
-        <f>lookup(C486,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C486,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>72</v>
@@ -13167,7 +13164,7 @@
         <v>35.0</v>
       </c>
       <c r="B487" t="str">
-        <f>lookup(C487,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C487,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>223</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -13188,8 +13185,8 @@
         <v>35.0</v>
       </c>
       <c r="B488" t="str">
-        <f>lookup(C488,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>258</v>
+        <f>lookup(C488,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>257</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>230</v>
@@ -13209,7 +13206,7 @@
         <v>35.0</v>
       </c>
       <c r="B489" t="str">
-        <f>lookup(C489,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C489,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>91</v>
       </c>
       <c r="C489" s="1" t="s">
@@ -13230,7 +13227,7 @@
         <v>35.0</v>
       </c>
       <c r="B490" t="str">
-        <f>lookup(C490,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C490,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>188</v>
       </c>
       <c r="C490" s="1" t="s">
@@ -13251,7 +13248,7 @@
         <v>35.0</v>
       </c>
       <c r="B491" t="str">
-        <f>lookup(C491,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C491,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C491" s="1" t="s">
@@ -13272,7 +13269,7 @@
         <v>35.0</v>
       </c>
       <c r="B492" t="str">
-        <f>lookup(C492,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C492,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C492" s="1" t="s">
@@ -13293,7 +13290,7 @@
         <v>35.0</v>
       </c>
       <c r="B493" t="str">
-        <f>lookup(C493,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C493,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C493" s="1" t="s">
@@ -13314,7 +13311,7 @@
         <v>36.0</v>
       </c>
       <c r="B494" t="str">
-        <f>lookup(C494,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C494,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C494" s="1" t="s">
@@ -13335,7 +13332,7 @@
         <v>36.0</v>
       </c>
       <c r="B495" t="str">
-        <f>lookup(C495,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C495,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C495" s="1" t="s">
@@ -13356,8 +13353,8 @@
         <v>36.0</v>
       </c>
       <c r="B496" t="str">
-        <f>lookup(C496,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C496,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>16</v>
@@ -13377,7 +13374,7 @@
         <v>37.0</v>
       </c>
       <c r="B497" t="str">
-        <f>lookup(C497,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C497,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>74</v>
       </c>
       <c r="C497" s="3" t="s">
@@ -13398,7 +13395,7 @@
         <v>37.0</v>
       </c>
       <c r="B498" t="str">
-        <f>lookup(C498,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C498,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>82</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -13419,7 +13416,7 @@
         <v>37.0</v>
       </c>
       <c r="B499" t="str">
-        <f>lookup(C499,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C499,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C499" s="1" t="s">
@@ -13440,7 +13437,7 @@
         <v>37.0</v>
       </c>
       <c r="B500" t="str">
-        <f>lookup(C500,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C500,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>204</v>
       </c>
       <c r="C500" s="1" t="s">
@@ -13461,8 +13458,8 @@
         <v>37.0</v>
       </c>
       <c r="B501" t="str">
-        <f>lookup(C501,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C501,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>16</v>
@@ -13482,8 +13479,8 @@
         <v>37.0</v>
       </c>
       <c r="B502" t="str">
-        <f>lookup(C502,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>244</v>
+        <f>lookup(C502,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>243</v>
       </c>
       <c r="C502" s="1" t="s">
         <v>315</v>
@@ -13503,8 +13500,8 @@
         <v>38.0</v>
       </c>
       <c r="B503" t="str">
-        <f>lookup(C503,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C503,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>30</v>
@@ -13524,7 +13521,7 @@
         <v>38.0</v>
       </c>
       <c r="B504" t="str">
-        <f>lookup(C504,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C504,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>120</v>
       </c>
       <c r="C504" s="1" t="s">
@@ -13545,7 +13542,7 @@
         <v>38.0</v>
       </c>
       <c r="B505" t="str">
-        <f>lookup(C505,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C505,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>160</v>
       </c>
       <c r="C505" s="1" t="s">
@@ -13566,8 +13563,8 @@
         <v>38.0</v>
       </c>
       <c r="B506" t="str">
-        <f>lookup(C506,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>233</v>
+        <f>lookup(C506,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>232</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>198</v>
@@ -13587,7 +13584,7 @@
         <v>38.0</v>
       </c>
       <c r="B507" t="str">
-        <f>lookup(C507,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C507,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C507" s="1" t="s">
@@ -13608,7 +13605,7 @@
         <v>38.0</v>
       </c>
       <c r="B508" t="str">
-        <f>lookup(C508,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C508,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C508" s="1" t="s">
@@ -13629,7 +13626,7 @@
         <v>38.0</v>
       </c>
       <c r="B509" t="str">
-        <f>lookup(C509,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C509,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>193</v>
       </c>
       <c r="C509" s="1" t="s">
@@ -13650,7 +13647,7 @@
         <v>38.0</v>
       </c>
       <c r="B510" t="str">
-        <f>lookup(C510,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C510,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C510" s="1" t="s">
@@ -13671,7 +13668,7 @@
         <v>38.0</v>
       </c>
       <c r="B511" t="str">
-        <f>lookup(C511,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C511,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>215</v>
       </c>
       <c r="C511" s="1" t="s">
@@ -13692,7 +13689,7 @@
         <v>38.0</v>
       </c>
       <c r="B512" t="str">
-        <f>lookup(C512,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C512,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>185</v>
       </c>
       <c r="C512" s="1" t="s">
@@ -13713,7 +13710,7 @@
         <v>38.0</v>
       </c>
       <c r="B513" t="str">
-        <f>lookup(C513,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C513,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>74</v>
       </c>
       <c r="C513" s="1" t="s">
@@ -13734,7 +13731,7 @@
         <v>38.0</v>
       </c>
       <c r="B514" t="str">
-        <f>lookup(C514,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C514,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>153</v>
       </c>
       <c r="C514" s="1" t="s">
@@ -13755,8 +13752,8 @@
         <v>38.0</v>
       </c>
       <c r="B515" t="str">
-        <f>lookup(C515,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>247</v>
+        <f>lookup(C515,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>246</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>170</v>
@@ -13776,7 +13773,7 @@
         <v>38.0</v>
       </c>
       <c r="B516" t="str">
-        <f>lookup(C516,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C516,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>83</v>
       </c>
       <c r="C516" s="3" t="s">
@@ -13797,7 +13794,7 @@
         <v>38.0</v>
       </c>
       <c r="B517" t="str">
-        <f>lookup(C517,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C517,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>150</v>
       </c>
       <c r="C517" s="1" t="s">
@@ -13818,7 +13815,7 @@
         <v>38.0</v>
       </c>
       <c r="B518" t="str">
-        <f>lookup(C518,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C518,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>116</v>
       </c>
       <c r="C518" s="1" t="s">
@@ -13839,8 +13836,8 @@
         <v>38.0</v>
       </c>
       <c r="B519" t="str">
-        <f>lookup(C519,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C519,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>16</v>
@@ -13860,7 +13857,7 @@
         <v>38.0</v>
       </c>
       <c r="B520" t="str">
-        <f>lookup(C520,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C520,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>176</v>
       </c>
       <c r="C520" s="1" t="s">
@@ -13881,7 +13878,7 @@
         <v>38.0</v>
       </c>
       <c r="B521" t="str">
-        <f>lookup(C521,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C521,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>111</v>
       </c>
       <c r="C521" s="1" t="s">
@@ -13902,7 +13899,7 @@
         <v>38.0</v>
       </c>
       <c r="B522" t="str">
-        <f>lookup(C522,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C522,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>190</v>
       </c>
       <c r="C522" s="1" t="s">
@@ -13923,7 +13920,7 @@
         <v>38.0</v>
       </c>
       <c r="B523" t="str">
-        <f>lookup(C523,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C523,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>28</v>
       </c>
       <c r="C523" s="1" t="s">
@@ -13944,7 +13941,7 @@
         <v>38.0</v>
       </c>
       <c r="B524" t="str">
-        <f>lookup(C524,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C524,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>78</v>
       </c>
       <c r="C524" s="1" t="s">
@@ -13965,7 +13962,7 @@
         <v>38.0</v>
       </c>
       <c r="B525" t="str">
-        <f>lookup(C525,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C525,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>156</v>
       </c>
       <c r="C525" s="3" t="s">
@@ -13986,7 +13983,7 @@
         <v>38.0</v>
       </c>
       <c r="B526" t="str">
-        <f>lookup(C526,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C526,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>75</v>
       </c>
       <c r="C526" s="3" t="s">
@@ -14007,7 +14004,7 @@
         <v>38.0</v>
       </c>
       <c r="B527" t="str">
-        <f>lookup(C527,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C527,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>27</v>
       </c>
       <c r="C527" s="3" t="s">
@@ -14028,8 +14025,8 @@
         <v>38.0</v>
       </c>
       <c r="B528" t="str">
-        <f>lookup(C528,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C528,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>16</v>
@@ -14049,7 +14046,7 @@
         <v>38.0</v>
       </c>
       <c r="B529" t="str">
-        <f>lookup(C529,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C529,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>35</v>
       </c>
       <c r="C529" s="1" t="s">
@@ -14070,8 +14067,8 @@
         <v>39.0</v>
       </c>
       <c r="B530" t="str">
-        <f>lookup(C530,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C530,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>30</v>
@@ -14091,7 +14088,7 @@
         <v>39.0</v>
       </c>
       <c r="B531" t="str">
-        <f>lookup(C531,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C531,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>223</v>
       </c>
       <c r="C531" s="1" t="s">
@@ -14112,7 +14109,7 @@
         <v>39.0</v>
       </c>
       <c r="B532" t="str">
-        <f>lookup(C532,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C532,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>166</v>
       </c>
       <c r="C532" s="1" t="s">
@@ -14133,7 +14130,7 @@
         <v>39.0</v>
       </c>
       <c r="B533" t="str">
-        <f>lookup(C533,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C533,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>193</v>
       </c>
       <c r="C533" s="1" t="s">
@@ -14154,7 +14151,7 @@
         <v>39.0</v>
       </c>
       <c r="B534" t="str">
-        <f>lookup(C534,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C534,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>130</v>
       </c>
       <c r="C534" s="1" t="s">
@@ -14175,7 +14172,7 @@
         <v>39.0</v>
       </c>
       <c r="B535" t="str">
-        <f>lookup(C535,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C535,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C535" s="1" t="s">
@@ -14196,7 +14193,7 @@
         <v>39.0</v>
       </c>
       <c r="B536" t="str">
-        <f>lookup(C536,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C536,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>137</v>
       </c>
       <c r="C536" s="1" t="s">
@@ -14217,7 +14214,7 @@
         <v>39.0</v>
       </c>
       <c r="B537" t="str">
-        <f>lookup(C537,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C537,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C537" s="1" t="s">
@@ -14238,7 +14235,7 @@
         <v>39.0</v>
       </c>
       <c r="B538" t="str">
-        <f>lookup(C538,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C538,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C538" s="1" t="s">
@@ -14259,8 +14256,8 @@
         <v>39.0</v>
       </c>
       <c r="B539" t="str">
-        <f>lookup(C539,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>241</v>
+        <f>lookup(C539,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>240</v>
       </c>
       <c r="C539" s="1" t="s">
         <v>52</v>
@@ -14280,7 +14277,7 @@
         <v>39.0</v>
       </c>
       <c r="B540" t="str">
-        <f>lookup(C540,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C540,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>7</v>
       </c>
       <c r="C540" s="1" t="s">
@@ -14301,7 +14298,7 @@
         <v>39.0</v>
       </c>
       <c r="B541" t="str">
-        <f>lookup(C541,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C541,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>157</v>
       </c>
       <c r="C541" s="1" t="s">
@@ -14322,7 +14319,7 @@
         <v>39.0</v>
       </c>
       <c r="B542" t="str">
-        <f>lookup(C542,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C542,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>194</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -14343,7 +14340,7 @@
         <v>39.0</v>
       </c>
       <c r="B543" t="str">
-        <f>lookup(C543,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C543,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C543" s="1" t="s">
@@ -14364,7 +14361,7 @@
         <v>40.0</v>
       </c>
       <c r="B544" t="str">
-        <f>lookup(C544,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C544,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>184</v>
       </c>
       <c r="C544" s="1" t="s">
@@ -14385,7 +14382,7 @@
         <v>40.0</v>
       </c>
       <c r="B545" t="str">
-        <f>lookup(C545,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C545,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C545" s="1" t="s">
@@ -14406,7 +14403,7 @@
         <v>40.0</v>
       </c>
       <c r="B546" t="str">
-        <f>lookup(C546,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C546,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>208</v>
       </c>
       <c r="C546" s="1" t="s">
@@ -14427,7 +14424,7 @@
         <v>40.0</v>
       </c>
       <c r="B547" t="str">
-        <f>lookup(C547,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C547,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>209</v>
       </c>
       <c r="C547" s="1" t="s">
@@ -14448,7 +14445,7 @@
         <v>40.0</v>
       </c>
       <c r="B548" t="str">
-        <f>lookup(C548,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C548,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C548" s="1" t="s">
@@ -14469,7 +14466,7 @@
         <v>40.0</v>
       </c>
       <c r="B549" t="str">
-        <f>lookup(C549,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C549,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>130</v>
       </c>
       <c r="C549" s="1" t="s">
@@ -14490,7 +14487,7 @@
         <v>40.0</v>
       </c>
       <c r="B550" t="str">
-        <f>lookup(C550,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C550,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>193</v>
       </c>
       <c r="C550" s="1" t="s">
@@ -14511,7 +14508,7 @@
         <v>40.0</v>
       </c>
       <c r="B551" t="str">
-        <f>lookup(C551,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C551,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>157</v>
       </c>
       <c r="C551" s="1" t="s">
@@ -14532,7 +14529,7 @@
         <v>40.0</v>
       </c>
       <c r="B552" t="str">
-        <f>lookup(C552,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C552,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>194</v>
       </c>
       <c r="C552" s="1" t="s">
@@ -14553,7 +14550,7 @@
         <v>41.0</v>
       </c>
       <c r="B553" t="str">
-        <f>lookup(C553,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C553,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C553" s="1" t="s">
@@ -14574,7 +14571,7 @@
         <v>41.0</v>
       </c>
       <c r="B554" t="str">
-        <f>lookup(C554,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C554,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>135</v>
       </c>
       <c r="C554" s="1" t="s">
@@ -14595,7 +14592,7 @@
         <v>41.0</v>
       </c>
       <c r="B555" t="str">
-        <f>lookup(C555,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C555,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>1</v>
       </c>
       <c r="C555" s="1" t="s">
@@ -14616,7 +14613,7 @@
         <v>42.0</v>
       </c>
       <c r="B556" t="str">
-        <f>lookup(C556,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C556,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C556" s="1" t="s">
@@ -14637,7 +14634,7 @@
         <v>42.0</v>
       </c>
       <c r="B557" t="str">
-        <f>lookup(C557,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C557,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>66</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -14658,7 +14655,7 @@
         <v>42.0</v>
       </c>
       <c r="B558" t="str">
-        <f>lookup(C558,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C558,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>92</v>
       </c>
       <c r="C558" s="1" t="s">
@@ -14679,7 +14676,7 @@
         <v>42.0</v>
       </c>
       <c r="B559" t="str">
-        <f>lookup(C559,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C559,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>223</v>
       </c>
       <c r="C559" s="1" t="s">
@@ -14700,8 +14697,8 @@
         <v>42.0</v>
       </c>
       <c r="B560" t="str">
-        <f>lookup(C560,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>257</v>
+        <f>lookup(C560,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>256</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>342</v>
@@ -14721,7 +14718,7 @@
         <v>42.0</v>
       </c>
       <c r="B561" t="str">
-        <f>lookup(C561,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C561,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>53</v>
       </c>
       <c r="C561" s="1" t="s">
@@ -14742,7 +14739,7 @@
         <v>42.0</v>
       </c>
       <c r="B562" t="str">
-        <f>lookup(C562,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C562,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C562" s="1" t="s">
@@ -14763,8 +14760,8 @@
         <v>42.0</v>
       </c>
       <c r="B563" t="str">
-        <f>lookup(C563,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>258</v>
+        <f>lookup(C563,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>257</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>230</v>
@@ -14784,7 +14781,7 @@
         <v>42.0</v>
       </c>
       <c r="B564" t="str">
-        <f>lookup(C564,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C564,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>147</v>
       </c>
       <c r="C564" s="1" t="s">
@@ -14805,7 +14802,7 @@
         <v>42.0</v>
       </c>
       <c r="B565" t="str">
-        <f>lookup(C565,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C565,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>91</v>
       </c>
       <c r="C565" s="1" t="s">
@@ -14826,8 +14823,8 @@
         <v>42.0</v>
       </c>
       <c r="B566" t="str">
-        <f>lookup(C566,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C566,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>72</v>
@@ -14847,7 +14844,7 @@
         <v>42.0</v>
       </c>
       <c r="B567" t="str">
-        <f>lookup(C567,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C567,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>61</v>
       </c>
       <c r="C567" s="1" t="s">
@@ -14868,7 +14865,7 @@
         <v>43.0</v>
       </c>
       <c r="B568" t="str">
-        <f>lookup(C568,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C568,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>162</v>
       </c>
       <c r="C568" s="1" t="s">
@@ -14889,7 +14886,7 @@
         <v>43.0</v>
       </c>
       <c r="B569" t="str">
-        <f>lookup(C569,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C569,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C569" s="1" t="s">
@@ -14910,8 +14907,8 @@
         <v>43.0</v>
       </c>
       <c r="B570" t="str">
-        <f>lookup(C570,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C570,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>30</v>
@@ -14931,7 +14928,7 @@
         <v>43.0</v>
       </c>
       <c r="B571" t="str">
-        <f>lookup(C571,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C571,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>39</v>
       </c>
       <c r="C571" s="1" t="s">
@@ -14952,8 +14949,8 @@
         <v>43.0</v>
       </c>
       <c r="B572" t="str">
-        <f>lookup(C572,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>259</v>
+        <f>lookup(C572,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>258</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>347</v>
@@ -14973,7 +14970,7 @@
         <v>43.0</v>
       </c>
       <c r="B573" t="str">
-        <f>lookup(C573,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C573,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>29</v>
       </c>
       <c r="C573" s="1" t="s">
@@ -14994,7 +14991,7 @@
         <v>43.0</v>
       </c>
       <c r="B574" t="str">
-        <f>lookup(C574,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C574,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>68</v>
       </c>
       <c r="C574" s="1" t="s">
@@ -15015,7 +15012,7 @@
         <v>43.0</v>
       </c>
       <c r="B575" t="str">
-        <f>lookup(C575,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C575,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>223</v>
       </c>
       <c r="C575" s="1" t="s">
@@ -15036,7 +15033,7 @@
         <v>43.0</v>
       </c>
       <c r="B576" t="str">
-        <f>lookup(C576,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C576,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C576" s="1" t="s">
@@ -15057,8 +15054,8 @@
         <v>43.0</v>
       </c>
       <c r="B577" t="str">
-        <f>lookup(C577,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>261</v>
+        <f>lookup(C577,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>260</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>20</v>
@@ -15078,8 +15075,8 @@
         <v>43.0</v>
       </c>
       <c r="B578" t="str">
-        <f>lookup(C578,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C578,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>16</v>
@@ -15099,7 +15096,7 @@
         <v>43.0</v>
       </c>
       <c r="B579" t="str">
-        <f>lookup(C579,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C579,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>17</v>
       </c>
       <c r="C579" s="1" t="s">
@@ -15120,7 +15117,7 @@
         <v>43.0</v>
       </c>
       <c r="B580" t="str">
-        <f>lookup(C580,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C580,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>63</v>
       </c>
       <c r="C580" s="1" t="s">
@@ -15141,7 +15138,7 @@
         <v>43.0</v>
       </c>
       <c r="B581" t="str">
-        <f>lookup(C581,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C581,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>139</v>
       </c>
       <c r="C581" s="1" t="s">
@@ -15162,7 +15159,7 @@
         <v>43.0</v>
       </c>
       <c r="B582" t="str">
-        <f>lookup(C582,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C582,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>172</v>
       </c>
       <c r="C582" s="1" t="s">
@@ -15183,8 +15180,8 @@
         <v>43.0</v>
       </c>
       <c r="B583" t="str">
-        <f>lookup(C583,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C583,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>72</v>
@@ -15204,7 +15201,7 @@
         <v>44.0</v>
       </c>
       <c r="B584" t="str">
-        <f>lookup(C584,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C584,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C584" s="1" t="s">
@@ -15225,7 +15222,7 @@
         <v>44.0</v>
       </c>
       <c r="B585" t="str">
-        <f>lookup(C585,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C585,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C585" s="1" t="s">
@@ -15246,7 +15243,7 @@
         <v>44.0</v>
       </c>
       <c r="B586" t="str">
-        <f>lookup(C586,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C586,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>42</v>
       </c>
       <c r="C586" s="1" t="s">
@@ -15267,7 +15264,7 @@
         <v>44.0</v>
       </c>
       <c r="B587" t="str">
-        <f>lookup(C587,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C587,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>45</v>
       </c>
       <c r="C587" s="1" t="s">
@@ -15288,7 +15285,7 @@
         <v>44.0</v>
       </c>
       <c r="B588" t="str">
-        <f>lookup(C588,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C588,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>7</v>
       </c>
       <c r="C588" s="1" t="s">
@@ -15309,8 +15306,8 @@
         <v>44.0</v>
       </c>
       <c r="B589" t="str">
-        <f>lookup(C589,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C589,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>16</v>
@@ -15330,8 +15327,8 @@
         <v>44.0</v>
       </c>
       <c r="B590" t="str">
-        <f>lookup(C590,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>238</v>
+        <f>lookup(C590,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>237</v>
       </c>
       <c r="C590" s="3" t="s">
         <v>12</v>
@@ -15351,8 +15348,8 @@
         <v>45.0</v>
       </c>
       <c r="B591" t="str">
-        <f>lookup(C591,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C591,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>30</v>
@@ -15372,8 +15369,8 @@
         <v>45.0</v>
       </c>
       <c r="B592" t="str">
-        <f>lookup(C592,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>235</v>
+        <f>lookup(C592,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>234</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>225</v>
@@ -15393,7 +15390,7 @@
         <v>45.0</v>
       </c>
       <c r="B593" t="str">
-        <f>lookup(C593,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C593,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>192</v>
       </c>
       <c r="C593" s="1" t="s">
@@ -15414,7 +15411,7 @@
         <v>45.0</v>
       </c>
       <c r="B594" t="str">
-        <f>lookup(C594,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C594,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C594" s="1" t="s">
@@ -15435,7 +15432,7 @@
         <v>45.0</v>
       </c>
       <c r="B595" t="str">
-        <f>lookup(C595,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C595,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>44</v>
       </c>
       <c r="C595" s="1" t="s">
@@ -15456,7 +15453,7 @@
         <v>45.0</v>
       </c>
       <c r="B596" t="str">
-        <f>lookup(C596,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C596,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>98</v>
       </c>
       <c r="C596" s="1" t="s">
@@ -15477,7 +15474,7 @@
         <v>45.0</v>
       </c>
       <c r="B597" t="str">
-        <f>lookup(C597,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C597,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>12</v>
       </c>
       <c r="C597" s="1" t="s">
@@ -15498,7 +15495,7 @@
         <v>45.0</v>
       </c>
       <c r="B598" t="str">
-        <f>lookup(C598,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C598,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>185</v>
       </c>
       <c r="C598" s="1" t="s">
@@ -15519,8 +15516,8 @@
         <v>45.0</v>
       </c>
       <c r="B599" t="str">
-        <f>lookup(C599,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>258</v>
+        <f>lookup(C599,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>257</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>230</v>
@@ -15540,7 +15537,7 @@
         <v>45.0</v>
       </c>
       <c r="B600" t="str">
-        <f>lookup(C600,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C600,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C600" s="1" t="s">
@@ -15561,7 +15558,7 @@
         <v>45.0</v>
       </c>
       <c r="B601" t="str">
-        <f>lookup(C601,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C601,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C601" s="1" t="s">
@@ -15582,7 +15579,7 @@
         <v>45.0</v>
       </c>
       <c r="B602" t="str">
-        <f>lookup(C602,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C602,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>64</v>
       </c>
       <c r="C602" s="1" t="s">
@@ -15603,7 +15600,7 @@
         <v>45.0</v>
       </c>
       <c r="B603" t="str">
-        <f>lookup(C603,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C603,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>159</v>
       </c>
       <c r="C603" s="1" t="s">
@@ -15624,8 +15621,8 @@
         <v>46.0</v>
       </c>
       <c r="B604" t="str">
-        <f>lookup(C604,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C604,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>30</v>
@@ -15645,7 +15642,7 @@
         <v>46.0</v>
       </c>
       <c r="B605" t="str">
-        <f>lookup(C605,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C605,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C605" s="1" t="s">
@@ -15666,7 +15663,7 @@
         <v>46.0</v>
       </c>
       <c r="B606" t="str">
-        <f>lookup(C606,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C606,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>42</v>
       </c>
       <c r="C606" s="1" t="s">
@@ -15687,7 +15684,7 @@
         <v>46.0</v>
       </c>
       <c r="B607" t="str">
-        <f>lookup(C607,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C607,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>169</v>
       </c>
       <c r="C607" s="1" t="s">
@@ -15708,7 +15705,7 @@
         <v>46.0</v>
       </c>
       <c r="B608" t="str">
-        <f>lookup(C608,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C608,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C608" s="1" t="s">
@@ -15729,7 +15726,7 @@
         <v>46.0</v>
       </c>
       <c r="B609" t="str">
-        <f>lookup(C609,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C609,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>179</v>
       </c>
       <c r="C609" s="1" t="s">
@@ -15750,7 +15747,7 @@
         <v>46.0</v>
       </c>
       <c r="B610" t="str">
-        <f>lookup(C610,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C610,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>129</v>
       </c>
       <c r="C610" s="1" t="s">
@@ -15771,7 +15768,7 @@
         <v>46.0</v>
       </c>
       <c r="B611" t="str">
-        <f>lookup(C611,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C611,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C611" s="1" t="s">
@@ -15792,7 +15789,7 @@
         <v>46.0</v>
       </c>
       <c r="B612" t="str">
-        <f>lookup(C612,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C612,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>124</v>
       </c>
       <c r="C612" s="1" t="s">
@@ -15813,7 +15810,7 @@
         <v>46.0</v>
       </c>
       <c r="B613" t="str">
-        <f>lookup(C613,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C613,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>138</v>
       </c>
       <c r="C613" s="1" t="s">
@@ -15834,7 +15831,7 @@
         <v>46.0</v>
       </c>
       <c r="B614" t="str">
-        <f>lookup(C614,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C614,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C614" s="1" t="s">
@@ -15855,7 +15852,7 @@
         <v>46.0</v>
       </c>
       <c r="B615" t="str">
-        <f>lookup(C615,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C615,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>208</v>
       </c>
       <c r="C615" s="1" t="s">
@@ -15876,7 +15873,7 @@
         <v>46.0</v>
       </c>
       <c r="B616" t="str">
-        <f>lookup(C616,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C616,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>209</v>
       </c>
       <c r="C616" s="1" t="s">
@@ -15897,7 +15894,7 @@
         <v>46.0</v>
       </c>
       <c r="B617" t="str">
-        <f>lookup(C617,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C617,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>111</v>
       </c>
       <c r="C617" s="1" t="s">
@@ -15918,8 +15915,8 @@
         <v>46.0</v>
       </c>
       <c r="B618" t="str">
-        <f>lookup(C618,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C618,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>16</v>
@@ -15939,7 +15936,7 @@
         <v>46.0</v>
       </c>
       <c r="B619" t="str">
-        <f>lookup(C619,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C619,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>157</v>
       </c>
       <c r="C619" s="1" t="s">
@@ -15960,7 +15957,7 @@
         <v>46.0</v>
       </c>
       <c r="B620" t="str">
-        <f>lookup(C620,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C620,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>99</v>
       </c>
       <c r="C620" s="1" t="s">
@@ -15981,7 +15978,7 @@
         <v>46.0</v>
       </c>
       <c r="B621" t="str">
-        <f>lookup(C621,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C621,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>194</v>
       </c>
       <c r="C621" s="1" t="s">
@@ -16002,7 +15999,7 @@
         <v>46.0</v>
       </c>
       <c r="B622" t="str">
-        <f>lookup(C622,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C622,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>33</v>
       </c>
       <c r="C622" s="1" t="s">
@@ -16023,7 +16020,7 @@
         <v>46.0</v>
       </c>
       <c r="B623" t="str">
-        <f>lookup(C623,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C623,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>126</v>
       </c>
       <c r="C623" s="1" t="s">
@@ -16044,7 +16041,7 @@
         <v>46.0</v>
       </c>
       <c r="B624" t="str">
-        <f>lookup(C624,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C624,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>87</v>
       </c>
       <c r="C624" s="1" t="s">
@@ -16065,7 +16062,7 @@
         <v>46.0</v>
       </c>
       <c r="B625" t="str">
-        <f>lookup(C625,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C625,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>86</v>
       </c>
       <c r="C625" s="1" t="s">
@@ -16086,7 +16083,7 @@
         <v>46.0</v>
       </c>
       <c r="B626" t="str">
-        <f>lookup(C626,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C626,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>142</v>
       </c>
       <c r="C626" s="1" t="s">
@@ -16107,7 +16104,7 @@
         <v>46.0</v>
       </c>
       <c r="B627" t="str">
-        <f>lookup(C627,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C627,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>26</v>
       </c>
       <c r="C627" s="1" t="s">
@@ -16128,7 +16125,7 @@
         <v>46.0</v>
       </c>
       <c r="B628" t="str">
-        <f>lookup(C628,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C628,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>143</v>
       </c>
       <c r="C628" s="1" t="s">
@@ -16149,7 +16146,7 @@
         <v>46.0</v>
       </c>
       <c r="B629" t="str">
-        <f>lookup(C629,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C629,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>34</v>
       </c>
       <c r="C629" s="1" t="s">
@@ -16170,7 +16167,7 @@
         <v>46.0</v>
       </c>
       <c r="B630" t="str">
-        <f>lookup(C630,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C630,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>60</v>
       </c>
       <c r="C630" s="1" t="s">
@@ -16191,7 +16188,7 @@
         <v>46.0</v>
       </c>
       <c r="B631" t="str">
-        <f>lookup(C631,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C631,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>71</v>
       </c>
       <c r="C631" s="1" t="s">
@@ -16212,7 +16209,7 @@
         <v>46.0</v>
       </c>
       <c r="B632" t="str">
-        <f>lookup(C632,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C632,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>104</v>
       </c>
       <c r="C632" s="1" t="s">
@@ -16233,7 +16230,7 @@
         <v>46.0</v>
       </c>
       <c r="B633" t="str">
-        <f>lookup(C633,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C633,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>62</v>
       </c>
       <c r="C633" s="1" t="s">
@@ -16254,7 +16251,7 @@
         <v>47.0</v>
       </c>
       <c r="B634" t="str">
-        <f>lookup(C634,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C634,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>59</v>
       </c>
       <c r="C634" s="1" t="s">
@@ -16275,8 +16272,8 @@
         <v>47.0</v>
       </c>
       <c r="B635" t="str">
-        <f>lookup(C635,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>228</v>
+        <f>lookup(C635,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>227</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>386</v>
@@ -16296,8 +16293,8 @@
         <v>47.0</v>
       </c>
       <c r="B636" t="str">
-        <f>lookup(C636,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C636,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>16</v>
@@ -16317,7 +16314,7 @@
         <v>47.0</v>
       </c>
       <c r="B637" t="str">
-        <f>lookup(C637,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C637,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>203</v>
       </c>
       <c r="C637" s="1" t="s">
@@ -16338,7 +16335,7 @@
         <v>48.0</v>
       </c>
       <c r="B638" t="str">
-        <f>lookup(C638,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C638,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C638" s="1" t="s">
@@ -16359,7 +16356,7 @@
         <v>48.0</v>
       </c>
       <c r="B639" t="str">
-        <f>lookup(C639,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C639,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>219</v>
       </c>
       <c r="C639" s="1" t="s">
@@ -16380,7 +16377,7 @@
         <v>48.0</v>
       </c>
       <c r="B640" t="str">
-        <f>lookup(C640,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C640,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>221</v>
       </c>
       <c r="C640" s="1" t="s">
@@ -16401,7 +16398,7 @@
         <v>48.0</v>
       </c>
       <c r="B641" t="str">
-        <f>lookup(C641,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C641,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>186</v>
       </c>
       <c r="C641" s="1" t="s">
@@ -16422,7 +16419,7 @@
         <v>48.0</v>
       </c>
       <c r="B642" t="str">
-        <f>lookup(C642,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C642,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>165</v>
       </c>
       <c r="C642" s="1" t="s">
@@ -16443,7 +16440,7 @@
         <v>48.0</v>
       </c>
       <c r="B643" t="str">
-        <f>lookup(C643,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C643,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>8</v>
       </c>
       <c r="C643" s="1" t="s">
@@ -16464,7 +16461,7 @@
         <v>48.0</v>
       </c>
       <c r="B644" t="str">
-        <f>lookup(C644,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C644,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>194</v>
       </c>
       <c r="C644" s="1" t="s">
@@ -16485,7 +16482,7 @@
         <v>49.0</v>
       </c>
       <c r="B645" t="str">
-        <f>lookup(C645,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C645,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C645" s="9" t="s">
@@ -16506,7 +16503,7 @@
         <v>49.0</v>
       </c>
       <c r="B646" t="str">
-        <f>lookup(C646,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C646,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>84</v>
       </c>
       <c r="C646" s="9" t="s">
@@ -16527,7 +16524,7 @@
         <v>49.0</v>
       </c>
       <c r="B647" t="str">
-        <f>lookup(C647,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C647,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>73</v>
       </c>
       <c r="C647" s="9" t="s">
@@ -16548,8 +16545,8 @@
         <v>49.0</v>
       </c>
       <c r="B648" t="str">
-        <f>lookup(C648,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C648,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>16</v>
@@ -16569,7 +16566,7 @@
         <v>50.0</v>
       </c>
       <c r="B649" t="str">
-        <f>lookup(C649,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C649,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C649" s="1" t="s">
@@ -16590,7 +16587,7 @@
         <v>50.0</v>
       </c>
       <c r="B650" t="str">
-        <f>lookup(C650,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C650,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>73</v>
       </c>
       <c r="C650" s="1" t="s">
@@ -16611,7 +16608,7 @@
         <v>50.0</v>
       </c>
       <c r="B651" t="str">
-        <f>lookup(C651,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C651,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C651" s="1" t="s">
@@ -16632,8 +16629,8 @@
         <v>50.0</v>
       </c>
       <c r="B652" t="str">
-        <f>lookup(C652,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>236</v>
+        <f>lookup(C652,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>235</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>72</v>
@@ -16653,8 +16650,8 @@
         <v>51.0</v>
       </c>
       <c r="B653" t="str">
-        <f>lookup(C653,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>261</v>
+        <f>lookup(C653,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>260</v>
       </c>
       <c r="C653" s="19" t="s">
         <v>20</v>
@@ -16674,7 +16671,7 @@
         <v>51.0</v>
       </c>
       <c r="B654" t="str">
-        <f>lookup(C654,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C654,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>28</v>
       </c>
       <c r="C654" s="20" t="s">
@@ -16695,7 +16692,7 @@
         <v>51.0</v>
       </c>
       <c r="B655" t="str">
-        <f>lookup(C655,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C655,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>67</v>
       </c>
       <c r="C655" s="1" t="s">
@@ -16716,7 +16713,7 @@
         <v>51.0</v>
       </c>
       <c r="B656" t="str">
-        <f>lookup(C656,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C656,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C656" s="20" t="s">
@@ -16737,7 +16734,7 @@
         <v>51.0</v>
       </c>
       <c r="B657" t="str">
-        <f>lookup(C657,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C657,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>135</v>
       </c>
       <c r="C657" s="1" t="s">
@@ -16758,7 +16755,7 @@
         <v>51.0</v>
       </c>
       <c r="B658" t="str">
-        <f>lookup(C658,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C658,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>157</v>
       </c>
       <c r="C658" s="20" t="s">
@@ -16779,7 +16776,7 @@
         <v>51.0</v>
       </c>
       <c r="B659" t="str">
-        <f>lookup(C659,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C659,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C659" s="20" t="s">
@@ -16800,8 +16797,8 @@
         <v>51.0</v>
       </c>
       <c r="B660" t="str">
-        <f>lookup(C660,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>234</v>
+        <f>lookup(C660,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>233</v>
       </c>
       <c r="C660" s="20" t="s">
         <v>224</v>
@@ -16821,8 +16818,8 @@
         <v>51.0</v>
       </c>
       <c r="B661" t="str">
-        <f>lookup(C661,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C661,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C661" s="20" t="s">
         <v>30</v>
@@ -16842,7 +16839,7 @@
         <v>52.0</v>
       </c>
       <c r="B662" t="str">
-        <f>lookup(C662,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C662,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>135</v>
       </c>
       <c r="C662" s="1" t="s">
@@ -16863,8 +16860,8 @@
         <v>52.0</v>
       </c>
       <c r="B663" t="str">
-        <f>lookup(C663,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>261</v>
+        <f>lookup(C663,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>260</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>20</v>
@@ -16884,7 +16881,7 @@
         <v>52.0</v>
       </c>
       <c r="B664" t="str">
-        <f>lookup(C664,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C664,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>22</v>
       </c>
       <c r="C664" s="1" t="s">
@@ -16905,7 +16902,7 @@
         <v>52.0</v>
       </c>
       <c r="B665" t="str">
-        <f>lookup(C665,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C665,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>67</v>
       </c>
       <c r="C665" s="1" t="s">
@@ -16926,7 +16923,7 @@
         <v>52.0</v>
       </c>
       <c r="B666" t="str">
-        <f>lookup(C666,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C666,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>139</v>
       </c>
       <c r="C666" s="1" t="s">
@@ -16947,7 +16944,7 @@
         <v>52.0</v>
       </c>
       <c r="B667" t="str">
-        <f>lookup(C667,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C667,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C667" s="1" t="s">
@@ -16968,7 +16965,7 @@
         <v>52.0</v>
       </c>
       <c r="B668" t="str">
-        <f>lookup(C668,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C668,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C668" s="1" t="s">
@@ -16989,8 +16986,8 @@
         <v>52.0</v>
       </c>
       <c r="B669" t="str">
-        <f>lookup(C669,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>234</v>
+        <f>lookup(C669,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>233</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>224</v>
@@ -17010,8 +17007,8 @@
         <v>52.0</v>
       </c>
       <c r="B670" t="str">
-        <f>lookup(C670,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>245</v>
+        <f>lookup(C670,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>244</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>402</v>
@@ -17031,7 +17028,7 @@
         <v>52.0</v>
       </c>
       <c r="B671" t="str">
-        <f>lookup(C671,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C671,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>213</v>
       </c>
       <c r="C671" s="1" t="s">
@@ -17052,7 +17049,7 @@
         <v>52.0</v>
       </c>
       <c r="B672" t="str">
-        <f>lookup(C672,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C672,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>6</v>
       </c>
       <c r="C672" s="1" t="s">
@@ -17073,8 +17070,8 @@
         <v>52.0</v>
       </c>
       <c r="B673" t="str">
-        <f>lookup(C673,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C673,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>30</v>
@@ -17094,7 +17091,7 @@
         <v>53.0</v>
       </c>
       <c r="B674" t="str">
-        <f>lookup(C674,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C674,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C674" s="1" t="s">
@@ -17115,8 +17112,8 @@
         <v>53.0</v>
       </c>
       <c r="B675" t="str">
-        <f>lookup(C675,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>262</v>
+        <f>lookup(C675,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>261</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>406</v>
@@ -17136,7 +17133,7 @@
         <v>53.0</v>
       </c>
       <c r="B676" t="str">
-        <f>lookup(C676,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C676,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>205</v>
       </c>
       <c r="C676" s="1" t="s">
@@ -17157,7 +17154,7 @@
         <v>53.0</v>
       </c>
       <c r="B677" t="str">
-        <f>lookup(C677,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C677,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>193</v>
       </c>
       <c r="C677" s="1" t="s">
@@ -17178,7 +17175,7 @@
         <v>53.0</v>
       </c>
       <c r="B678" t="str">
-        <f>lookup(C678,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C678,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>79</v>
       </c>
       <c r="C678" s="7" t="s">
@@ -17199,7 +17196,7 @@
         <v>53.0</v>
       </c>
       <c r="B679" t="str">
-        <f>lookup(C679,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C679,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>157</v>
       </c>
       <c r="C679" s="1" t="s">
@@ -17220,7 +17217,7 @@
         <v>53.0</v>
       </c>
       <c r="B680" t="str">
-        <f>lookup(C680,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C680,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>194</v>
       </c>
       <c r="C680" s="1" t="s">
@@ -17241,7 +17238,7 @@
         <v>54.0</v>
       </c>
       <c r="B681" t="str">
-        <f>lookup(C681,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C681,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>218</v>
       </c>
       <c r="C681" s="1" t="s">
@@ -17262,7 +17259,7 @@
         <v>54.0</v>
       </c>
       <c r="B682" t="str">
-        <f>lookup(C682,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C682,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>18</v>
       </c>
       <c r="C682" s="1" t="s">
@@ -17283,8 +17280,8 @@
         <v>54.0</v>
       </c>
       <c r="B683" t="str">
-        <f>lookup(C683,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>251</v>
+        <f>lookup(C683,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>250</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>16</v>
@@ -17304,7 +17301,7 @@
         <v>54.0</v>
       </c>
       <c r="B684" t="str">
-        <f>lookup(C684,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C684,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>197</v>
       </c>
       <c r="C684" s="1" t="s">
@@ -17325,7 +17322,7 @@
         <v>55.0</v>
       </c>
       <c r="B685" t="str">
-        <f>lookup(C685,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C685,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>122</v>
       </c>
       <c r="C685" s="1" t="s">
@@ -17346,7 +17343,7 @@
         <v>55.0</v>
       </c>
       <c r="B686" t="str">
-        <f>lookup(C686,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C686,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>53</v>
       </c>
       <c r="C686" s="1" t="s">
@@ -17367,7 +17364,7 @@
         <v>55.0</v>
       </c>
       <c r="B687" t="str">
-        <f>lookup(C687,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C687,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>103</v>
       </c>
       <c r="C687" s="1" t="s">
@@ -17388,8 +17385,8 @@
         <v>56.0</v>
       </c>
       <c r="B688" t="str">
-        <f>lookup(C688,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C688,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>30</v>
@@ -17409,7 +17406,7 @@
         <v>56.0</v>
       </c>
       <c r="B689" t="str">
-        <f>lookup(C689,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C689,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>220</v>
       </c>
       <c r="C689" s="3" t="s">
@@ -17430,7 +17427,7 @@
         <v>56.0</v>
       </c>
       <c r="B690" t="str">
-        <f>lookup(C690,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C690,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>224</v>
       </c>
       <c r="C690" s="3" t="s">
@@ -17451,7 +17448,7 @@
         <v>56.0</v>
       </c>
       <c r="B691" t="str">
-        <f>lookup(C691,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C691,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>88</v>
       </c>
       <c r="C691" s="3" t="s">
@@ -17472,7 +17469,7 @@
         <v>56.0</v>
       </c>
       <c r="B692" t="str">
-        <f>lookup(C692,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C692,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>96</v>
       </c>
       <c r="C692" s="3" t="s">
@@ -17493,7 +17490,7 @@
         <v>56.0</v>
       </c>
       <c r="B693" t="str">
-        <f>lookup(C693,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C693,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>222</v>
       </c>
       <c r="C693" s="3" t="s">
@@ -17514,7 +17511,7 @@
         <v>56.0</v>
       </c>
       <c r="B694" t="str">
-        <f>lookup(C694,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C694,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>4</v>
       </c>
       <c r="C694" s="3" t="s">
@@ -17535,8 +17532,8 @@
         <v>57.0</v>
       </c>
       <c r="B695" t="str">
-        <f>lookup(C695,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C695,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C695" s="1" t="s">
         <v>30</v>
@@ -17556,7 +17553,7 @@
         <v>57.0</v>
       </c>
       <c r="B696" t="str">
-        <f>lookup(C696,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C696,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>10</v>
       </c>
       <c r="C696" s="23" t="s">
@@ -17577,7 +17574,7 @@
         <v>57.0</v>
       </c>
       <c r="B697" t="str">
-        <f>lookup(C697,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C697,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C697" s="1" t="s">
@@ -17598,7 +17595,7 @@
         <v>57.0</v>
       </c>
       <c r="B698" t="str">
-        <f>lookup(C698,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C698,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>193</v>
       </c>
       <c r="C698" s="1" t="s">
@@ -17619,7 +17616,7 @@
         <v>57.0</v>
       </c>
       <c r="B699" t="str">
-        <f>lookup(C699,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C699,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C699" s="1" t="s">
@@ -17640,7 +17637,7 @@
         <v>57.0</v>
       </c>
       <c r="B700" t="str">
-        <f>lookup(C700,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C700,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>167</v>
       </c>
       <c r="C700" s="1" t="s">
@@ -17661,7 +17658,7 @@
         <v>57.0</v>
       </c>
       <c r="B701" t="str">
-        <f>lookup(C701,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C701,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C701" s="1" t="s">
@@ -17682,7 +17679,7 @@
         <v>57.0</v>
       </c>
       <c r="B702" t="str">
-        <f>lookup(C702,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C702,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C702" s="1" t="s">
@@ -17703,7 +17700,7 @@
         <v>57.0</v>
       </c>
       <c r="B703" t="str">
-        <f>lookup(C703,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C703,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>53</v>
       </c>
       <c r="C703" s="1" t="s">
@@ -17724,7 +17721,7 @@
         <v>57.0</v>
       </c>
       <c r="B704" t="str">
-        <f>lookup(C704,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C704,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>170</v>
       </c>
       <c r="C704" s="1" t="s">
@@ -17745,7 +17742,7 @@
         <v>57.0</v>
       </c>
       <c r="B705" t="str">
-        <f>lookup(C705,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C705,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>135</v>
       </c>
       <c r="C705" s="1" t="s">
@@ -17766,7 +17763,7 @@
         <v>57.0</v>
       </c>
       <c r="B706" t="str">
-        <f>lookup(C706,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C706,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>215</v>
       </c>
       <c r="C706" s="1" t="s">
@@ -17787,7 +17784,7 @@
         <v>57.0</v>
       </c>
       <c r="B707" t="str">
-        <f>lookup(C707,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C707,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>79</v>
       </c>
       <c r="C707" s="7" t="s">
@@ -17808,8 +17805,8 @@
         <v>57.0</v>
       </c>
       <c r="B708" t="str">
-        <f>lookup(C708,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>260</v>
+        <f>lookup(C708,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>259</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>423</v>
@@ -17829,7 +17826,7 @@
         <v>57.0</v>
       </c>
       <c r="B709" t="str">
-        <f>lookup(C709,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C709,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>157</v>
       </c>
       <c r="C709" s="1" t="s">
@@ -17850,8 +17847,8 @@
         <v>58.0</v>
       </c>
       <c r="B710" t="str">
-        <f>lookup(C710,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C710,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C710" s="7" t="s">
         <v>30</v>
@@ -17871,7 +17868,7 @@
         <v>58.0</v>
       </c>
       <c r="B711" t="str">
-        <f>lookup(C711,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C711,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>10</v>
       </c>
       <c r="C711" s="23" t="s">
@@ -17892,7 +17889,7 @@
         <v>58.0</v>
       </c>
       <c r="B712" t="str">
-        <f>lookup(C712,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C712,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C712" s="7" t="s">
@@ -17913,7 +17910,7 @@
         <v>58.0</v>
       </c>
       <c r="B713" t="str">
-        <f>lookup(C713,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C713,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C713" s="7" t="s">
@@ -17934,7 +17931,7 @@
         <v>58.0</v>
       </c>
       <c r="B714" t="str">
-        <f>lookup(C714,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C714,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>167</v>
       </c>
       <c r="C714" s="7" t="s">
@@ -17955,7 +17952,7 @@
         <v>58.0</v>
       </c>
       <c r="B715" t="str">
-        <f>lookup(C715,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C715,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>193</v>
       </c>
       <c r="C715" s="7" t="s">
@@ -17976,7 +17973,7 @@
         <v>58.0</v>
       </c>
       <c r="B716" t="str">
-        <f>lookup(C716,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C716,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>174</v>
       </c>
       <c r="C716" s="7" t="s">
@@ -17997,7 +17994,7 @@
         <v>58.0</v>
       </c>
       <c r="B717" t="str">
-        <f>lookup(C717,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C717,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>50</v>
       </c>
       <c r="C717" s="7" t="s">
@@ -18018,7 +18015,7 @@
         <v>58.0</v>
       </c>
       <c r="B718" t="str">
-        <f>lookup(C718,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C718,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>53</v>
       </c>
       <c r="C718" s="7" t="s">
@@ -18039,7 +18036,7 @@
         <v>58.0</v>
       </c>
       <c r="B719" t="str">
-        <f>lookup(C719,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C719,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>170</v>
       </c>
       <c r="C719" s="7" t="s">
@@ -18060,7 +18057,7 @@
         <v>58.0</v>
       </c>
       <c r="B720" t="str">
-        <f>lookup(C720,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C720,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>135</v>
       </c>
       <c r="C720" s="1" t="s">
@@ -18081,7 +18078,7 @@
         <v>58.0</v>
       </c>
       <c r="B721" t="str">
-        <f>lookup(C721,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C721,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>215</v>
       </c>
       <c r="C721" s="7" t="s">
@@ -18102,7 +18099,7 @@
         <v>58.0</v>
       </c>
       <c r="B722" t="str">
-        <f>lookup(C722,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C722,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>79</v>
       </c>
       <c r="C722" s="7" t="s">
@@ -18123,7 +18120,7 @@
         <v>58.0</v>
       </c>
       <c r="B723" t="str">
-        <f>lookup(C723,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C723,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>157</v>
       </c>
       <c r="C723" s="1" t="s">
@@ -18144,7 +18141,7 @@
         <v>58.0</v>
       </c>
       <c r="B724" t="str">
-        <f>lookup(C724,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C724,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>194</v>
       </c>
       <c r="C724" s="1" t="s">
@@ -18165,8 +18162,8 @@
         <v>59.0</v>
       </c>
       <c r="B725" t="str">
-        <f>lookup(C725,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C725,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>30</v>
@@ -18186,7 +18183,7 @@
         <v>59.0</v>
       </c>
       <c r="B726" t="str">
-        <f>lookup(C726,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C726,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>80</v>
       </c>
       <c r="C726" s="1" t="s">
@@ -18207,7 +18204,7 @@
         <v>59.0</v>
       </c>
       <c r="B727" t="str">
-        <f>lookup(C727,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C727,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>5</v>
       </c>
       <c r="C727" s="1" t="s">
@@ -18228,7 +18225,7 @@
         <v>59.0</v>
       </c>
       <c r="B728" t="str">
-        <f>lookup(C728,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C728,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>66</v>
       </c>
       <c r="C728" s="1" t="s">
@@ -18249,7 +18246,7 @@
         <v>59.0</v>
       </c>
       <c r="B729" t="str">
-        <f>lookup(C729,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C729,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>189</v>
       </c>
       <c r="C729" s="1" t="s">
@@ -18270,7 +18267,7 @@
         <v>59.0</v>
       </c>
       <c r="B730" t="str">
-        <f>lookup(C730,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C730,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>107</v>
       </c>
       <c r="C730" s="1" t="s">
@@ -18291,7 +18288,7 @@
         <v>59.0</v>
       </c>
       <c r="B731" t="str">
-        <f>lookup(C731,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C731,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>131</v>
       </c>
       <c r="C731" s="1" t="s">
@@ -18312,7 +18309,7 @@
         <v>59.0</v>
       </c>
       <c r="B732" t="str">
-        <f>lookup(C732,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C732,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C732" s="1" t="s">
@@ -18333,8 +18330,8 @@
         <v>59.0</v>
       </c>
       <c r="B733" t="str">
-        <f>lookup(C733,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>243</v>
+        <f>lookup(C733,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>242</v>
       </c>
       <c r="C733" s="24" t="s">
         <v>432</v>
@@ -18354,7 +18351,7 @@
         <v>59.0</v>
       </c>
       <c r="B734" t="str">
-        <f>lookup(C734,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C734,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>165</v>
       </c>
       <c r="C734" s="1" t="s">
@@ -18375,7 +18372,7 @@
         <v>59.0</v>
       </c>
       <c r="B735" t="str">
-        <f>lookup(C735,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C735,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C735" s="1" t="s">
@@ -18396,7 +18393,7 @@
         <v>59.0</v>
       </c>
       <c r="B736" t="str">
-        <f>lookup(C736,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C736,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>177</v>
       </c>
       <c r="C736" s="1" t="s">
@@ -18417,7 +18414,7 @@
         <v>59.0</v>
       </c>
       <c r="B737" t="str">
-        <f>lookup(C737,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C737,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>23</v>
       </c>
       <c r="C737" s="1" t="s">
@@ -18438,7 +18435,7 @@
         <v>59.0</v>
       </c>
       <c r="B738" t="str">
-        <f>lookup(C738,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C738,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>77</v>
       </c>
       <c r="C738" s="1" t="s">
@@ -18459,7 +18456,7 @@
         <v>59.0</v>
       </c>
       <c r="B739" t="str">
-        <f>lookup(C739,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C739,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>146</v>
       </c>
       <c r="C739" s="1" t="s">
@@ -18480,8 +18477,8 @@
         <v>60.0</v>
       </c>
       <c r="B740" t="str">
-        <f>lookup(C740,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
-        <v>253</v>
+        <f>lookup(C740,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
+        <v>252</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>30</v>
@@ -18501,7 +18498,7 @@
         <v>60.0</v>
       </c>
       <c r="B741" t="str">
-        <f>lookup(C741,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C741,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>110</v>
       </c>
       <c r="C741" s="1" t="s">
@@ -18522,7 +18519,7 @@
         <v>60.0</v>
       </c>
       <c r="B742" t="str">
-        <f>lookup(C742,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C742,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>81</v>
       </c>
       <c r="C742" s="1" t="s">
@@ -18543,7 +18540,7 @@
         <v>60.0</v>
       </c>
       <c r="B743" t="str">
-        <f>lookup(C743,Ingredient_Defs!$B$2:$B$263,Ingredient_Defs!$A$2:$A$263)</f>
+        <f>lookup(C743,Ingredient_Defs!$B$2:$B$262,Ingredient_Defs!$A$2:$A$262)</f>
         <v>158</v>
       </c>
       <c r="C743" s="1" t="s">
@@ -36491,7 +36488,7 @@
         <v>227.0</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>768</v>
+        <v>386</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>8</v>
@@ -36514,10 +36511,10 @@
         <v>228.0</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>386</v>
+        <v>143</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>8</v>
@@ -36537,10 +36534,10 @@
         <v>229.0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>8</v>
@@ -36560,7 +36557,7 @@
         <v>230.0</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>8</v>
@@ -36583,7 +36580,7 @@
         <v>231.0</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>112</v>
+        <v>278</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>8</v>
@@ -36606,7 +36603,7 @@
         <v>232.0</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>8</v>
@@ -36629,7 +36626,7 @@
         <v>233.0</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>8</v>
@@ -36652,7 +36649,7 @@
         <v>234.0</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>8</v>
@@ -36675,19 +36672,19 @@
         <v>235.0</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>8</v>
+        <v>768</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>8</v>
+        <v>769</v>
+      </c>
+      <c r="E236" s="29" t="s">
+        <v>770</v>
+      </c>
+      <c r="F236" s="28">
+        <v>42435.0</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>8</v>
@@ -36697,20 +36694,20 @@
       <c r="A237" s="1">
         <v>236.0</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>72</v>
+      <c r="B237" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>769</v>
+        <v>8</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E237" s="29" t="s">
-        <v>771</v>
-      </c>
-      <c r="F237" s="28">
-        <v>42435.0</v>
+        <v>8</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>8</v>
@@ -36720,8 +36717,8 @@
       <c r="A238" s="1">
         <v>237.0</v>
       </c>
-      <c r="B238" s="13" t="s">
-        <v>218</v>
+      <c r="B238" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>8</v>
@@ -36743,8 +36740,8 @@
       <c r="A239" s="1">
         <v>238.0</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>12</v>
+      <c r="B239" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>8</v>
@@ -36766,8 +36763,8 @@
       <c r="A240" s="1">
         <v>239.0</v>
       </c>
-      <c r="B240" s="13" t="s">
-        <v>220</v>
+      <c r="B240" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>8</v>
@@ -36790,19 +36787,19 @@
         <v>240.0</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="D241" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="E241" s="29" t="s">
+        <v>772</v>
+      </c>
+      <c r="F241" s="28">
+        <v>42434.0</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>8</v>
@@ -36813,19 +36810,19 @@
         <v>241.0</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>52</v>
+        <v>261</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D242" s="39" t="s">
-        <v>772</v>
-      </c>
-      <c r="E242" s="29" t="s">
-        <v>773</v>
-      </c>
-      <c r="F242" s="28">
-        <v>42434.0</v>
+        <v>8</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>8</v>
@@ -36835,8 +36832,8 @@
       <c r="A243" s="1">
         <v>242.0</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>261</v>
+      <c r="B243" s="24" t="s">
+        <v>432</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>8</v>
@@ -36858,20 +36855,20 @@
       <c r="A244" s="1">
         <v>243.0</v>
       </c>
-      <c r="B244" s="24" t="s">
-        <v>432</v>
+      <c r="B244" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>8</v>
+        <v>773</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>8</v>
+        <v>774</v>
+      </c>
+      <c r="E244" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="F244" s="28">
+        <v>42434.0</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>8</v>
@@ -36882,19 +36879,19 @@
         <v>244.0</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>774</v>
+        <v>8</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>775</v>
+        <v>8</v>
       </c>
       <c r="E245" s="29" t="s">
         <v>776</v>
       </c>
-      <c r="F245" s="28">
-        <v>42434.0</v>
+      <c r="F245" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>8</v>
@@ -36905,7 +36902,7 @@
         <v>245.0</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>402</v>
+        <v>126</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>8</v>
@@ -36913,8 +36910,8 @@
       <c r="D246" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E246" s="29" t="s">
-        <v>777</v>
+      <c r="E246" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>8</v>
@@ -36928,7 +36925,7 @@
         <v>246.0</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>8</v>
@@ -36951,7 +36948,7 @@
         <v>247.0</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>8</v>
@@ -36974,10 +36971,10 @@
         <v>248.0</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>8</v>
@@ -36997,10 +36994,10 @@
         <v>249.0</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>311</v>
+        <v>8</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>8</v>
@@ -37020,19 +37017,19 @@
         <v>250.0</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>8</v>
+        <v>777</v>
+      </c>
+      <c r="D251" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="E251" s="29" t="s">
+        <v>779</v>
+      </c>
+      <c r="F251" s="28">
+        <v>42421.0</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>8</v>
@@ -37043,19 +37040,19 @@
         <v>251.0</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D252" s="44" t="s">
-        <v>779</v>
-      </c>
-      <c r="E252" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="F252" s="28">
-        <v>42421.0</v>
+        <v>8</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>8</v>
@@ -37066,10 +37063,10 @@
         <v>252.0</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>8</v>
+        <v>780</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>8</v>
@@ -37089,10 +37086,10 @@
         <v>253.0</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>781</v>
+        <v>8</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>8</v>
@@ -37112,7 +37109,7 @@
         <v>254.0</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>8</v>
@@ -37135,19 +37132,19 @@
         <v>255.0</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>8</v>
+        <v>781</v>
+      </c>
+      <c r="D256" s="54" t="s">
+        <v>782</v>
+      </c>
+      <c r="E256" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="F256" s="28">
+        <v>42421.0</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>8</v>
@@ -37158,19 +37155,19 @@
         <v>256.0</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>240</v>
+        <v>342</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D257" s="54" t="s">
-        <v>783</v>
-      </c>
-      <c r="E257" s="29" t="s">
-        <v>784</v>
-      </c>
-      <c r="F257" s="28">
-        <v>42421.0</v>
+        <v>8</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>8</v>
@@ -37181,7 +37178,7 @@
         <v>257.0</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>342</v>
+        <v>230</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>8</v>
@@ -37204,19 +37201,19 @@
         <v>258.0</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>230</v>
+        <v>347</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>8</v>
+        <v>784</v>
+      </c>
+      <c r="D259" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="E259" s="29" t="s">
+        <v>786</v>
+      </c>
+      <c r="F259" s="28">
+        <v>42434.0</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>8</v>
@@ -37227,19 +37224,19 @@
         <v>259.0</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D260" s="14" t="s">
-        <v>786</v>
-      </c>
-      <c r="E260" s="29" t="s">
-        <v>787</v>
-      </c>
-      <c r="F260" s="28">
-        <v>42434.0</v>
+        <v>8</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>8</v>
@@ -37250,10 +37247,10 @@
         <v>260.0</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>423</v>
+        <v>20</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>8</v>
+        <v>787</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>8</v>
@@ -37273,10 +37270,10 @@
         <v>261.0</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>20</v>
+        <v>788</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>788</v>
+        <v>8</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>8</v>
@@ -37288,29 +37285,6 @@
         <v>8</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1">
-        <v>262.0</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G263" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -37378,13 +37352,13 @@
     <hyperlink r:id="rId60" ref="G200"/>
     <hyperlink r:id="rId61" ref="E213"/>
     <hyperlink r:id="rId62" ref="G213"/>
-    <hyperlink r:id="rId63" ref="E237"/>
-    <hyperlink r:id="rId64" ref="E242"/>
-    <hyperlink r:id="rId65" ref="E245"/>
-    <hyperlink r:id="rId66" location="section=Top" ref="E246"/>
-    <hyperlink r:id="rId67" ref="E252"/>
-    <hyperlink r:id="rId68" ref="E257"/>
-    <hyperlink r:id="rId69" ref="E260"/>
+    <hyperlink r:id="rId63" ref="E236"/>
+    <hyperlink r:id="rId64" ref="E241"/>
+    <hyperlink r:id="rId65" ref="E244"/>
+    <hyperlink r:id="rId66" location="section=Top" ref="E245"/>
+    <hyperlink r:id="rId67" ref="E251"/>
+    <hyperlink r:id="rId68" ref="E256"/>
+    <hyperlink r:id="rId69" ref="E259"/>
   </hyperlinks>
   <drawing r:id="rId70"/>
 </worksheet>
@@ -37403,12 +37377,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="58" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="59" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3">
@@ -37417,15 +37391,15 @@
     </row>
     <row r="4">
       <c r="A4" s="60" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="61" t="s">
+        <v>792</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>793</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="6">
@@ -37433,7 +37407,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="7">
@@ -37441,7 +37415,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="8">
@@ -37449,7 +37423,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="9">
@@ -37457,7 +37431,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10">
@@ -37465,7 +37439,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11">
@@ -37473,20 +37447,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="60" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="61" t="s">
+        <v>792</v>
+      </c>
+      <c r="B14" s="61" t="s">
         <v>793</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="15">
@@ -37494,7 +37468,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16">
@@ -37502,7 +37476,7 @@
         <v>436</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17">
@@ -37510,7 +37484,7 @@
         <v>437</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18">
@@ -37518,7 +37492,7 @@
         <v>438</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19">
@@ -37526,7 +37500,7 @@
         <v>439</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="20">
@@ -37534,7 +37508,7 @@
         <v>440</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21">
@@ -37542,7 +37516,7 @@
         <v>441</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22">
@@ -37550,7 +37524,7 @@
         <v>442</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23">
@@ -37558,15 +37532,15 @@
         <v>443</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="B24" s="62" t="s">
         <v>811</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="25">
@@ -37574,7 +37548,7 @@
         <v>445</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="26">
@@ -37582,7 +37556,7 @@
         <v>446</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="27">
@@ -37590,7 +37564,7 @@
         <v>447</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="28">
@@ -37598,7 +37572,7 @@
         <v>448</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="29">
@@ -37606,7 +37580,7 @@
         <v>449</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="30">
@@ -37614,7 +37588,7 @@
         <v>450</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31">
@@ -37622,7 +37596,7 @@
         <v>451</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="32">
@@ -37630,7 +37604,7 @@
         <v>452</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="33">
@@ -37638,7 +37612,7 @@
         <v>453</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="34">
@@ -37646,7 +37620,7 @@
         <v>454</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="35">
@@ -37654,20 +37628,20 @@
         <v>455</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="60" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="61" t="s">
+        <v>792</v>
+      </c>
+      <c r="B38" s="61" t="s">
         <v>793</v>
-      </c>
-      <c r="B38" s="61" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="39">
@@ -37675,7 +37649,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="40">
@@ -37683,7 +37657,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="41">
@@ -37691,7 +37665,7 @@
         <v>609</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="42">
@@ -37699,7 +37673,7 @@
         <v>610</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="43">
@@ -37707,7 +37681,7 @@
         <v>611</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="44">
@@ -37715,7 +37689,7 @@
         <v>612</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="45">
@@ -37723,7 +37697,7 @@
         <v>613</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
